--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>28400</v>
+        <v>37700</v>
       </c>
       <c r="E8" s="3">
-        <v>35700</v>
+        <v>27700</v>
       </c>
       <c r="F8" s="3">
-        <v>31200</v>
+        <v>34800</v>
       </c>
       <c r="G8" s="3">
-        <v>52700</v>
+        <v>30500</v>
       </c>
       <c r="H8" s="3">
-        <v>70200</v>
+        <v>51400</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>68500</v>
       </c>
       <c r="J8" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K8" s="3">
         <v>26900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>33200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17500</v>
+        <v>23900</v>
       </c>
       <c r="E10" s="3">
-        <v>27000</v>
+        <v>17100</v>
       </c>
       <c r="F10" s="3">
-        <v>22500</v>
+        <v>26400</v>
       </c>
       <c r="G10" s="3">
-        <v>38300</v>
+        <v>21900</v>
       </c>
       <c r="H10" s="3">
-        <v>37000</v>
+        <v>23300</v>
       </c>
       <c r="I10" s="3">
-        <v>26200</v>
+        <v>36100</v>
       </c>
       <c r="J10" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K10" s="3">
         <v>16000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="3">
-        <v>8100</v>
+        <v>7000</v>
       </c>
       <c r="F12" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="3">
-        <v>26500</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="3">
-        <v>9000</v>
+        <v>25900</v>
       </c>
       <c r="J12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,19 +946,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>193400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -950,52 +969,55 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11000</v>
+        <v>14400</v>
       </c>
       <c r="E15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H15" s="3">
         <v>9300</v>
       </c>
-      <c r="F15" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11900</v>
-      </c>
       <c r="I15" s="3">
-        <v>4000</v>
+        <v>11600</v>
       </c>
       <c r="J15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K15" s="3">
         <v>7900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>16300</v>
       </c>
       <c r="L15" s="3">
         <v>16300</v>
@@ -1003,11 +1025,14 @@
       <c r="M15" s="3">
         <v>16300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60500</v>
+        <v>260900</v>
       </c>
       <c r="E17" s="3">
-        <v>50800</v>
+        <v>59000</v>
       </c>
       <c r="F17" s="3">
-        <v>55300</v>
+        <v>49600</v>
       </c>
       <c r="G17" s="3">
-        <v>66700</v>
+        <v>54000</v>
       </c>
       <c r="H17" s="3">
-        <v>114500</v>
+        <v>65100</v>
       </c>
       <c r="I17" s="3">
-        <v>53400</v>
+        <v>111700</v>
       </c>
       <c r="J17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K17" s="3">
         <v>47900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>76000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32100</v>
+        <v>-223200</v>
       </c>
       <c r="E18" s="3">
-        <v>-15100</v>
+        <v>-31300</v>
       </c>
       <c r="F18" s="3">
-        <v>-24100</v>
+        <v>-14700</v>
       </c>
       <c r="G18" s="3">
-        <v>-14000</v>
+        <v>-23500</v>
       </c>
       <c r="H18" s="3">
-        <v>-44200</v>
+        <v>-13700</v>
       </c>
       <c r="I18" s="3">
-        <v>-16700</v>
+        <v>-43200</v>
       </c>
       <c r="J18" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-44000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>5600</v>
-      </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>23700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-34000</v>
+        <v>-223200</v>
       </c>
       <c r="E21" s="3">
-        <v>-4400</v>
+        <v>-33100</v>
       </c>
       <c r="F21" s="3">
-        <v>-3100</v>
+        <v>-4300</v>
       </c>
       <c r="G21" s="3">
-        <v>-11500</v>
+        <v>-3000</v>
       </c>
       <c r="H21" s="3">
-        <v>-28900</v>
+        <v>-11200</v>
       </c>
       <c r="I21" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-28200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-10700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35700</v>
+        <v>-226900</v>
       </c>
       <c r="E23" s="3">
-        <v>-13900</v>
+        <v>-34800</v>
       </c>
       <c r="F23" s="3">
-        <v>-22800</v>
+        <v>-13600</v>
       </c>
       <c r="G23" s="3">
-        <v>-8400</v>
+        <v>-22200</v>
       </c>
       <c r="H23" s="3">
-        <v>-41900</v>
+        <v>-8200</v>
       </c>
       <c r="I23" s="3">
-        <v>-15600</v>
+        <v>-40800</v>
       </c>
       <c r="J23" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-300</v>
-      </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35600</v>
+        <v>-227000</v>
       </c>
       <c r="E26" s="3">
-        <v>-14000</v>
+        <v>-34700</v>
       </c>
       <c r="F26" s="3">
-        <v>-22100</v>
+        <v>-13600</v>
       </c>
       <c r="G26" s="3">
-        <v>-8200</v>
+        <v>-21500</v>
       </c>
       <c r="H26" s="3">
-        <v>-40300</v>
+        <v>-8000</v>
       </c>
       <c r="I26" s="3">
-        <v>-14900</v>
+        <v>-39300</v>
       </c>
       <c r="J26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-38200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46900</v>
+        <v>-228800</v>
       </c>
       <c r="E27" s="3">
-        <v>-17300</v>
+        <v>-45700</v>
       </c>
       <c r="F27" s="3">
-        <v>-106100</v>
+        <v>-16900</v>
       </c>
       <c r="G27" s="3">
-        <v>-6000</v>
+        <v>-103500</v>
       </c>
       <c r="H27" s="3">
-        <v>-82700</v>
+        <v>-25400</v>
       </c>
       <c r="I27" s="3">
-        <v>-44400</v>
+        <v>-80700</v>
       </c>
       <c r="J27" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-63300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-23700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46900</v>
+        <v>-228800</v>
       </c>
       <c r="E33" s="3">
-        <v>-17300</v>
+        <v>-45700</v>
       </c>
       <c r="F33" s="3">
-        <v>-106100</v>
+        <v>-16900</v>
       </c>
       <c r="G33" s="3">
-        <v>-6000</v>
+        <v>-103500</v>
       </c>
       <c r="H33" s="3">
-        <v>-82700</v>
+        <v>-25400</v>
       </c>
       <c r="I33" s="3">
-        <v>-44400</v>
+        <v>-80700</v>
       </c>
       <c r="J33" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-63300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46900</v>
+        <v>-228800</v>
       </c>
       <c r="E35" s="3">
-        <v>-17300</v>
+        <v>-45700</v>
       </c>
       <c r="F35" s="3">
-        <v>-106100</v>
+        <v>-16900</v>
       </c>
       <c r="G35" s="3">
-        <v>-6000</v>
+        <v>-103500</v>
       </c>
       <c r="H35" s="3">
-        <v>-82700</v>
+        <v>-25400</v>
       </c>
       <c r="I35" s="3">
-        <v>-44400</v>
+        <v>-80700</v>
       </c>
       <c r="J35" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-63300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1879,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128900</v>
+        <v>121100</v>
       </c>
       <c r="E41" s="3">
-        <v>163200</v>
+        <v>125700</v>
       </c>
       <c r="F41" s="3">
-        <v>183200</v>
+        <v>159200</v>
       </c>
       <c r="G41" s="3">
-        <v>181700</v>
+        <v>178700</v>
       </c>
       <c r="H41" s="3">
-        <v>127900</v>
+        <v>177200</v>
       </c>
       <c r="I41" s="3">
-        <v>170500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>124800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>166400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1832,31 +1918,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>55800</v>
+        <v>45500</v>
       </c>
       <c r="E42" s="3">
-        <v>46500</v>
+        <v>54400</v>
       </c>
       <c r="F42" s="3">
-        <v>30400</v>
+        <v>45300</v>
       </c>
       <c r="G42" s="3">
-        <v>49800</v>
+        <v>29700</v>
       </c>
       <c r="H42" s="3">
-        <v>43900</v>
+        <v>48600</v>
       </c>
       <c r="I42" s="3">
-        <v>33000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>42800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1870,31 +1959,34 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20100</v>
+        <v>24900</v>
       </c>
       <c r="E43" s="3">
-        <v>17300</v>
+        <v>19600</v>
       </c>
       <c r="F43" s="3">
-        <v>17600</v>
+        <v>16900</v>
       </c>
       <c r="G43" s="3">
-        <v>19000</v>
+        <v>17200</v>
       </c>
       <c r="H43" s="3">
-        <v>27100</v>
+        <v>18500</v>
       </c>
       <c r="I43" s="3">
-        <v>30800</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>26400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>30000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1908,16 +2000,19 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
@@ -1926,13 +2021,13 @@
         <v>700</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1946,31 +2041,34 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20600</v>
+        <v>16600</v>
       </c>
       <c r="E45" s="3">
-        <v>22400</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="3">
-        <v>23300</v>
+        <v>21900</v>
       </c>
       <c r="G45" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="H45" s="3">
-        <v>7200</v>
+        <v>23000</v>
       </c>
       <c r="I45" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1984,31 +2082,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>225800</v>
+        <v>210100</v>
       </c>
       <c r="E46" s="3">
-        <v>250200</v>
+        <v>220300</v>
       </c>
       <c r="F46" s="3">
-        <v>255200</v>
+        <v>244100</v>
       </c>
       <c r="G46" s="3">
-        <v>274700</v>
+        <v>248900</v>
       </c>
       <c r="H46" s="3">
-        <v>206200</v>
+        <v>267900</v>
       </c>
       <c r="I46" s="3">
-        <v>240800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>201100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>234900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2022,31 +2123,34 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16100</v>
+        <v>10100</v>
       </c>
       <c r="E47" s="3">
-        <v>31500</v>
+        <v>15700</v>
       </c>
       <c r="F47" s="3">
-        <v>34700</v>
+        <v>30700</v>
       </c>
       <c r="G47" s="3">
-        <v>31600</v>
+        <v>33800</v>
       </c>
       <c r="H47" s="3">
-        <v>28800</v>
+        <v>30800</v>
       </c>
       <c r="I47" s="3">
-        <v>28300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>28100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>27600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2060,31 +2164,34 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>1700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2098,31 +2205,34 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>369000</v>
+        <v>150500</v>
       </c>
       <c r="E49" s="3">
-        <v>363900</v>
+        <v>359900</v>
       </c>
       <c r="F49" s="3">
-        <v>368800</v>
+        <v>354900</v>
       </c>
       <c r="G49" s="3">
+        <v>359800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>364900</v>
+      </c>
+      <c r="I49" s="3">
         <v>374100</v>
       </c>
-      <c r="H49" s="3">
-        <v>383500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>237800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>232000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
-        <v>2900</v>
-      </c>
       <c r="I52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,31 +2410,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>615600</v>
+        <v>374700</v>
       </c>
       <c r="E54" s="3">
-        <v>647600</v>
+        <v>600500</v>
       </c>
       <c r="F54" s="3">
-        <v>660500</v>
+        <v>631700</v>
       </c>
       <c r="G54" s="3">
-        <v>683300</v>
+        <v>644300</v>
       </c>
       <c r="H54" s="3">
-        <v>623000</v>
+        <v>666500</v>
       </c>
       <c r="I54" s="3">
-        <v>510300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>607700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>497800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,31 +2487,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>5800</v>
       </c>
       <c r="E57" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="F57" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>3700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,31 +2567,34 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72000</v>
+        <v>70900</v>
       </c>
       <c r="E59" s="3">
-        <v>70400</v>
+        <v>70200</v>
       </c>
       <c r="F59" s="3">
-        <v>76200</v>
+        <v>68700</v>
       </c>
       <c r="G59" s="3">
-        <v>82400</v>
+        <v>74300</v>
       </c>
       <c r="H59" s="3">
-        <v>75500</v>
+        <v>80400</v>
       </c>
       <c r="I59" s="3">
-        <v>95800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>73600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>93500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2472,31 +2608,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>71600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>76800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>82700</v>
+      </c>
+      <c r="I60" s="3">
         <v>75800</v>
       </c>
-      <c r="E60" s="3">
-        <v>73400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>78800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>84800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>77700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>99600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>97200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,31 +2690,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>2800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,31 +2854,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="E66" s="3">
-        <v>74400</v>
+        <v>77900</v>
       </c>
       <c r="F66" s="3">
-        <v>79800</v>
+        <v>72600</v>
       </c>
       <c r="G66" s="3">
-        <v>85900</v>
+        <v>77800</v>
       </c>
       <c r="H66" s="3">
-        <v>79900</v>
+        <v>83800</v>
       </c>
       <c r="I66" s="3">
-        <v>102500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>77900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1246100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1066200</v>
+        <v>1215600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1040100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3076,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-842200</v>
+        <v>-1050400</v>
       </c>
       <c r="E72" s="3">
-        <v>-795400</v>
+        <v>-821600</v>
       </c>
       <c r="F72" s="3">
-        <v>-778100</v>
+        <v>-775900</v>
       </c>
       <c r="G72" s="3">
-        <v>-757900</v>
+        <v>-759000</v>
       </c>
       <c r="H72" s="3">
-        <v>-734400</v>
+        <v>-739300</v>
       </c>
       <c r="I72" s="3">
-        <v>-685200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-716400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-668400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3240,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>535800</v>
+        <v>294400</v>
       </c>
       <c r="E76" s="3">
-        <v>573200</v>
+        <v>522700</v>
       </c>
       <c r="F76" s="3">
-        <v>580800</v>
+        <v>559100</v>
       </c>
       <c r="G76" s="3">
-        <v>597400</v>
+        <v>566500</v>
       </c>
       <c r="H76" s="3">
-        <v>-703000</v>
+        <v>582700</v>
       </c>
       <c r="I76" s="3">
-        <v>-658400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-685800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-642200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46900</v>
+        <v>-228800</v>
       </c>
       <c r="E81" s="3">
-        <v>-17300</v>
+        <v>-45700</v>
       </c>
       <c r="F81" s="3">
-        <v>-106100</v>
+        <v>-16900</v>
       </c>
       <c r="G81" s="3">
-        <v>-6000</v>
+        <v>-103500</v>
       </c>
       <c r="H81" s="3">
-        <v>-82700</v>
+        <v>-25400</v>
       </c>
       <c r="I81" s="3">
-        <v>-44400</v>
+        <v>-80700</v>
       </c>
       <c r="J81" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-63300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,29 +3446,32 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>13000</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>18700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12800</v>
+        <v>-5300</v>
       </c>
       <c r="E89" s="3">
-        <v>-4300</v>
+        <v>-12500</v>
       </c>
       <c r="F89" s="3">
-        <v>-13000</v>
+        <v>-4200</v>
       </c>
       <c r="G89" s="3">
-        <v>4200</v>
+        <v>-12700</v>
       </c>
       <c r="H89" s="3">
-        <v>-37900</v>
+        <v>4100</v>
       </c>
       <c r="I89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3530,29 +3750,32 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>-300</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21300</v>
+        <v>1800</v>
       </c>
       <c r="E94" s="3">
-        <v>-17100</v>
+        <v>-20800</v>
       </c>
       <c r="F94" s="3">
-        <v>20200</v>
+        <v>-16700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11300</v>
+        <v>19700</v>
       </c>
       <c r="H94" s="3">
-        <v>-20800</v>
+        <v>-11000</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>-20300</v>
       </c>
       <c r="J94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K94" s="3">
         <v>11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-3300</v>
-      </c>
       <c r="G100" s="3">
-        <v>61100</v>
+        <v>-3200</v>
       </c>
       <c r="H100" s="3">
+        <v>59600</v>
+      </c>
+      <c r="I100" s="3">
         <v>1700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>9200</v>
-      </c>
       <c r="I101" s="3">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="J101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34300</v>
+        <v>-4600</v>
       </c>
       <c r="E102" s="3">
-        <v>-20000</v>
+        <v>-33500</v>
       </c>
       <c r="F102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
-        <v>53800</v>
-      </c>
       <c r="H102" s="3">
-        <v>-47800</v>
+        <v>52400</v>
       </c>
       <c r="I102" s="3">
-        <v>-5100</v>
+        <v>-46600</v>
       </c>
       <c r="J102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42800</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>37700</v>
+        <v>17300</v>
       </c>
       <c r="E8" s="3">
-        <v>27700</v>
+        <v>39100</v>
       </c>
       <c r="F8" s="3">
-        <v>34800</v>
+        <v>28700</v>
       </c>
       <c r="G8" s="3">
-        <v>30500</v>
+        <v>36100</v>
       </c>
       <c r="H8" s="3">
-        <v>51400</v>
+        <v>31600</v>
       </c>
       <c r="I8" s="3">
-        <v>68500</v>
+        <v>53300</v>
       </c>
       <c r="J8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K8" s="3">
         <v>35800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13800</v>
+        <v>8500</v>
       </c>
       <c r="E9" s="3">
-        <v>10600</v>
+        <v>14300</v>
       </c>
       <c r="F9" s="3">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="G9" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H9" s="3">
-        <v>28100</v>
+        <v>8900</v>
       </c>
       <c r="I9" s="3">
-        <v>32400</v>
+        <v>14600</v>
       </c>
       <c r="J9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23900</v>
+        <v>8800</v>
       </c>
       <c r="E10" s="3">
-        <v>17100</v>
+        <v>24800</v>
       </c>
       <c r="F10" s="3">
-        <v>26400</v>
+        <v>17700</v>
       </c>
       <c r="G10" s="3">
-        <v>21900</v>
+        <v>27300</v>
       </c>
       <c r="H10" s="3">
-        <v>23300</v>
+        <v>22700</v>
       </c>
       <c r="I10" s="3">
-        <v>36100</v>
+        <v>38700</v>
       </c>
       <c r="J10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="G12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I12" s="3">
         <v>8000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>25900</v>
       </c>
       <c r="J12" s="3">
         <v>8800</v>
       </c>
       <c r="K12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,22 +966,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>193400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -972,55 +992,58 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14400</v>
+        <v>12700</v>
       </c>
       <c r="E15" s="3">
-        <v>10800</v>
+        <v>14900</v>
       </c>
       <c r="F15" s="3">
-        <v>9000</v>
+        <v>11200</v>
       </c>
       <c r="G15" s="3">
-        <v>6300</v>
+        <v>9400</v>
       </c>
       <c r="H15" s="3">
-        <v>9300</v>
+        <v>6500</v>
       </c>
       <c r="I15" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="J15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>16300</v>
       </c>
       <c r="M15" s="3">
         <v>16300</v>
@@ -1028,11 +1051,14 @@
       <c r="N15" s="3">
         <v>16300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>260900</v>
+        <v>38900</v>
       </c>
       <c r="E17" s="3">
-        <v>59000</v>
+        <v>270800</v>
       </c>
       <c r="F17" s="3">
-        <v>49600</v>
+        <v>61200</v>
       </c>
       <c r="G17" s="3">
-        <v>54000</v>
+        <v>51400</v>
       </c>
       <c r="H17" s="3">
-        <v>65100</v>
+        <v>56000</v>
       </c>
       <c r="I17" s="3">
-        <v>111700</v>
+        <v>67500</v>
       </c>
       <c r="J17" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K17" s="3">
         <v>52100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>76000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-223200</v>
+        <v>-21700</v>
       </c>
       <c r="E18" s="3">
-        <v>-31300</v>
+        <v>-231600</v>
       </c>
       <c r="F18" s="3">
-        <v>-14700</v>
+        <v>-32500</v>
       </c>
       <c r="G18" s="3">
-        <v>-23500</v>
+        <v>-15300</v>
       </c>
       <c r="H18" s="3">
-        <v>-13700</v>
+        <v>-24400</v>
       </c>
       <c r="I18" s="3">
-        <v>-43200</v>
+        <v>-14200</v>
       </c>
       <c r="J18" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-44000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
-        <v>5500</v>
-      </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>5700</v>
       </c>
       <c r="J20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-223200</v>
+        <v>-23100</v>
       </c>
       <c r="E21" s="3">
-        <v>-33100</v>
+        <v>-231600</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
+        <v>-34400</v>
       </c>
       <c r="G21" s="3">
-        <v>-3000</v>
+        <v>-4400</v>
       </c>
       <c r="H21" s="3">
-        <v>-11200</v>
+        <v>-3100</v>
       </c>
       <c r="I21" s="3">
-        <v>-28200</v>
+        <v>-11600</v>
       </c>
       <c r="J21" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-226900</v>
+        <v>-20800</v>
       </c>
       <c r="E23" s="3">
-        <v>-34800</v>
+        <v>-235500</v>
       </c>
       <c r="F23" s="3">
-        <v>-13600</v>
+        <v>-36100</v>
       </c>
       <c r="G23" s="3">
-        <v>-22200</v>
+        <v>-14100</v>
       </c>
       <c r="H23" s="3">
-        <v>-8200</v>
+        <v>-23100</v>
       </c>
       <c r="I23" s="3">
-        <v>-40800</v>
+        <v>-8500</v>
       </c>
       <c r="J23" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-200</v>
-      </c>
       <c r="I24" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-227000</v>
+        <v>-20600</v>
       </c>
       <c r="E26" s="3">
-        <v>-34700</v>
+        <v>-235600</v>
       </c>
       <c r="F26" s="3">
-        <v>-13600</v>
+        <v>-36100</v>
       </c>
       <c r="G26" s="3">
-        <v>-21500</v>
+        <v>-14100</v>
       </c>
       <c r="H26" s="3">
-        <v>-8000</v>
+        <v>-22400</v>
       </c>
       <c r="I26" s="3">
-        <v>-39300</v>
+        <v>-8300</v>
       </c>
       <c r="J26" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>-38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-228800</v>
+        <v>-20600</v>
       </c>
       <c r="E27" s="3">
-        <v>-45700</v>
+        <v>-237400</v>
       </c>
       <c r="F27" s="3">
-        <v>-16900</v>
+        <v>-47400</v>
       </c>
       <c r="G27" s="3">
-        <v>-103500</v>
+        <v>-17500</v>
       </c>
       <c r="H27" s="3">
-        <v>-25400</v>
+        <v>-20400</v>
       </c>
       <c r="I27" s="3">
-        <v>-80700</v>
+        <v>-26300</v>
       </c>
       <c r="J27" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-43300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>-63300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-49600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-5700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-228800</v>
+        <v>-20600</v>
       </c>
       <c r="E33" s="3">
-        <v>-45700</v>
+        <v>-237400</v>
       </c>
       <c r="F33" s="3">
-        <v>-16900</v>
+        <v>-47400</v>
       </c>
       <c r="G33" s="3">
-        <v>-103500</v>
+        <v>-17500</v>
       </c>
       <c r="H33" s="3">
-        <v>-25400</v>
+        <v>-20400</v>
       </c>
       <c r="I33" s="3">
-        <v>-80700</v>
+        <v>-26300</v>
       </c>
       <c r="J33" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-43300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>-63300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-49600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-228800</v>
+        <v>-20600</v>
       </c>
       <c r="E35" s="3">
-        <v>-45700</v>
+        <v>-237400</v>
       </c>
       <c r="F35" s="3">
-        <v>-16900</v>
+        <v>-47400</v>
       </c>
       <c r="G35" s="3">
-        <v>-103500</v>
+        <v>-17500</v>
       </c>
       <c r="H35" s="3">
-        <v>-25400</v>
+        <v>-20400</v>
       </c>
       <c r="I35" s="3">
-        <v>-80700</v>
+        <v>-26300</v>
       </c>
       <c r="J35" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-43300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>-63300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-49600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>121100</v>
+        <v>124400</v>
       </c>
       <c r="E41" s="3">
         <v>125700</v>
       </c>
       <c r="F41" s="3">
-        <v>159200</v>
+        <v>130500</v>
       </c>
       <c r="G41" s="3">
-        <v>178700</v>
+        <v>165200</v>
       </c>
       <c r="H41" s="3">
-        <v>177200</v>
+        <v>185400</v>
       </c>
       <c r="I41" s="3">
-        <v>124800</v>
+        <v>183900</v>
       </c>
       <c r="J41" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K41" s="3">
         <v>166400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,35 +2008,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45500</v>
+        <v>34600</v>
       </c>
       <c r="E42" s="3">
-        <v>54400</v>
+        <v>47200</v>
       </c>
       <c r="F42" s="3">
-        <v>45300</v>
+        <v>56500</v>
       </c>
       <c r="G42" s="3">
-        <v>29700</v>
+        <v>47100</v>
       </c>
       <c r="H42" s="3">
-        <v>48600</v>
+        <v>30800</v>
       </c>
       <c r="I42" s="3">
-        <v>42800</v>
+        <v>50400</v>
       </c>
       <c r="J42" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K42" s="3">
         <v>32200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,35 +2052,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24900</v>
+        <v>16400</v>
       </c>
       <c r="E43" s="3">
-        <v>19600</v>
+        <v>25800</v>
       </c>
       <c r="F43" s="3">
-        <v>16900</v>
+        <v>20400</v>
       </c>
       <c r="G43" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="H43" s="3">
-        <v>18500</v>
+        <v>17800</v>
       </c>
       <c r="I43" s="3">
-        <v>26400</v>
+        <v>19200</v>
       </c>
       <c r="J43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K43" s="3">
         <v>30000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,19 +2096,22 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
@@ -2024,13 +2120,13 @@
         <v>700</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2044,35 +2140,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16600</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>20000</v>
+        <v>17200</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="G45" s="3">
         <v>22700</v>
       </c>
       <c r="H45" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="I45" s="3">
-        <v>7100</v>
+        <v>23900</v>
       </c>
       <c r="J45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>210100</v>
+        <v>190300</v>
       </c>
       <c r="E46" s="3">
-        <v>220300</v>
+        <v>218000</v>
       </c>
       <c r="F46" s="3">
-        <v>244100</v>
+        <v>228600</v>
       </c>
       <c r="G46" s="3">
-        <v>248900</v>
+        <v>253300</v>
       </c>
       <c r="H46" s="3">
-        <v>267900</v>
+        <v>258300</v>
       </c>
       <c r="I46" s="3">
-        <v>201100</v>
+        <v>278000</v>
       </c>
       <c r="J46" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K46" s="3">
         <v>234900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,35 +2228,38 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10100</v>
+        <v>14900</v>
       </c>
       <c r="E47" s="3">
-        <v>15700</v>
+        <v>10500</v>
       </c>
       <c r="F47" s="3">
-        <v>30700</v>
+        <v>16300</v>
       </c>
       <c r="G47" s="3">
-        <v>33800</v>
+        <v>31800</v>
       </c>
       <c r="H47" s="3">
-        <v>30800</v>
+        <v>35100</v>
       </c>
       <c r="I47" s="3">
-        <v>28100</v>
+        <v>32000</v>
       </c>
       <c r="J47" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K47" s="3">
         <v>27600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,35 +2272,38 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="G48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,35 +2316,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150500</v>
+        <v>145200</v>
       </c>
       <c r="E49" s="3">
-        <v>359900</v>
+        <v>156100</v>
       </c>
       <c r="F49" s="3">
-        <v>354900</v>
+        <v>373500</v>
       </c>
       <c r="G49" s="3">
-        <v>359800</v>
+        <v>368300</v>
       </c>
       <c r="H49" s="3">
-        <v>364900</v>
+        <v>373300</v>
       </c>
       <c r="I49" s="3">
-        <v>374100</v>
+        <v>378700</v>
       </c>
       <c r="J49" s="3">
+        <v>388200</v>
+      </c>
+      <c r="K49" s="3">
         <v>232000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
-        <v>2800</v>
-      </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>374700</v>
+        <v>354500</v>
       </c>
       <c r="E54" s="3">
-        <v>600500</v>
+        <v>388800</v>
       </c>
       <c r="F54" s="3">
-        <v>631700</v>
+        <v>623100</v>
       </c>
       <c r="G54" s="3">
-        <v>644300</v>
+        <v>655500</v>
       </c>
       <c r="H54" s="3">
-        <v>666500</v>
+        <v>668600</v>
       </c>
       <c r="I54" s="3">
-        <v>607700</v>
+        <v>691600</v>
       </c>
       <c r="J54" s="3">
+        <v>630600</v>
+      </c>
+      <c r="K54" s="3">
         <v>497800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,35 +2704,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>70900</v>
+        <v>60700</v>
       </c>
       <c r="E59" s="3">
-        <v>70200</v>
+        <v>73500</v>
       </c>
       <c r="F59" s="3">
-        <v>68700</v>
+        <v>72900</v>
       </c>
       <c r="G59" s="3">
-        <v>74300</v>
+        <v>71300</v>
       </c>
       <c r="H59" s="3">
-        <v>80400</v>
+        <v>77100</v>
       </c>
       <c r="I59" s="3">
-        <v>73600</v>
+        <v>83400</v>
       </c>
       <c r="J59" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K59" s="3">
         <v>93500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>79600</v>
+      </c>
+      <c r="F60" s="3">
         <v>76700</v>
       </c>
-      <c r="E60" s="3">
-        <v>73900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>71600</v>
-      </c>
       <c r="G60" s="3">
-        <v>76800</v>
+        <v>74300</v>
       </c>
       <c r="H60" s="3">
-        <v>82700</v>
+        <v>79700</v>
       </c>
       <c r="I60" s="3">
-        <v>75800</v>
+        <v>85800</v>
       </c>
       <c r="J60" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K60" s="3">
         <v>97200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2705,23 +2851,23 @@
         <v>3900</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80400</v>
+        <v>66800</v>
       </c>
       <c r="E66" s="3">
-        <v>77900</v>
+        <v>83400</v>
       </c>
       <c r="F66" s="3">
-        <v>72600</v>
+        <v>80800</v>
       </c>
       <c r="G66" s="3">
-        <v>77800</v>
+        <v>75300</v>
       </c>
       <c r="H66" s="3">
-        <v>83800</v>
+        <v>80800</v>
       </c>
       <c r="I66" s="3">
-        <v>77900</v>
+        <v>87000</v>
       </c>
       <c r="J66" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K66" s="3">
         <v>100000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,14 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1215600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>1261300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1040100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1050400</v>
+        <v>-1110500</v>
       </c>
       <c r="E72" s="3">
-        <v>-821600</v>
+        <v>-1089900</v>
       </c>
       <c r="F72" s="3">
-        <v>-775900</v>
+        <v>-852500</v>
       </c>
       <c r="G72" s="3">
-        <v>-759000</v>
+        <v>-805100</v>
       </c>
       <c r="H72" s="3">
-        <v>-739300</v>
+        <v>-787600</v>
       </c>
       <c r="I72" s="3">
-        <v>-716400</v>
+        <v>-767100</v>
       </c>
       <c r="J72" s="3">
+        <v>-743400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-668400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>294400</v>
+        <v>287600</v>
       </c>
       <c r="E76" s="3">
-        <v>522700</v>
+        <v>305400</v>
       </c>
       <c r="F76" s="3">
-        <v>559100</v>
+        <v>542300</v>
       </c>
       <c r="G76" s="3">
-        <v>566500</v>
+        <v>580200</v>
       </c>
       <c r="H76" s="3">
-        <v>582700</v>
+        <v>587800</v>
       </c>
       <c r="I76" s="3">
-        <v>-685800</v>
+        <v>604600</v>
       </c>
       <c r="J76" s="3">
+        <v>-711600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-642200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-228800</v>
+        <v>-20600</v>
       </c>
       <c r="E81" s="3">
-        <v>-45700</v>
+        <v>-237400</v>
       </c>
       <c r="F81" s="3">
-        <v>-16900</v>
+        <v>-47400</v>
       </c>
       <c r="G81" s="3">
-        <v>-103500</v>
+        <v>-17500</v>
       </c>
       <c r="H81" s="3">
-        <v>-25400</v>
+        <v>-20400</v>
       </c>
       <c r="I81" s="3">
-        <v>-80700</v>
+        <v>-26300</v>
       </c>
       <c r="J81" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-43300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>-63300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-49600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3449,29 +3648,32 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>12700</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>18700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5300</v>
+        <v>-22500</v>
       </c>
       <c r="E89" s="3">
-        <v>-12500</v>
+        <v>-5500</v>
       </c>
       <c r="F89" s="3">
-        <v>-4200</v>
+        <v>-13000</v>
       </c>
       <c r="G89" s="3">
-        <v>-12700</v>
+        <v>-4300</v>
       </c>
       <c r="H89" s="3">
-        <v>4100</v>
+        <v>-13100</v>
       </c>
       <c r="I89" s="3">
-        <v>-37000</v>
+        <v>4200</v>
       </c>
       <c r="J89" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3753,29 +3974,32 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>-400</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-200</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>-300</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1800</v>
+        <v>20600</v>
       </c>
       <c r="E94" s="3">
-        <v>-20800</v>
+        <v>1900</v>
       </c>
       <c r="F94" s="3">
-        <v>-16700</v>
+        <v>-21600</v>
       </c>
       <c r="G94" s="3">
-        <v>19700</v>
+        <v>-17300</v>
       </c>
       <c r="H94" s="3">
-        <v>-11000</v>
+        <v>20400</v>
       </c>
       <c r="I94" s="3">
-        <v>-20300</v>
+        <v>-11400</v>
       </c>
       <c r="J94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>33600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-2700</v>
-      </c>
       <c r="F100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H100" s="3">
-        <v>59600</v>
+        <v>-3400</v>
       </c>
       <c r="I100" s="3">
-        <v>1700</v>
+        <v>61800</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>-900</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4600</v>
+        <v>-1300</v>
       </c>
       <c r="E102" s="3">
-        <v>-33500</v>
+        <v>-4800</v>
       </c>
       <c r="F102" s="3">
-        <v>-19500</v>
+        <v>-34800</v>
       </c>
       <c r="G102" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>52400</v>
-      </c>
       <c r="I102" s="3">
-        <v>-46600</v>
+        <v>54400</v>
       </c>
       <c r="J102" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42800</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="E8" s="3">
-        <v>39100</v>
+        <v>20200</v>
       </c>
       <c r="F8" s="3">
-        <v>28700</v>
+        <v>18100</v>
       </c>
       <c r="G8" s="3">
-        <v>36100</v>
+        <v>41000</v>
       </c>
       <c r="H8" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="I8" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K8" s="3">
         <v>53300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>45300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>39300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8500</v>
+        <v>6900</v>
       </c>
       <c r="E9" s="3">
-        <v>14300</v>
+        <v>7400</v>
       </c>
       <c r="F9" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="G9" s="3">
-        <v>8800</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="3">
-        <v>8900</v>
+        <v>11600</v>
       </c>
       <c r="I9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K9" s="3">
         <v>14600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8800</v>
+        <v>10200</v>
       </c>
       <c r="E10" s="3">
-        <v>24800</v>
+        <v>12700</v>
       </c>
       <c r="F10" s="3">
-        <v>17700</v>
+        <v>9200</v>
       </c>
       <c r="G10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="M10" s="3">
+        <v>25600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>27300</v>
       </c>
-      <c r="H10" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>38700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>22500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>25600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>16000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>33000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>20400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="E12" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>4900</v>
       </c>
       <c r="H12" s="3">
-        <v>8300</v>
+        <v>7600</v>
       </c>
       <c r="I12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1003,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>210300</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12700</v>
+        <v>11500</v>
       </c>
       <c r="E15" s="3">
-        <v>14900</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>11200</v>
+        <v>13300</v>
       </c>
       <c r="G15" s="3">
-        <v>9400</v>
+        <v>15700</v>
       </c>
       <c r="H15" s="3">
-        <v>6500</v>
+        <v>11700</v>
       </c>
       <c r="I15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K15" s="3">
         <v>9700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>16300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>16300</v>
       </c>
       <c r="O15" s="3">
         <v>16300</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38900</v>
+        <v>32400</v>
       </c>
       <c r="E17" s="3">
-        <v>270800</v>
+        <v>34600</v>
       </c>
       <c r="F17" s="3">
-        <v>61200</v>
+        <v>40800</v>
       </c>
       <c r="G17" s="3">
-        <v>51400</v>
+        <v>283600</v>
       </c>
       <c r="H17" s="3">
-        <v>56000</v>
+        <v>64100</v>
       </c>
       <c r="I17" s="3">
+        <v>53900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K17" s="3">
         <v>67500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>61800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>52100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>47900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>76000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>69400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21700</v>
+        <v>-15300</v>
       </c>
       <c r="E18" s="3">
-        <v>-231600</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
-        <v>-32500</v>
+        <v>-22700</v>
       </c>
       <c r="G18" s="3">
-        <v>-15300</v>
+        <v>-242600</v>
       </c>
       <c r="H18" s="3">
-        <v>-24400</v>
+        <v>-34000</v>
       </c>
       <c r="I18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-20900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-44000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-30100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,87 +1255,99 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>23700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23100</v>
+        <v>-13600</v>
       </c>
       <c r="E21" s="3">
-        <v>-231600</v>
+        <v>-2700</v>
       </c>
       <c r="F21" s="3">
-        <v>-34400</v>
+        <v>-24200</v>
       </c>
       <c r="G21" s="3">
-        <v>-4400</v>
+        <v>-242600</v>
       </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>-36000</v>
       </c>
       <c r="I21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-23300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20800</v>
+        <v>-14400</v>
       </c>
       <c r="E23" s="3">
-        <v>-235500</v>
+        <v>-13700</v>
       </c>
       <c r="F23" s="3">
-        <v>-36100</v>
+        <v>-21800</v>
       </c>
       <c r="G23" s="3">
-        <v>-14100</v>
+        <v>-246600</v>
       </c>
       <c r="H23" s="3">
-        <v>-23100</v>
+        <v>-37800</v>
       </c>
       <c r="I23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-42100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-29200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1455,49 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20600</v>
+        <v>-14300</v>
       </c>
       <c r="E26" s="3">
-        <v>-235600</v>
+        <v>-13500</v>
       </c>
       <c r="F26" s="3">
-        <v>-36100</v>
+        <v>-21600</v>
       </c>
       <c r="G26" s="3">
-        <v>-14100</v>
+        <v>-246800</v>
       </c>
       <c r="H26" s="3">
-        <v>-22400</v>
+        <v>-37800</v>
       </c>
       <c r="I26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-25800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>-38200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-25300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20600</v>
+        <v>-14300</v>
       </c>
       <c r="E27" s="3">
-        <v>-237400</v>
+        <v>-13500</v>
       </c>
       <c r="F27" s="3">
-        <v>-47400</v>
+        <v>-21600</v>
       </c>
       <c r="G27" s="3">
-        <v>-17500</v>
+        <v>-248700</v>
       </c>
       <c r="H27" s="3">
-        <v>-20400</v>
+        <v>-49700</v>
       </c>
       <c r="I27" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-65900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-43300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>-63300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-49600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1855,99 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-23700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20600</v>
+        <v>-14300</v>
       </c>
       <c r="E33" s="3">
-        <v>-237400</v>
+        <v>-13500</v>
       </c>
       <c r="F33" s="3">
-        <v>-47400</v>
+        <v>-21600</v>
       </c>
       <c r="G33" s="3">
-        <v>-17500</v>
+        <v>-248700</v>
       </c>
       <c r="H33" s="3">
-        <v>-20400</v>
+        <v>-49700</v>
       </c>
       <c r="I33" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-65900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-43300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>-63300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-49600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20600</v>
+        <v>-14300</v>
       </c>
       <c r="E35" s="3">
-        <v>-237400</v>
+        <v>-13500</v>
       </c>
       <c r="F35" s="3">
-        <v>-47400</v>
+        <v>-21600</v>
       </c>
       <c r="G35" s="3">
-        <v>-17500</v>
+        <v>-248700</v>
       </c>
       <c r="H35" s="3">
-        <v>-20400</v>
+        <v>-49700</v>
       </c>
       <c r="I35" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-65900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-43300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>-63300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-49600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2139,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124400</v>
+        <v>87000</v>
       </c>
       <c r="E41" s="3">
-        <v>125700</v>
+        <v>125900</v>
       </c>
       <c r="F41" s="3">
-        <v>130500</v>
+        <v>130300</v>
       </c>
       <c r="G41" s="3">
-        <v>165200</v>
+        <v>131700</v>
       </c>
       <c r="H41" s="3">
-        <v>185400</v>
+        <v>136600</v>
       </c>
       <c r="I41" s="3">
+        <v>173100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K41" s="3">
         <v>183900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>129500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>166400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,41 +2185,47 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34600</v>
+        <v>35000</v>
       </c>
       <c r="E42" s="3">
-        <v>47200</v>
+        <v>33500</v>
       </c>
       <c r="F42" s="3">
-        <v>56500</v>
+        <v>36200</v>
       </c>
       <c r="G42" s="3">
-        <v>47100</v>
+        <v>49400</v>
       </c>
       <c r="H42" s="3">
-        <v>30800</v>
+        <v>59200</v>
       </c>
       <c r="I42" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K42" s="3">
         <v>50400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>44400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>32200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,41 +2235,47 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="E43" s="3">
-        <v>25800</v>
+        <v>18000</v>
       </c>
       <c r="F43" s="3">
-        <v>20400</v>
+        <v>17200</v>
       </c>
       <c r="G43" s="3">
-        <v>17600</v>
+        <v>27100</v>
       </c>
       <c r="H43" s="3">
-        <v>17800</v>
+        <v>21300</v>
       </c>
       <c r="I43" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K43" s="3">
         <v>19200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>27400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>30000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,41 +2285,47 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
-        <v>2000</v>
-      </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
-        <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>700</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,41 +2335,47 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14500</v>
+        <v>12600</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>12900</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>22700</v>
+        <v>18000</v>
       </c>
       <c r="H45" s="3">
-        <v>23600</v>
+        <v>21800</v>
       </c>
       <c r="I45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K45" s="3">
         <v>23900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,41 +2385,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>190300</v>
+        <v>152100</v>
       </c>
       <c r="E46" s="3">
-        <v>218000</v>
+        <v>190700</v>
       </c>
       <c r="F46" s="3">
-        <v>228600</v>
+        <v>199400</v>
       </c>
       <c r="G46" s="3">
-        <v>253300</v>
+        <v>228300</v>
       </c>
       <c r="H46" s="3">
-        <v>258300</v>
+        <v>239400</v>
       </c>
       <c r="I46" s="3">
+        <v>265300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K46" s="3">
         <v>278000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>208700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>234900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,41 +2435,47 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14900</v>
+        <v>18400</v>
       </c>
       <c r="E47" s="3">
-        <v>10500</v>
+        <v>17400</v>
       </c>
       <c r="F47" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="G47" s="3">
-        <v>31800</v>
+        <v>11000</v>
       </c>
       <c r="H47" s="3">
-        <v>35100</v>
+        <v>17100</v>
       </c>
       <c r="I47" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K47" s="3">
         <v>32000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>29200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,41 +2485,47 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="H48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,41 +2535,47 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145200</v>
+        <v>126000</v>
       </c>
       <c r="E49" s="3">
-        <v>156100</v>
+        <v>141200</v>
       </c>
       <c r="F49" s="3">
-        <v>373500</v>
+        <v>152000</v>
       </c>
       <c r="G49" s="3">
-        <v>368300</v>
+        <v>163500</v>
       </c>
       <c r="H49" s="3">
-        <v>373300</v>
+        <v>391200</v>
       </c>
       <c r="I49" s="3">
+        <v>385800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>391000</v>
+      </c>
+      <c r="K49" s="3">
         <v>378700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>388200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>232000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2685,47 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>18400</v>
       </c>
       <c r="E52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F52" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2785,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>354500</v>
+        <v>317100</v>
       </c>
       <c r="E54" s="3">
-        <v>388800</v>
+        <v>353400</v>
       </c>
       <c r="F54" s="3">
-        <v>623100</v>
+        <v>371300</v>
       </c>
       <c r="G54" s="3">
-        <v>655500</v>
+        <v>407300</v>
       </c>
       <c r="H54" s="3">
-        <v>668600</v>
+        <v>652700</v>
       </c>
       <c r="I54" s="3">
+        <v>686600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>700300</v>
+      </c>
+      <c r="K54" s="3">
         <v>691600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>630600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>497800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2879,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>3000</v>
+        <v>6300</v>
       </c>
       <c r="H57" s="3">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="I57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,41 +2975,47 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60700</v>
+        <v>56100</v>
       </c>
       <c r="E59" s="3">
-        <v>73500</v>
+        <v>59000</v>
       </c>
       <c r="F59" s="3">
-        <v>72900</v>
+        <v>63600</v>
       </c>
       <c r="G59" s="3">
-        <v>71300</v>
+        <v>77000</v>
       </c>
       <c r="H59" s="3">
-        <v>77100</v>
+        <v>76400</v>
       </c>
       <c r="I59" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K59" s="3">
         <v>83400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>93500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,41 +3025,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63200</v>
+        <v>59200</v>
       </c>
       <c r="E60" s="3">
-        <v>79600</v>
+        <v>62300</v>
       </c>
       <c r="F60" s="3">
-        <v>76700</v>
+        <v>66200</v>
       </c>
       <c r="G60" s="3">
-        <v>74300</v>
+        <v>83300</v>
       </c>
       <c r="H60" s="3">
-        <v>79700</v>
+        <v>80400</v>
       </c>
       <c r="I60" s="3">
+        <v>77800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K60" s="3">
         <v>85800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>78700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>97200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,41 +3125,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F62" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3325,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="E66" s="3">
-        <v>83400</v>
+        <v>65900</v>
       </c>
       <c r="F66" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>87400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>84600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>87000</v>
+      </c>
+      <c r="L66" s="3">
         <v>80800</v>
       </c>
-      <c r="G66" s="3">
-        <v>75300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>80800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>87000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>80800</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,17 +3525,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1261300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1040100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3595,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1110500</v>
+        <v>-1191000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1089900</v>
+        <v>-1176700</v>
       </c>
       <c r="F72" s="3">
-        <v>-852500</v>
+        <v>-1163200</v>
       </c>
       <c r="G72" s="3">
-        <v>-805100</v>
+        <v>-1141600</v>
       </c>
       <c r="H72" s="3">
-        <v>-787600</v>
+        <v>-893000</v>
       </c>
       <c r="I72" s="3">
+        <v>-843300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-825000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-767100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-743400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-668400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3795,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>253500</v>
+      </c>
+      <c r="E76" s="3">
         <v>287600</v>
       </c>
-      <c r="E76" s="3">
-        <v>305400</v>
-      </c>
       <c r="F76" s="3">
-        <v>542300</v>
+        <v>301300</v>
       </c>
       <c r="G76" s="3">
-        <v>580200</v>
+        <v>319900</v>
       </c>
       <c r="H76" s="3">
-        <v>587800</v>
+        <v>568100</v>
       </c>
       <c r="I76" s="3">
+        <v>607700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>615700</v>
+      </c>
+      <c r="K76" s="3">
         <v>604600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-711600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-642200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20600</v>
+        <v>-14300</v>
       </c>
       <c r="E81" s="3">
-        <v>-237400</v>
+        <v>-13500</v>
       </c>
       <c r="F81" s="3">
-        <v>-47400</v>
+        <v>-21600</v>
       </c>
       <c r="G81" s="3">
-        <v>-17500</v>
+        <v>-248700</v>
       </c>
       <c r="H81" s="3">
-        <v>-20400</v>
+        <v>-49700</v>
       </c>
       <c r="I81" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-65900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-43300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>-63300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-49600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>18700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>18900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22500</v>
+        <v>-4800</v>
       </c>
       <c r="E89" s="3">
-        <v>-5500</v>
+        <v>-1300</v>
       </c>
       <c r="F89" s="3">
-        <v>-13000</v>
+        <v>-23600</v>
       </c>
       <c r="G89" s="3">
-        <v>-4300</v>
+        <v>-5700</v>
       </c>
       <c r="H89" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="I89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-19700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-18600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>26100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-33900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>20600</v>
+        <v>-17700</v>
       </c>
       <c r="E94" s="3">
-        <v>1900</v>
+        <v>-2200</v>
       </c>
       <c r="F94" s="3">
-        <v>-21600</v>
+        <v>21600</v>
       </c>
       <c r="G94" s="3">
-        <v>-17300</v>
+        <v>2000</v>
       </c>
       <c r="H94" s="3">
-        <v>20400</v>
+        <v>-22600</v>
       </c>
       <c r="I94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>33600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K100" s="3">
         <v>61800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-2400</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1300</v>
+        <v>-39000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="F102" s="3">
-        <v>-34800</v>
+        <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>-20200</v>
+        <v>-5000</v>
       </c>
       <c r="H102" s="3">
-        <v>1500</v>
+        <v>-36400</v>
       </c>
       <c r="I102" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K102" s="3">
         <v>54400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-43200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>35100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-42800</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17100</v>
+        <v>22400</v>
       </c>
       <c r="E8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F8" s="3">
         <v>20200</v>
       </c>
-      <c r="F8" s="3">
-        <v>18100</v>
-      </c>
       <c r="G8" s="3">
-        <v>41000</v>
+        <v>18200</v>
       </c>
       <c r="H8" s="3">
-        <v>30100</v>
+        <v>41200</v>
       </c>
       <c r="I8" s="3">
-        <v>37900</v>
+        <v>30200</v>
       </c>
       <c r="J8" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K8" s="3">
         <v>33100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
-        <v>7400</v>
-      </c>
       <c r="F9" s="3">
-        <v>8900</v>
+        <v>7500</v>
       </c>
       <c r="G9" s="3">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="H9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I9" s="3">
         <v>11600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9200</v>
       </c>
       <c r="J9" s="3">
         <v>9300</v>
       </c>
       <c r="K9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L9" s="3">
         <v>14600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
-        <v>12700</v>
-      </c>
       <c r="F10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G10" s="3">
         <v>9200</v>
       </c>
-      <c r="G10" s="3">
-        <v>26000</v>
-      </c>
       <c r="H10" s="3">
-        <v>18500</v>
+        <v>26100</v>
       </c>
       <c r="I10" s="3">
-        <v>28600</v>
+        <v>18600</v>
       </c>
       <c r="J10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,49 +931,52 @@
         <v>4200</v>
       </c>
       <c r="E12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
-        <v>7600</v>
-      </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="J12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K12" s="3">
         <v>8700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8800</v>
       </c>
       <c r="M12" s="3">
         <v>8800</v>
       </c>
       <c r="N12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,20 +1039,20 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>210300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>211200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1041,64 +1060,67 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11500</v>
+        <v>17300</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>11600</v>
       </c>
       <c r="F15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G15" s="3">
         <v>13300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>16300</v>
       </c>
       <c r="P15" s="3">
         <v>16300</v>
@@ -1106,11 +1128,14 @@
       <c r="Q15" s="3">
         <v>16300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32400</v>
+        <v>41200</v>
       </c>
       <c r="E17" s="3">
-        <v>34600</v>
+        <v>32500</v>
       </c>
       <c r="F17" s="3">
-        <v>40800</v>
+        <v>34700</v>
       </c>
       <c r="G17" s="3">
-        <v>283600</v>
+        <v>41000</v>
       </c>
       <c r="H17" s="3">
-        <v>64100</v>
+        <v>284800</v>
       </c>
       <c r="I17" s="3">
-        <v>53900</v>
+        <v>64400</v>
       </c>
       <c r="J17" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K17" s="3">
         <v>58700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>47900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>76000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15300</v>
+        <v>-18800</v>
       </c>
       <c r="E18" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="F18" s="3">
-        <v>-22700</v>
+        <v>-14500</v>
       </c>
       <c r="G18" s="3">
-        <v>-242600</v>
+        <v>-22800</v>
       </c>
       <c r="H18" s="3">
-        <v>-34000</v>
+        <v>-243700</v>
       </c>
       <c r="I18" s="3">
-        <v>-16000</v>
+        <v>-34200</v>
       </c>
       <c r="J18" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13600</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-24200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-242600</v>
+        <v>-24300</v>
       </c>
       <c r="H21" s="3">
-        <v>-36000</v>
+        <v>-243700</v>
       </c>
       <c r="I21" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,63 +1435,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14400</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
-        <v>-13700</v>
+        <v>-14500</v>
       </c>
       <c r="F23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-246600</v>
-      </c>
       <c r="H23" s="3">
-        <v>-37800</v>
+        <v>-247700</v>
       </c>
       <c r="I23" s="3">
-        <v>-14700</v>
+        <v>-38000</v>
       </c>
       <c r="J23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
@@ -1461,43 +1506,46 @@
         <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-13500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-21600</v>
+        <v>-13600</v>
       </c>
       <c r="G26" s="3">
-        <v>-246800</v>
+        <v>-21700</v>
       </c>
       <c r="H26" s="3">
-        <v>-37800</v>
+        <v>-247800</v>
       </c>
       <c r="I26" s="3">
-        <v>-14800</v>
+        <v>-37900</v>
       </c>
       <c r="J26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-23400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-13500</v>
-      </c>
       <c r="F27" s="3">
-        <v>-21600</v>
+        <v>-13600</v>
       </c>
       <c r="G27" s="3">
-        <v>-248700</v>
+        <v>-21700</v>
       </c>
       <c r="H27" s="3">
-        <v>-49700</v>
+        <v>-249700</v>
       </c>
       <c r="I27" s="3">
-        <v>-18300</v>
+        <v>-49900</v>
       </c>
       <c r="J27" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-49600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
-        <v>3800</v>
-      </c>
       <c r="I32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-13500</v>
-      </c>
       <c r="F33" s="3">
-        <v>-21600</v>
+        <v>-13600</v>
       </c>
       <c r="G33" s="3">
-        <v>-248700</v>
+        <v>-21700</v>
       </c>
       <c r="H33" s="3">
-        <v>-49700</v>
+        <v>-249700</v>
       </c>
       <c r="I33" s="3">
-        <v>-18300</v>
+        <v>-49900</v>
       </c>
       <c r="J33" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-49600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-13500</v>
-      </c>
       <c r="F35" s="3">
-        <v>-21600</v>
+        <v>-13600</v>
       </c>
       <c r="G35" s="3">
-        <v>-248700</v>
+        <v>-21700</v>
       </c>
       <c r="H35" s="3">
-        <v>-49700</v>
+        <v>-249700</v>
       </c>
       <c r="I35" s="3">
-        <v>-18300</v>
+        <v>-49900</v>
       </c>
       <c r="J35" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-49600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87000</v>
+        <v>100700</v>
       </c>
       <c r="E41" s="3">
-        <v>125900</v>
+        <v>87300</v>
       </c>
       <c r="F41" s="3">
-        <v>130300</v>
+        <v>126500</v>
       </c>
       <c r="G41" s="3">
-        <v>131700</v>
+        <v>130900</v>
       </c>
       <c r="H41" s="3">
-        <v>136600</v>
+        <v>132200</v>
       </c>
       <c r="I41" s="3">
-        <v>173100</v>
+        <v>137200</v>
       </c>
       <c r="J41" s="3">
+        <v>173800</v>
+      </c>
+      <c r="K41" s="3">
         <v>194200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2277,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35000</v>
+        <v>24400</v>
       </c>
       <c r="E42" s="3">
-        <v>33500</v>
+        <v>35100</v>
       </c>
       <c r="F42" s="3">
-        <v>36200</v>
+        <v>33600</v>
       </c>
       <c r="G42" s="3">
-        <v>49400</v>
+        <v>36400</v>
       </c>
       <c r="H42" s="3">
-        <v>59200</v>
+        <v>49700</v>
       </c>
       <c r="I42" s="3">
-        <v>49300</v>
+        <v>59400</v>
       </c>
       <c r="J42" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K42" s="3">
         <v>32200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="E43" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="F43" s="3">
-        <v>17200</v>
+        <v>18100</v>
       </c>
       <c r="G43" s="3">
-        <v>27100</v>
+        <v>17300</v>
       </c>
       <c r="H43" s="3">
-        <v>21300</v>
+        <v>27200</v>
       </c>
       <c r="I43" s="3">
-        <v>18400</v>
+        <v>21400</v>
       </c>
       <c r="J43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K43" s="3">
         <v>18700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,43 +2383,46 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+      <c r="N44" s="3">
+        <v>100</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12600</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="3">
-        <v>18000</v>
+        <v>15300</v>
       </c>
       <c r="H45" s="3">
-        <v>21800</v>
+        <v>18100</v>
       </c>
       <c r="I45" s="3">
-        <v>23800</v>
+        <v>21900</v>
       </c>
       <c r="J45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K45" s="3">
         <v>24700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152100</v>
+        <v>162000</v>
       </c>
       <c r="E46" s="3">
-        <v>190700</v>
+        <v>152700</v>
       </c>
       <c r="F46" s="3">
-        <v>199400</v>
+        <v>191500</v>
       </c>
       <c r="G46" s="3">
-        <v>228300</v>
+        <v>200200</v>
       </c>
       <c r="H46" s="3">
-        <v>239400</v>
+        <v>229300</v>
       </c>
       <c r="I46" s="3">
-        <v>265300</v>
+        <v>240500</v>
       </c>
       <c r="J46" s="3">
+        <v>266400</v>
+      </c>
+      <c r="K46" s="3">
         <v>270600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>278000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,44 +2542,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18400</v>
+        <v>9500</v>
       </c>
       <c r="E47" s="3">
-        <v>17400</v>
+        <v>18500</v>
       </c>
       <c r="F47" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G47" s="3">
         <v>15600</v>
       </c>
-      <c r="G47" s="3">
-        <v>11000</v>
-      </c>
       <c r="H47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I47" s="3">
         <v>17100</v>
       </c>
-      <c r="I47" s="3">
-        <v>33300</v>
-      </c>
       <c r="J47" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K47" s="3">
         <v>36800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2595,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
-        <v>2100</v>
-      </c>
       <c r="G48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2300</v>
       </c>
       <c r="I48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,44 +2648,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126000</v>
+        <v>105800</v>
       </c>
       <c r="E49" s="3">
-        <v>141200</v>
+        <v>126600</v>
       </c>
       <c r="F49" s="3">
-        <v>152000</v>
+        <v>141900</v>
       </c>
       <c r="G49" s="3">
-        <v>163500</v>
+        <v>152700</v>
       </c>
       <c r="H49" s="3">
-        <v>391200</v>
+        <v>164200</v>
       </c>
       <c r="I49" s="3">
-        <v>385800</v>
+        <v>392900</v>
       </c>
       <c r="J49" s="3">
+        <v>387400</v>
+      </c>
+      <c r="K49" s="3">
         <v>391000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>378700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>388200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>232000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,16 +2807,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18400</v>
+        <v>24900</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>18500</v>
       </c>
       <c r="F52" s="3">
         <v>2200</v>
@@ -2709,26 +2828,26 @@
         <v>2200</v>
       </c>
       <c r="H52" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>317100</v>
+        <v>303900</v>
       </c>
       <c r="E54" s="3">
-        <v>353400</v>
+        <v>318400</v>
       </c>
       <c r="F54" s="3">
-        <v>371300</v>
+        <v>355000</v>
       </c>
       <c r="G54" s="3">
-        <v>407300</v>
+        <v>372900</v>
       </c>
       <c r="H54" s="3">
-        <v>652700</v>
+        <v>409100</v>
       </c>
       <c r="I54" s="3">
-        <v>686600</v>
+        <v>655500</v>
       </c>
       <c r="J54" s="3">
+        <v>689600</v>
+      </c>
+      <c r="K54" s="3">
         <v>700300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>691600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>630600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>497800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
-        <v>3200</v>
-      </c>
       <c r="F57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56100</v>
+        <v>58200</v>
       </c>
       <c r="E59" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="F59" s="3">
-        <v>63600</v>
+        <v>59300</v>
       </c>
       <c r="G59" s="3">
-        <v>77000</v>
+        <v>63900</v>
       </c>
       <c r="H59" s="3">
+        <v>77400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>76700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>80800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>83400</v>
+      </c>
+      <c r="M59" s="3">
         <v>76400</v>
       </c>
-      <c r="I59" s="3">
-        <v>74700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>80800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>83400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>76400</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59200</v>
+        <v>63100</v>
       </c>
       <c r="E60" s="3">
-        <v>62300</v>
+        <v>59500</v>
       </c>
       <c r="F60" s="3">
-        <v>66200</v>
+        <v>62500</v>
       </c>
       <c r="G60" s="3">
-        <v>83300</v>
+        <v>66500</v>
       </c>
       <c r="H60" s="3">
-        <v>80400</v>
+        <v>83700</v>
       </c>
       <c r="I60" s="3">
-        <v>77800</v>
+        <v>80700</v>
       </c>
       <c r="J60" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K60" s="3">
         <v>83500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
-        <v>4000</v>
-      </c>
       <c r="H62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I62" s="3">
         <v>4300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1100</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
       </c>
       <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63600</v>
+        <v>66300</v>
       </c>
       <c r="E66" s="3">
-        <v>65900</v>
+        <v>63800</v>
       </c>
       <c r="F66" s="3">
-        <v>70000</v>
+        <v>66100</v>
       </c>
       <c r="G66" s="3">
-        <v>87400</v>
+        <v>70300</v>
       </c>
       <c r="H66" s="3">
+        <v>87700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>85000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K66" s="3">
         <v>84600</v>
       </c>
-      <c r="I66" s="3">
-        <v>78900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>84600</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3531,14 +3698,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1261300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1040100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1191000</v>
+        <v>-1201800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1176700</v>
+        <v>-1196200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1163200</v>
+        <v>-1181800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1141600</v>
+        <v>-1168300</v>
       </c>
       <c r="H72" s="3">
-        <v>-893000</v>
+        <v>-1146600</v>
       </c>
       <c r="I72" s="3">
-        <v>-843300</v>
+        <v>-896800</v>
       </c>
       <c r="J72" s="3">
+        <v>-846900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-825000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-767100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-743400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-668400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>253500</v>
+        <v>237600</v>
       </c>
       <c r="E76" s="3">
-        <v>287600</v>
+        <v>254600</v>
       </c>
       <c r="F76" s="3">
-        <v>301300</v>
+        <v>288800</v>
       </c>
       <c r="G76" s="3">
-        <v>319900</v>
+        <v>302600</v>
       </c>
       <c r="H76" s="3">
-        <v>568100</v>
+        <v>321300</v>
       </c>
       <c r="I76" s="3">
-        <v>607700</v>
+        <v>570500</v>
       </c>
       <c r="J76" s="3">
+        <v>610400</v>
+      </c>
+      <c r="K76" s="3">
         <v>615700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>604600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-711600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-642200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-13500</v>
-      </c>
       <c r="F81" s="3">
-        <v>-21600</v>
+        <v>-13600</v>
       </c>
       <c r="G81" s="3">
-        <v>-248700</v>
+        <v>-21700</v>
       </c>
       <c r="H81" s="3">
-        <v>-49700</v>
+        <v>-249700</v>
       </c>
       <c r="I81" s="3">
-        <v>-18300</v>
+        <v>-49900</v>
       </c>
       <c r="J81" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-49600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,32 +4250,35 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>18700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18900</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-5700</v>
+        <v>-23700</v>
       </c>
       <c r="H89" s="3">
-        <v>-13600</v>
+        <v>-5800</v>
       </c>
       <c r="I89" s="3">
-        <v>-4500</v>
+        <v>-13700</v>
       </c>
       <c r="J89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4422,32 +4642,35 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-200</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>-300</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17700</v>
+        <v>14400</v>
       </c>
       <c r="E94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
-        <v>21600</v>
-      </c>
       <c r="G94" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-22600</v>
-      </c>
       <c r="I94" s="3">
-        <v>-18100</v>
+        <v>-22700</v>
       </c>
       <c r="J94" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K94" s="3">
         <v>21400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>33600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5123,101 @@
         <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39000</v>
+        <v>13400</v>
       </c>
       <c r="E102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
-        <v>-36400</v>
-      </c>
       <c r="I102" s="3">
-        <v>-21200</v>
+        <v>-36600</v>
       </c>
       <c r="J102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>54400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-42800</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="E8" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="F8" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="G8" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="H8" s="3">
-        <v>41200</v>
+        <v>42000</v>
       </c>
       <c r="I8" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="J8" s="3">
-        <v>38000</v>
+        <v>38800</v>
       </c>
       <c r="K8" s="3">
         <v>33100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="E9" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F9" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G9" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H9" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="I9" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="J9" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="K9" s="3">
         <v>9300</v>
@@ -854,25 +854,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="E10" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="F10" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="G10" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H10" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="I10" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J10" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="K10" s="3">
         <v>23800</v>
@@ -928,25 +928,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F12" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
-        <v>4900</v>
-      </c>
       <c r="I12" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J12" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="K12" s="3">
         <v>8700</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>211200</v>
+        <v>215600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1087,25 +1087,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="E15" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F15" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H15" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="I15" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="J15" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="K15" s="3">
         <v>6800</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41200</v>
+        <v>42100</v>
       </c>
       <c r="E17" s="3">
-        <v>32500</v>
+        <v>33200</v>
       </c>
       <c r="F17" s="3">
-        <v>34700</v>
+        <v>35500</v>
       </c>
       <c r="G17" s="3">
-        <v>41000</v>
+        <v>41800</v>
       </c>
       <c r="H17" s="3">
-        <v>284800</v>
+        <v>290900</v>
       </c>
       <c r="I17" s="3">
-        <v>64400</v>
+        <v>65800</v>
       </c>
       <c r="J17" s="3">
-        <v>54100</v>
+        <v>55300</v>
       </c>
       <c r="K17" s="3">
         <v>58700</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E18" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="F18" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="G18" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="H18" s="3">
-        <v>-243700</v>
+        <v>-248800</v>
       </c>
       <c r="I18" s="3">
-        <v>-34200</v>
+        <v>-34900</v>
       </c>
       <c r="J18" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="K18" s="3">
         <v>-25600</v>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
@@ -1297,7 +1297,7 @@
         <v>900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I20" s="3">
         <v>-3900</v>
@@ -1341,22 +1341,22 @@
         <v>2000</v>
       </c>
       <c r="E21" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="F21" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G21" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="H21" s="3">
-        <v>-243700</v>
+        <v>-248800</v>
       </c>
       <c r="I21" s="3">
-        <v>-36200</v>
+        <v>-36900</v>
       </c>
       <c r="J21" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K21" s="3">
         <v>-3300</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E23" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="F23" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G23" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="H23" s="3">
-        <v>-247700</v>
+        <v>-253000</v>
       </c>
       <c r="I23" s="3">
-        <v>-38000</v>
+        <v>-38800</v>
       </c>
       <c r="J23" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="K23" s="3">
         <v>-24200</v>
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E26" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="G26" s="3">
-        <v>-21700</v>
+        <v>-22100</v>
       </c>
       <c r="H26" s="3">
-        <v>-247800</v>
+        <v>-253100</v>
       </c>
       <c r="I26" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="J26" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="K26" s="3">
         <v>-23400</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E27" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="G27" s="3">
-        <v>-21700</v>
+        <v>-22100</v>
       </c>
       <c r="H27" s="3">
-        <v>-249700</v>
+        <v>-255000</v>
       </c>
       <c r="I27" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="J27" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="K27" s="3">
         <v>-21400</v>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
@@ -1933,7 +1933,7 @@
         <v>-900</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I32" s="3">
         <v>3900</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E33" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="G33" s="3">
-        <v>-21700</v>
+        <v>-22100</v>
       </c>
       <c r="H33" s="3">
-        <v>-249700</v>
+        <v>-255000</v>
       </c>
       <c r="I33" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="J33" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="K33" s="3">
         <v>-21400</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E35" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="G35" s="3">
-        <v>-21700</v>
+        <v>-22100</v>
       </c>
       <c r="H35" s="3">
-        <v>-249700</v>
+        <v>-255000</v>
       </c>
       <c r="I35" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="J35" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="K35" s="3">
         <v>-21400</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100700</v>
+        <v>102900</v>
       </c>
       <c r="E41" s="3">
-        <v>87300</v>
+        <v>89200</v>
       </c>
       <c r="F41" s="3">
-        <v>126500</v>
+        <v>129200</v>
       </c>
       <c r="G41" s="3">
-        <v>130900</v>
+        <v>133600</v>
       </c>
       <c r="H41" s="3">
-        <v>132200</v>
+        <v>135000</v>
       </c>
       <c r="I41" s="3">
-        <v>137200</v>
+        <v>140100</v>
       </c>
       <c r="J41" s="3">
-        <v>173800</v>
+        <v>177500</v>
       </c>
       <c r="K41" s="3">
         <v>194200</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="E42" s="3">
-        <v>35100</v>
+        <v>35900</v>
       </c>
       <c r="F42" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="G42" s="3">
-        <v>36400</v>
+        <v>37100</v>
       </c>
       <c r="H42" s="3">
-        <v>49700</v>
+        <v>50700</v>
       </c>
       <c r="I42" s="3">
-        <v>59400</v>
+        <v>60700</v>
       </c>
       <c r="J42" s="3">
-        <v>49500</v>
+        <v>50500</v>
       </c>
       <c r="K42" s="3">
         <v>32200</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="E43" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="F43" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="G43" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="H43" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="I43" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="J43" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="K43" s="3">
         <v>18700</v>
@@ -2401,7 +2401,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>2100</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="E45" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="G45" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="I45" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="J45" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="K45" s="3">
         <v>24700</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>162000</v>
+        <v>165400</v>
       </c>
       <c r="E46" s="3">
-        <v>152700</v>
+        <v>156000</v>
       </c>
       <c r="F46" s="3">
-        <v>191500</v>
+        <v>195600</v>
       </c>
       <c r="G46" s="3">
-        <v>200200</v>
+        <v>204500</v>
       </c>
       <c r="H46" s="3">
-        <v>229300</v>
+        <v>234100</v>
       </c>
       <c r="I46" s="3">
-        <v>240500</v>
+        <v>245500</v>
       </c>
       <c r="J46" s="3">
-        <v>266400</v>
+        <v>272100</v>
       </c>
       <c r="K46" s="3">
         <v>270600</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="E47" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="F47" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I47" s="3">
         <v>17500</v>
       </c>
-      <c r="G47" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>17100</v>
-      </c>
       <c r="J47" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="K47" s="3">
         <v>36800</v>
@@ -2604,13 +2604,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>2200</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105800</v>
+        <v>108000</v>
       </c>
       <c r="E49" s="3">
-        <v>126600</v>
+        <v>129300</v>
       </c>
       <c r="F49" s="3">
-        <v>141900</v>
+        <v>144900</v>
       </c>
       <c r="G49" s="3">
-        <v>152700</v>
+        <v>155900</v>
       </c>
       <c r="H49" s="3">
-        <v>164200</v>
+        <v>167700</v>
       </c>
       <c r="I49" s="3">
-        <v>392900</v>
+        <v>401200</v>
       </c>
       <c r="J49" s="3">
-        <v>387400</v>
+        <v>395600</v>
       </c>
       <c r="K49" s="3">
         <v>391000</v>
@@ -2816,10 +2816,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E52" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="F52" s="3">
         <v>2200</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>303900</v>
+        <v>310300</v>
       </c>
       <c r="E54" s="3">
-        <v>318400</v>
+        <v>325200</v>
       </c>
       <c r="F54" s="3">
-        <v>355000</v>
+        <v>362500</v>
       </c>
       <c r="G54" s="3">
-        <v>372900</v>
+        <v>380800</v>
       </c>
       <c r="H54" s="3">
-        <v>409100</v>
+        <v>417700</v>
       </c>
       <c r="I54" s="3">
-        <v>655500</v>
+        <v>669400</v>
       </c>
       <c r="J54" s="3">
-        <v>689600</v>
+        <v>704100</v>
       </c>
       <c r="K54" s="3">
         <v>700300</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
         <v>3300</v>
       </c>
       <c r="G57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I57" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K57" s="3">
         <v>2700</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="E59" s="3">
-        <v>56400</v>
+        <v>57600</v>
       </c>
       <c r="F59" s="3">
-        <v>59300</v>
+        <v>60500</v>
       </c>
       <c r="G59" s="3">
-        <v>63900</v>
+        <v>65200</v>
       </c>
       <c r="H59" s="3">
-        <v>77400</v>
+        <v>79000</v>
       </c>
       <c r="I59" s="3">
-        <v>76700</v>
+        <v>78300</v>
       </c>
       <c r="J59" s="3">
-        <v>75000</v>
+        <v>76600</v>
       </c>
       <c r="K59" s="3">
         <v>80800</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63100</v>
+        <v>64500</v>
       </c>
       <c r="E60" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="F60" s="3">
-        <v>62500</v>
+        <v>63900</v>
       </c>
       <c r="G60" s="3">
-        <v>66500</v>
+        <v>67900</v>
       </c>
       <c r="H60" s="3">
-        <v>83700</v>
+        <v>85500</v>
       </c>
       <c r="I60" s="3">
-        <v>80700</v>
+        <v>82400</v>
       </c>
       <c r="J60" s="3">
-        <v>78100</v>
+        <v>79800</v>
       </c>
       <c r="K60" s="3">
         <v>83500</v>
@@ -3282,22 +3282,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
         <v>4100</v>
       </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66300</v>
+        <v>67700</v>
       </c>
       <c r="E66" s="3">
-        <v>63800</v>
+        <v>65200</v>
       </c>
       <c r="F66" s="3">
-        <v>66100</v>
+        <v>67500</v>
       </c>
       <c r="G66" s="3">
-        <v>70300</v>
+        <v>71800</v>
       </c>
       <c r="H66" s="3">
-        <v>87700</v>
+        <v>89600</v>
       </c>
       <c r="I66" s="3">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="J66" s="3">
-        <v>79200</v>
+        <v>80900</v>
       </c>
       <c r="K66" s="3">
         <v>84600</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1201800</v>
+        <v>-1227200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1196200</v>
+        <v>-1221500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1181800</v>
+        <v>-1206800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1168300</v>
+        <v>-1193000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1146600</v>
+        <v>-1170800</v>
       </c>
       <c r="I72" s="3">
-        <v>-896800</v>
+        <v>-915800</v>
       </c>
       <c r="J72" s="3">
-        <v>-846900</v>
+        <v>-864900</v>
       </c>
       <c r="K72" s="3">
         <v>-825000</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>237600</v>
+        <v>242600</v>
       </c>
       <c r="E76" s="3">
-        <v>254600</v>
+        <v>260000</v>
       </c>
       <c r="F76" s="3">
-        <v>288800</v>
+        <v>294900</v>
       </c>
       <c r="G76" s="3">
-        <v>302600</v>
+        <v>309000</v>
       </c>
       <c r="H76" s="3">
-        <v>321300</v>
+        <v>328100</v>
       </c>
       <c r="I76" s="3">
-        <v>570500</v>
+        <v>582600</v>
       </c>
       <c r="J76" s="3">
-        <v>610400</v>
+        <v>623300</v>
       </c>
       <c r="K76" s="3">
         <v>615700</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E81" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="G81" s="3">
-        <v>-21700</v>
+        <v>-22100</v>
       </c>
       <c r="H81" s="3">
-        <v>-249700</v>
+        <v>-255000</v>
       </c>
       <c r="I81" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="J81" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="K81" s="3">
         <v>-21400</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E89" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F89" s="3">
         <v>-1300</v>
       </c>
       <c r="G89" s="3">
-        <v>-23700</v>
+        <v>-24200</v>
       </c>
       <c r="H89" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I89" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="J89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K89" s="3">
         <v>-13800</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17800</v>
+        <v>-18200</v>
       </c>
       <c r="F94" s="3">
         <v>-2200</v>
       </c>
       <c r="G94" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="H94" s="3">
         <v>2000</v>
       </c>
       <c r="I94" s="3">
-        <v>-22700</v>
+        <v>-23200</v>
       </c>
       <c r="J94" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="K94" s="3">
         <v>21400</v>
@@ -5067,13 +5067,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="F100" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
@@ -5082,10 +5082,10 @@
         <v>-300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K100" s="3">
         <v>-3500</v>
@@ -5129,16 +5129,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
         <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>-2500</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="E102" s="3">
-        <v>-39100</v>
+        <v>-40000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G102" s="3">
         <v>-1400</v>
       </c>
       <c r="H102" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="I102" s="3">
-        <v>-36600</v>
+        <v>-37300</v>
       </c>
       <c r="J102" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="K102" s="3">
         <v>1600</v>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22900</v>
+        <v>14000</v>
       </c>
       <c r="E8" s="3">
-        <v>17600</v>
+        <v>22600</v>
       </c>
       <c r="F8" s="3">
-        <v>20700</v>
+        <v>17300</v>
       </c>
       <c r="G8" s="3">
-        <v>18600</v>
+        <v>20400</v>
       </c>
       <c r="H8" s="3">
-        <v>42000</v>
+        <v>18300</v>
       </c>
       <c r="I8" s="3">
-        <v>30900</v>
+        <v>41500</v>
       </c>
       <c r="J8" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K8" s="3">
         <v>38800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="E9" s="3">
-        <v>7100</v>
+        <v>7800</v>
       </c>
       <c r="F9" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="3">
-        <v>9100</v>
+        <v>7500</v>
       </c>
       <c r="H9" s="3">
-        <v>15400</v>
+        <v>9000</v>
       </c>
       <c r="I9" s="3">
-        <v>11900</v>
+        <v>15200</v>
       </c>
       <c r="J9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14900</v>
+        <v>8200</v>
       </c>
       <c r="E10" s="3">
-        <v>10500</v>
+        <v>14700</v>
       </c>
       <c r="F10" s="3">
-        <v>13100</v>
+        <v>10300</v>
       </c>
       <c r="G10" s="3">
-        <v>9400</v>
+        <v>12900</v>
       </c>
       <c r="H10" s="3">
-        <v>26700</v>
+        <v>9300</v>
       </c>
       <c r="I10" s="3">
-        <v>19000</v>
+        <v>26300</v>
       </c>
       <c r="J10" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K10" s="3">
         <v>29400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
-        <v>5000</v>
-      </c>
       <c r="I12" s="3">
-        <v>7800</v>
+        <v>4900</v>
       </c>
       <c r="J12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8800</v>
       </c>
       <c r="N12" s="3">
         <v>8800</v>
       </c>
       <c r="O12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P12" s="3">
         <v>10000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,20 +1062,20 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>215600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>212800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1063,67 +1083,70 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17700</v>
+        <v>12600</v>
       </c>
       <c r="E15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J15" s="3">
         <v>11800</v>
       </c>
-      <c r="F15" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>16300</v>
       </c>
       <c r="Q15" s="3">
         <v>16300</v>
@@ -1131,11 +1154,14 @@
       <c r="R15" s="3">
         <v>16300</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42100</v>
+        <v>31000</v>
       </c>
       <c r="E17" s="3">
-        <v>33200</v>
+        <v>41500</v>
       </c>
       <c r="F17" s="3">
-        <v>35500</v>
+        <v>32800</v>
       </c>
       <c r="G17" s="3">
-        <v>41800</v>
+        <v>35000</v>
       </c>
       <c r="H17" s="3">
-        <v>290900</v>
+        <v>41300</v>
       </c>
       <c r="I17" s="3">
-        <v>65800</v>
+        <v>287100</v>
       </c>
       <c r="J17" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K17" s="3">
         <v>55300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>47900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>76000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19200</v>
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
-        <v>-15700</v>
+        <v>-19000</v>
       </c>
       <c r="F18" s="3">
-        <v>-14800</v>
+        <v>-15500</v>
       </c>
       <c r="G18" s="3">
-        <v>-23300</v>
+        <v>-14600</v>
       </c>
       <c r="H18" s="3">
-        <v>-248800</v>
+        <v>-23000</v>
       </c>
       <c r="I18" s="3">
-        <v>-34900</v>
+        <v>-245600</v>
       </c>
       <c r="J18" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-44000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-30100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-24800</v>
-      </c>
       <c r="H21" s="3">
-        <v>-248800</v>
+        <v>-24500</v>
       </c>
       <c r="I21" s="3">
-        <v>-36900</v>
+        <v>-245600</v>
       </c>
       <c r="J21" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-23300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,69 +1478,75 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4300</v>
+        <v>-17000</v>
       </c>
       <c r="E23" s="3">
-        <v>-14800</v>
+        <v>-4200</v>
       </c>
       <c r="F23" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="G23" s="3">
-        <v>-22300</v>
+        <v>-13900</v>
       </c>
       <c r="H23" s="3">
-        <v>-253000</v>
+        <v>-22000</v>
       </c>
       <c r="I23" s="3">
-        <v>-38800</v>
+        <v>-249700</v>
       </c>
       <c r="J23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
@@ -1509,43 +1555,46 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3800</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-14600</v>
-      </c>
       <c r="F26" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="G26" s="3">
-        <v>-22100</v>
+        <v>-13700</v>
       </c>
       <c r="H26" s="3">
-        <v>-253100</v>
+        <v>-21800</v>
       </c>
       <c r="I26" s="3">
-        <v>-38700</v>
+        <v>-249800</v>
       </c>
       <c r="J26" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>-38200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-14600</v>
-      </c>
       <c r="F27" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="G27" s="3">
-        <v>-22100</v>
+        <v>-13700</v>
       </c>
       <c r="H27" s="3">
-        <v>-255000</v>
+        <v>-21800</v>
       </c>
       <c r="I27" s="3">
-        <v>-51000</v>
+        <v>-251700</v>
       </c>
       <c r="J27" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-65900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>-63300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-49600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-14600</v>
-      </c>
       <c r="F33" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="G33" s="3">
-        <v>-22100</v>
+        <v>-13700</v>
       </c>
       <c r="H33" s="3">
-        <v>-255000</v>
+        <v>-21800</v>
       </c>
       <c r="I33" s="3">
-        <v>-51000</v>
+        <v>-251700</v>
       </c>
       <c r="J33" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-65900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>-63300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-49600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-14600</v>
-      </c>
       <c r="F35" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="G35" s="3">
-        <v>-22100</v>
+        <v>-13700</v>
       </c>
       <c r="H35" s="3">
-        <v>-255000</v>
+        <v>-21800</v>
       </c>
       <c r="I35" s="3">
-        <v>-51000</v>
+        <v>-251700</v>
       </c>
       <c r="J35" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-65900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>-63300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-49600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102900</v>
+        <v>83500</v>
       </c>
       <c r="E41" s="3">
-        <v>89200</v>
+        <v>101500</v>
       </c>
       <c r="F41" s="3">
-        <v>129200</v>
+        <v>88000</v>
       </c>
       <c r="G41" s="3">
-        <v>133600</v>
+        <v>127500</v>
       </c>
       <c r="H41" s="3">
-        <v>135000</v>
+        <v>131900</v>
       </c>
       <c r="I41" s="3">
-        <v>140100</v>
+        <v>133300</v>
       </c>
       <c r="J41" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K41" s="3">
         <v>177500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25000</v>
+        <v>40100</v>
       </c>
       <c r="E42" s="3">
-        <v>35900</v>
+        <v>24600</v>
       </c>
       <c r="F42" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="G42" s="3">
-        <v>37100</v>
+        <v>33900</v>
       </c>
       <c r="H42" s="3">
-        <v>50700</v>
+        <v>36600</v>
       </c>
       <c r="I42" s="3">
-        <v>60700</v>
+        <v>50000</v>
       </c>
       <c r="J42" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K42" s="3">
         <v>50500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>44400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21900</v>
+        <v>16300</v>
       </c>
       <c r="E43" s="3">
-        <v>17600</v>
+        <v>21600</v>
       </c>
       <c r="F43" s="3">
-        <v>18400</v>
+        <v>17400</v>
       </c>
       <c r="G43" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="H43" s="3">
-        <v>27800</v>
+        <v>17400</v>
       </c>
       <c r="I43" s="3">
-        <v>21900</v>
+        <v>27400</v>
       </c>
       <c r="J43" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K43" s="3">
         <v>18900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,46 +2479,49 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
       </c>
       <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
+      <c r="O44" s="3">
+        <v>100</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15500</v>
+        <v>12100</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>15300</v>
       </c>
       <c r="F45" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>15600</v>
+        <v>13100</v>
       </c>
       <c r="H45" s="3">
-        <v>18500</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3">
-        <v>22300</v>
+        <v>18300</v>
       </c>
       <c r="J45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K45" s="3">
         <v>24400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>165400</v>
+        <v>152000</v>
       </c>
       <c r="E46" s="3">
-        <v>156000</v>
+        <v>163300</v>
       </c>
       <c r="F46" s="3">
-        <v>195600</v>
+        <v>153900</v>
       </c>
       <c r="G46" s="3">
-        <v>204500</v>
+        <v>193000</v>
       </c>
       <c r="H46" s="3">
-        <v>234100</v>
+        <v>201800</v>
       </c>
       <c r="I46" s="3">
-        <v>245500</v>
+        <v>231100</v>
       </c>
       <c r="J46" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K46" s="3">
         <v>272100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>278000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="E47" s="3">
-        <v>18900</v>
+        <v>9600</v>
       </c>
       <c r="F47" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="G47" s="3">
-        <v>16000</v>
+        <v>17600</v>
       </c>
       <c r="H47" s="3">
-        <v>11300</v>
+        <v>15800</v>
       </c>
       <c r="I47" s="3">
-        <v>17500</v>
+        <v>11100</v>
       </c>
       <c r="J47" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K47" s="3">
         <v>34200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,38 +2715,38 @@
         <v>1700</v>
       </c>
       <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108000</v>
+        <v>94300</v>
       </c>
       <c r="E49" s="3">
-        <v>129300</v>
+        <v>106600</v>
       </c>
       <c r="F49" s="3">
-        <v>144900</v>
+        <v>127600</v>
       </c>
       <c r="G49" s="3">
-        <v>155900</v>
+        <v>143000</v>
       </c>
       <c r="H49" s="3">
-        <v>167700</v>
+        <v>153900</v>
       </c>
       <c r="I49" s="3">
-        <v>401200</v>
+        <v>165500</v>
       </c>
       <c r="J49" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K49" s="3">
         <v>395600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>391000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>378700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>388200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>232000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E52" s="3">
-        <v>18900</v>
+        <v>25100</v>
       </c>
       <c r="F52" s="3">
-        <v>2200</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
         <v>2200</v>
@@ -2831,26 +2951,26 @@
         <v>2200</v>
       </c>
       <c r="I52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J52" s="3">
         <v>2700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>310300</v>
+        <v>283300</v>
       </c>
       <c r="E54" s="3">
-        <v>325200</v>
+        <v>306300</v>
       </c>
       <c r="F54" s="3">
-        <v>362500</v>
+        <v>320900</v>
       </c>
       <c r="G54" s="3">
-        <v>380800</v>
+        <v>357700</v>
       </c>
       <c r="H54" s="3">
-        <v>417700</v>
+        <v>375800</v>
       </c>
       <c r="I54" s="3">
-        <v>669400</v>
+        <v>412300</v>
       </c>
       <c r="J54" s="3">
+        <v>660700</v>
+      </c>
+      <c r="K54" s="3">
         <v>704100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>691600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>630600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>497800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59400</v>
+        <v>53200</v>
       </c>
       <c r="E59" s="3">
-        <v>57600</v>
+        <v>58600</v>
       </c>
       <c r="F59" s="3">
-        <v>60500</v>
+        <v>56800</v>
       </c>
       <c r="G59" s="3">
-        <v>65200</v>
+        <v>59700</v>
       </c>
       <c r="H59" s="3">
-        <v>79000</v>
+        <v>64400</v>
       </c>
       <c r="I59" s="3">
-        <v>78300</v>
+        <v>78000</v>
       </c>
       <c r="J59" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K59" s="3">
         <v>76600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64500</v>
+        <v>56200</v>
       </c>
       <c r="E60" s="3">
-        <v>60700</v>
+        <v>63600</v>
       </c>
       <c r="F60" s="3">
-        <v>63900</v>
+        <v>59900</v>
       </c>
       <c r="G60" s="3">
-        <v>67900</v>
+        <v>63000</v>
       </c>
       <c r="H60" s="3">
-        <v>85500</v>
+        <v>67000</v>
       </c>
       <c r="I60" s="3">
-        <v>82400</v>
+        <v>84300</v>
       </c>
       <c r="J60" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K60" s="3">
         <v>79800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
-        <v>4500</v>
-      </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="G62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
-        <v>4400</v>
-      </c>
       <c r="J62" s="3">
-        <v>1100</v>
+        <v>4300</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67700</v>
+        <v>59300</v>
       </c>
       <c r="E66" s="3">
-        <v>65200</v>
+        <v>66800</v>
       </c>
       <c r="F66" s="3">
-        <v>67500</v>
+        <v>64300</v>
       </c>
       <c r="G66" s="3">
-        <v>71800</v>
+        <v>66700</v>
       </c>
       <c r="H66" s="3">
-        <v>89600</v>
+        <v>70900</v>
       </c>
       <c r="I66" s="3">
-        <v>86800</v>
+        <v>88400</v>
       </c>
       <c r="J66" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K66" s="3">
         <v>80900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,14 +3869,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1261300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1040100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1227200</v>
+        <v>-1227900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1221500</v>
+        <v>-1211200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1206800</v>
+        <v>-1205600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1193000</v>
+        <v>-1191100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1170800</v>
+        <v>-1177400</v>
       </c>
       <c r="I72" s="3">
-        <v>-915800</v>
+        <v>-1155600</v>
       </c>
       <c r="J72" s="3">
+        <v>-903900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-864900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-825000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-767100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-743400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-668400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>242600</v>
+        <v>224000</v>
       </c>
       <c r="E76" s="3">
-        <v>260000</v>
+        <v>239500</v>
       </c>
       <c r="F76" s="3">
-        <v>294900</v>
+        <v>256600</v>
       </c>
       <c r="G76" s="3">
-        <v>309000</v>
+        <v>291100</v>
       </c>
       <c r="H76" s="3">
-        <v>328100</v>
+        <v>305000</v>
       </c>
       <c r="I76" s="3">
-        <v>582600</v>
+        <v>323800</v>
       </c>
       <c r="J76" s="3">
+        <v>575000</v>
+      </c>
+      <c r="K76" s="3">
         <v>623300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>615700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>604600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-711600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-642200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-14600</v>
-      </c>
       <c r="F81" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="G81" s="3">
-        <v>-22100</v>
+        <v>-13700</v>
       </c>
       <c r="H81" s="3">
-        <v>-255000</v>
+        <v>-21800</v>
       </c>
       <c r="I81" s="3">
-        <v>-51000</v>
+        <v>-251700</v>
       </c>
       <c r="J81" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-65900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>-63300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-49600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,32 +4452,35 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18900</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-24200</v>
-      </c>
       <c r="H89" s="3">
-        <v>-5900</v>
+        <v>-23800</v>
       </c>
       <c r="I89" s="3">
-        <v>-13900</v>
+        <v>-5800</v>
       </c>
       <c r="J89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,32 +4866,35 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14700</v>
+        <v>-9300</v>
       </c>
       <c r="E94" s="3">
-        <v>-18200</v>
+        <v>14500</v>
       </c>
       <c r="F94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
-        <v>22100</v>
-      </c>
       <c r="H94" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-23200</v>
-      </c>
       <c r="J94" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-15100</v>
-      </c>
       <c r="F100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>-1700</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
-        <v>2800</v>
-      </c>
       <c r="J101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13700</v>
+        <v>-18100</v>
       </c>
       <c r="E102" s="3">
-        <v>-40000</v>
+        <v>13500</v>
       </c>
       <c r="F102" s="3">
-        <v>-4500</v>
+        <v>-39500</v>
       </c>
       <c r="G102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-5100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-37300</v>
+        <v>-5000</v>
       </c>
       <c r="J102" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>54400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-42800</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="E8" s="3">
-        <v>22600</v>
+        <v>14200</v>
       </c>
       <c r="F8" s="3">
-        <v>17300</v>
+        <v>22900</v>
       </c>
       <c r="G8" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="H8" s="3">
-        <v>18300</v>
+        <v>20700</v>
       </c>
       <c r="I8" s="3">
-        <v>41500</v>
+        <v>18600</v>
       </c>
       <c r="J8" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K8" s="3">
         <v>30500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39300</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="E9" s="3">
-        <v>7800</v>
+        <v>5900</v>
       </c>
       <c r="F9" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="H9" s="3">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I9" s="3">
-        <v>15200</v>
+        <v>9200</v>
       </c>
       <c r="J9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K9" s="3">
         <v>11700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
-        <v>14700</v>
+        <v>8300</v>
       </c>
       <c r="F10" s="3">
-        <v>10300</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="3">
-        <v>12900</v>
+        <v>10500</v>
       </c>
       <c r="H10" s="3">
-        <v>9300</v>
+        <v>13100</v>
       </c>
       <c r="I10" s="3">
-        <v>26300</v>
+        <v>9500</v>
       </c>
       <c r="J10" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="E12" s="3">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
         <v>4300</v>
       </c>
       <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
-        <v>4900</v>
-      </c>
       <c r="J12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8800</v>
       </c>
       <c r="O12" s="3">
         <v>8800</v>
       </c>
       <c r="P12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q12" s="3">
         <v>10000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,20 +1085,20 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>212800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>216400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1086,70 +1106,73 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12600</v>
+        <v>10100</v>
       </c>
       <c r="E15" s="3">
-        <v>17500</v>
+        <v>12900</v>
       </c>
       <c r="F15" s="3">
-        <v>11700</v>
+        <v>17800</v>
       </c>
       <c r="G15" s="3">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="H15" s="3">
-        <v>13400</v>
+        <v>11000</v>
       </c>
       <c r="I15" s="3">
-        <v>15800</v>
+        <v>13600</v>
       </c>
       <c r="J15" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K15" s="3">
         <v>11800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7900</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>16300</v>
       </c>
       <c r="R15" s="3">
         <v>16300</v>
@@ -1157,11 +1180,14 @@
       <c r="S15" s="3">
         <v>16300</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31000</v>
+        <v>29700</v>
       </c>
       <c r="E17" s="3">
-        <v>41500</v>
+        <v>31500</v>
       </c>
       <c r="F17" s="3">
-        <v>32800</v>
+        <v>42200</v>
       </c>
       <c r="G17" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="H17" s="3">
-        <v>41300</v>
+        <v>35600</v>
       </c>
       <c r="I17" s="3">
-        <v>287100</v>
+        <v>42000</v>
       </c>
       <c r="J17" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K17" s="3">
         <v>64900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>52100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>47900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
         <v>76000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17000</v>
+        <v>-15300</v>
       </c>
       <c r="E18" s="3">
-        <v>-19000</v>
+        <v>-17300</v>
       </c>
       <c r="F18" s="3">
-        <v>-15500</v>
+        <v>-19300</v>
       </c>
       <c r="G18" s="3">
-        <v>-14600</v>
+        <v>-15700</v>
       </c>
       <c r="H18" s="3">
-        <v>-23000</v>
+        <v>-14900</v>
       </c>
       <c r="I18" s="3">
-        <v>-245600</v>
+        <v>-23300</v>
       </c>
       <c r="J18" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-34400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-44000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-30100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>14800</v>
-      </c>
       <c r="F20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>23700</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>23700</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>900</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22300</v>
+        <v>-4600</v>
       </c>
       <c r="E21" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13800</v>
-      </c>
       <c r="G21" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-24500</v>
-      </c>
       <c r="I21" s="3">
-        <v>-245600</v>
+        <v>-24900</v>
       </c>
       <c r="J21" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-36400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-23300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,75 +1521,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-17300</v>
       </c>
       <c r="F23" s="3">
-        <v>-14600</v>
+        <v>-4300</v>
       </c>
       <c r="G23" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="H23" s="3">
-        <v>-22000</v>
+        <v>-14100</v>
       </c>
       <c r="I23" s="3">
-        <v>-249700</v>
+        <v>-22400</v>
       </c>
       <c r="J23" s="3">
+        <v>-253800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-38300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-42100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-200</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
@@ -1558,43 +1604,46 @@
         <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16700</v>
+        <v>-15000</v>
       </c>
       <c r="E26" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="H26" s="3">
-        <v>-21800</v>
+        <v>-13900</v>
       </c>
       <c r="I26" s="3">
-        <v>-249800</v>
+        <v>-22200</v>
       </c>
       <c r="J26" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-38200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
         <v>-38200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16700</v>
+        <v>-15000</v>
       </c>
       <c r="E27" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G27" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="H27" s="3">
-        <v>-21800</v>
+        <v>-13900</v>
       </c>
       <c r="I27" s="3">
-        <v>-251700</v>
+        <v>-22200</v>
       </c>
       <c r="J27" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-50300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-65900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
         <v>-63300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-49600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-14800</v>
-      </c>
       <c r="F32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16700</v>
+        <v>-15000</v>
       </c>
       <c r="E33" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G33" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="H33" s="3">
-        <v>-21800</v>
+        <v>-13900</v>
       </c>
       <c r="I33" s="3">
-        <v>-251700</v>
+        <v>-22200</v>
       </c>
       <c r="J33" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-50300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-65900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
         <v>-63300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-49600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16700</v>
+        <v>-15000</v>
       </c>
       <c r="E35" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G35" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="H35" s="3">
-        <v>-21800</v>
+        <v>-13900</v>
       </c>
       <c r="I35" s="3">
-        <v>-251700</v>
+        <v>-22200</v>
       </c>
       <c r="J35" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-50300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-65900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
         <v>-63300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-49600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>83500</v>
+        <v>94300</v>
       </c>
       <c r="E41" s="3">
-        <v>101500</v>
+        <v>84900</v>
       </c>
       <c r="F41" s="3">
-        <v>88000</v>
+        <v>103200</v>
       </c>
       <c r="G41" s="3">
-        <v>127500</v>
+        <v>89500</v>
       </c>
       <c r="H41" s="3">
-        <v>131900</v>
+        <v>129600</v>
       </c>
       <c r="I41" s="3">
-        <v>133300</v>
+        <v>134100</v>
       </c>
       <c r="J41" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K41" s="3">
         <v>138300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,50 +2457,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40100</v>
+        <v>27100</v>
       </c>
       <c r="E42" s="3">
-        <v>24600</v>
+        <v>40700</v>
       </c>
       <c r="F42" s="3">
-        <v>35400</v>
+        <v>25000</v>
       </c>
       <c r="G42" s="3">
-        <v>33900</v>
+        <v>36000</v>
       </c>
       <c r="H42" s="3">
-        <v>36600</v>
+        <v>34400</v>
       </c>
       <c r="I42" s="3">
-        <v>50000</v>
+        <v>37300</v>
       </c>
       <c r="J42" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K42" s="3">
         <v>59900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,50 +2516,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16300</v>
+        <v>15400</v>
       </c>
       <c r="E43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K43" s="3">
         <v>21600</v>
       </c>
-      <c r="F43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>18200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>18700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>19200</v>
+      </c>
+      <c r="O43" s="3">
         <v>27400</v>
       </c>
-      <c r="J43" s="3">
-        <v>21600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>18900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>18700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>19200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>27400</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,40 +2587,40 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
-        <v>2100</v>
-      </c>
       <c r="J44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>800</v>
       </c>
       <c r="L44" s="3">
         <v>800</v>
       </c>
       <c r="M44" s="3">
+        <v>800</v>
+      </c>
+      <c r="N44" s="3">
         <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
@@ -2538,50 +2634,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
+        <v>12300</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>15600</v>
       </c>
       <c r="G45" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>13300</v>
       </c>
       <c r="I45" s="3">
-        <v>18300</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152000</v>
+        <v>147200</v>
       </c>
       <c r="E46" s="3">
-        <v>163300</v>
+        <v>154500</v>
       </c>
       <c r="F46" s="3">
-        <v>153900</v>
+        <v>166000</v>
       </c>
       <c r="G46" s="3">
-        <v>193000</v>
+        <v>156500</v>
       </c>
       <c r="H46" s="3">
-        <v>201800</v>
+        <v>196300</v>
       </c>
       <c r="I46" s="3">
-        <v>231100</v>
+        <v>205200</v>
       </c>
       <c r="J46" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K46" s="3">
         <v>242400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>278000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>234900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,50 +2752,53 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E47" s="3">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="F47" s="3">
-        <v>18600</v>
+        <v>9700</v>
       </c>
       <c r="G47" s="3">
-        <v>17600</v>
+        <v>18900</v>
       </c>
       <c r="H47" s="3">
-        <v>15800</v>
+        <v>17900</v>
       </c>
       <c r="I47" s="3">
-        <v>11100</v>
+        <v>16000</v>
       </c>
       <c r="J47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K47" s="3">
         <v>17300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>1700</v>
       </c>
       <c r="F48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,50 +2870,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>94300</v>
+        <v>84800</v>
       </c>
       <c r="E49" s="3">
-        <v>106600</v>
+        <v>95900</v>
       </c>
       <c r="F49" s="3">
-        <v>127600</v>
+        <v>108400</v>
       </c>
       <c r="G49" s="3">
-        <v>143000</v>
+        <v>129700</v>
       </c>
       <c r="H49" s="3">
-        <v>153900</v>
+        <v>145400</v>
       </c>
       <c r="I49" s="3">
-        <v>165500</v>
+        <v>156500</v>
       </c>
       <c r="J49" s="3">
+        <v>168300</v>
+      </c>
+      <c r="K49" s="3">
         <v>396000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>395600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>391000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>378700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>388200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>232000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="E52" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="F52" s="3">
-        <v>18700</v>
+        <v>25500</v>
       </c>
       <c r="G52" s="3">
-        <v>2200</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
         <v>2200</v>
@@ -2954,26 +3074,26 @@
         <v>2200</v>
       </c>
       <c r="J52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>283300</v>
+        <v>270700</v>
       </c>
       <c r="E54" s="3">
-        <v>306300</v>
+        <v>288000</v>
       </c>
       <c r="F54" s="3">
-        <v>320900</v>
+        <v>311400</v>
       </c>
       <c r="G54" s="3">
-        <v>357700</v>
+        <v>326300</v>
       </c>
       <c r="H54" s="3">
-        <v>375800</v>
+        <v>363700</v>
       </c>
       <c r="I54" s="3">
-        <v>412300</v>
+        <v>382100</v>
       </c>
       <c r="J54" s="3">
+        <v>419200</v>
+      </c>
+      <c r="K54" s="3">
         <v>660700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>704100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>691600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>630600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>497800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
-        <v>5000</v>
-      </c>
       <c r="F57" s="3">
-        <v>3100</v>
+        <v>5100</v>
       </c>
       <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
-        <v>2600</v>
-      </c>
       <c r="I57" s="3">
-        <v>6400</v>
+        <v>2700</v>
       </c>
       <c r="J57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53200</v>
+        <v>54100</v>
       </c>
       <c r="E59" s="3">
-        <v>58600</v>
+        <v>54100</v>
       </c>
       <c r="F59" s="3">
-        <v>56800</v>
+        <v>59600</v>
       </c>
       <c r="G59" s="3">
-        <v>59700</v>
+        <v>57800</v>
       </c>
       <c r="H59" s="3">
-        <v>64400</v>
+        <v>60700</v>
       </c>
       <c r="I59" s="3">
-        <v>78000</v>
+        <v>65400</v>
       </c>
       <c r="J59" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K59" s="3">
         <v>77300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56200</v>
+        <v>57100</v>
       </c>
       <c r="E60" s="3">
-        <v>63600</v>
+        <v>57200</v>
       </c>
       <c r="F60" s="3">
-        <v>59900</v>
+        <v>64700</v>
       </c>
       <c r="G60" s="3">
-        <v>63000</v>
+        <v>60900</v>
       </c>
       <c r="H60" s="3">
-        <v>67000</v>
+        <v>64100</v>
       </c>
       <c r="I60" s="3">
-        <v>84300</v>
+        <v>68100</v>
       </c>
       <c r="J60" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K60" s="3">
         <v>81300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
-        <v>4400</v>
-      </c>
       <c r="G62" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="H62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
-        <v>4100</v>
-      </c>
       <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1100</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
       </c>
       <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59300</v>
+        <v>59900</v>
       </c>
       <c r="E66" s="3">
-        <v>66800</v>
+        <v>60300</v>
       </c>
       <c r="F66" s="3">
-        <v>64300</v>
+        <v>67900</v>
       </c>
       <c r="G66" s="3">
-        <v>66700</v>
+        <v>65400</v>
       </c>
       <c r="H66" s="3">
-        <v>70900</v>
+        <v>67800</v>
       </c>
       <c r="I66" s="3">
-        <v>88400</v>
+        <v>72100</v>
       </c>
       <c r="J66" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K66" s="3">
         <v>85700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,14 +4040,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1261300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1040100</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1227900</v>
+        <v>-1263500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1211200</v>
+        <v>-1248500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1205600</v>
+        <v>-1231500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1191100</v>
+        <v>-1225800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1177400</v>
+        <v>-1211100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1155600</v>
+        <v>-1197200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1174900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-903900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-864900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-825000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-767100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-743400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-668400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>224000</v>
+        <v>210800</v>
       </c>
       <c r="E76" s="3">
-        <v>239500</v>
+        <v>227800</v>
       </c>
       <c r="F76" s="3">
-        <v>256600</v>
+        <v>243500</v>
       </c>
       <c r="G76" s="3">
-        <v>291100</v>
+        <v>260900</v>
       </c>
       <c r="H76" s="3">
-        <v>305000</v>
+        <v>296000</v>
       </c>
       <c r="I76" s="3">
-        <v>323800</v>
+        <v>310100</v>
       </c>
       <c r="J76" s="3">
+        <v>329300</v>
+      </c>
+      <c r="K76" s="3">
         <v>575000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>623300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>615700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>604600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-711600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-642200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16700</v>
+        <v>-15000</v>
       </c>
       <c r="E81" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G81" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="H81" s="3">
-        <v>-21800</v>
+        <v>-13900</v>
       </c>
       <c r="I81" s="3">
-        <v>-251700</v>
+        <v>-22200</v>
       </c>
       <c r="J81" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-50300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-65900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3">
         <v>-63300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-49600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,32 +4654,35 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>18700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18900</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7700</v>
+        <v>-1800</v>
       </c>
       <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-4800</v>
-      </c>
       <c r="G89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-23800</v>
-      </c>
       <c r="I89" s="3">
-        <v>-5800</v>
+        <v>-24200</v>
       </c>
       <c r="J89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,32 +5090,35 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-200</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>-300</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9300</v>
+        <v>12900</v>
       </c>
       <c r="E94" s="3">
-        <v>14500</v>
+        <v>-9400</v>
       </c>
       <c r="F94" s="3">
-        <v>-18000</v>
+        <v>14800</v>
       </c>
       <c r="G94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
-        <v>21800</v>
-      </c>
       <c r="I94" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15000</v>
-      </c>
       <c r="G100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1700</v>
       </c>
       <c r="F101" s="3">
         <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18100</v>
+        <v>9400</v>
       </c>
       <c r="E102" s="3">
-        <v>13500</v>
+        <v>-18400</v>
       </c>
       <c r="F102" s="3">
-        <v>-39500</v>
+        <v>13700</v>
       </c>
       <c r="G102" s="3">
-        <v>-4400</v>
+        <v>-40100</v>
       </c>
       <c r="H102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N102" s="3">
+        <v>54400</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>54400</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-42800</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14400</v>
+        <v>12200</v>
       </c>
       <c r="E8" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="F8" s="3">
-        <v>22900</v>
+        <v>14300</v>
       </c>
       <c r="G8" s="3">
-        <v>17600</v>
+        <v>23100</v>
       </c>
       <c r="H8" s="3">
-        <v>20700</v>
+        <v>17700</v>
       </c>
       <c r="I8" s="3">
-        <v>18600</v>
+        <v>20900</v>
       </c>
       <c r="J8" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K8" s="3">
         <v>42200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>39300</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E9" s="3">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="3">
         <v>8000</v>
       </c>
-      <c r="G9" s="3">
-        <v>7100</v>
-      </c>
       <c r="H9" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>5700</v>
       </c>
       <c r="E10" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="F10" s="3">
-        <v>15000</v>
+        <v>8400</v>
       </c>
       <c r="G10" s="3">
-        <v>10500</v>
+        <v>15100</v>
       </c>
       <c r="H10" s="3">
-        <v>13100</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J10" s="3">
         <v>9500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4300</v>
       </c>
       <c r="G12" s="3">
         <v>4300</v>
       </c>
       <c r="H12" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I12" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8800</v>
       </c>
       <c r="P12" s="3">
         <v>8800</v>
       </c>
       <c r="Q12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R12" s="3">
         <v>10000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1085,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>29400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1088,20 +1108,20 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>216400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1109,73 +1129,76 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-2000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>16100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M15" s="3">
         <v>10100</v>
       </c>
-      <c r="E15" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>17800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>16100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>11800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7900</v>
-      </c>
-      <c r="R15" s="3">
-        <v>16300</v>
       </c>
       <c r="S15" s="3">
         <v>16300</v>
@@ -1183,11 +1206,14 @@
       <c r="T15" s="3">
         <v>16300</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29700</v>
+        <v>64600</v>
       </c>
       <c r="E17" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="F17" s="3">
-        <v>42200</v>
+        <v>31700</v>
       </c>
       <c r="G17" s="3">
-        <v>33400</v>
+        <v>42600</v>
       </c>
       <c r="H17" s="3">
-        <v>35600</v>
+        <v>33600</v>
       </c>
       <c r="I17" s="3">
-        <v>42000</v>
+        <v>35900</v>
       </c>
       <c r="J17" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K17" s="3">
         <v>291900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
         <v>76000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15300</v>
+        <v>-52400</v>
       </c>
       <c r="E18" s="3">
-        <v>-17300</v>
+        <v>-15500</v>
       </c>
       <c r="F18" s="3">
-        <v>-19300</v>
+        <v>-17400</v>
       </c>
       <c r="G18" s="3">
-        <v>-15700</v>
+        <v>-19400</v>
       </c>
       <c r="H18" s="3">
-        <v>-14900</v>
+        <v>-15900</v>
       </c>
       <c r="I18" s="3">
-        <v>-23300</v>
+        <v>-15000</v>
       </c>
       <c r="J18" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-249700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-44000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-30100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>15000</v>
-      </c>
       <c r="G20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4600</v>
+        <v>-45600</v>
       </c>
       <c r="E21" s="3">
-        <v>-22700</v>
+        <v>-4700</v>
       </c>
       <c r="F21" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-14000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
-        <v>-24900</v>
-      </c>
       <c r="J21" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-249700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-23300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,81 +1564,87 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-22400</v>
+        <v>-14200</v>
       </c>
       <c r="J23" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-253800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-42100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-29200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
@@ -1607,43 +1653,46 @@
         <v>-200</v>
       </c>
       <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15000</v>
+        <v>-50200</v>
       </c>
       <c r="E26" s="3">
-        <v>-17000</v>
+        <v>-15100</v>
       </c>
       <c r="F26" s="3">
-        <v>-5700</v>
+        <v>-17100</v>
       </c>
       <c r="G26" s="3">
-        <v>-14700</v>
+        <v>-5800</v>
       </c>
       <c r="H26" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I26" s="3">
-        <v>-22200</v>
+        <v>-14000</v>
       </c>
       <c r="J26" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-254000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>-38200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15000</v>
+        <v>-50200</v>
       </c>
       <c r="E27" s="3">
-        <v>-17000</v>
+        <v>-15100</v>
       </c>
       <c r="F27" s="3">
-        <v>-5700</v>
+        <v>-17100</v>
       </c>
       <c r="G27" s="3">
-        <v>-14700</v>
+        <v>-5800</v>
       </c>
       <c r="H27" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I27" s="3">
-        <v>-22200</v>
+        <v>-14000</v>
       </c>
       <c r="J27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-255900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-65900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
         <v>-63300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-49600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-15000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15000</v>
+        <v>-50200</v>
       </c>
       <c r="E33" s="3">
-        <v>-17000</v>
+        <v>-15100</v>
       </c>
       <c r="F33" s="3">
-        <v>-5700</v>
+        <v>-17100</v>
       </c>
       <c r="G33" s="3">
-        <v>-14700</v>
+        <v>-5800</v>
       </c>
       <c r="H33" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I33" s="3">
-        <v>-22200</v>
+        <v>-14000</v>
       </c>
       <c r="J33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-255900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-65900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3">
         <v>-63300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-49600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15000</v>
+        <v>-50200</v>
       </c>
       <c r="E35" s="3">
-        <v>-17000</v>
+        <v>-15100</v>
       </c>
       <c r="F35" s="3">
-        <v>-5700</v>
+        <v>-17100</v>
       </c>
       <c r="G35" s="3">
-        <v>-14700</v>
+        <v>-5800</v>
       </c>
       <c r="H35" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I35" s="3">
-        <v>-22200</v>
+        <v>-14000</v>
       </c>
       <c r="J35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-255900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-65900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
         <v>-63300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-49600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94300</v>
+        <v>80000</v>
       </c>
       <c r="E41" s="3">
-        <v>84900</v>
+        <v>95000</v>
       </c>
       <c r="F41" s="3">
-        <v>103200</v>
+        <v>85500</v>
       </c>
       <c r="G41" s="3">
-        <v>89500</v>
+        <v>104000</v>
       </c>
       <c r="H41" s="3">
-        <v>129600</v>
+        <v>90200</v>
       </c>
       <c r="I41" s="3">
-        <v>134100</v>
+        <v>130600</v>
       </c>
       <c r="J41" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K41" s="3">
         <v>135500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>183900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>129500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>166400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27100</v>
+        <v>17100</v>
       </c>
       <c r="E42" s="3">
-        <v>40700</v>
+        <v>27300</v>
       </c>
       <c r="F42" s="3">
-        <v>25000</v>
+        <v>41100</v>
       </c>
       <c r="G42" s="3">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="H42" s="3">
-        <v>34400</v>
+        <v>36300</v>
       </c>
       <c r="I42" s="3">
-        <v>37300</v>
+        <v>34700</v>
       </c>
       <c r="J42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K42" s="3">
         <v>50900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15400</v>
+        <v>13100</v>
       </c>
       <c r="E43" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>22000</v>
+        <v>16700</v>
       </c>
       <c r="G43" s="3">
-        <v>17700</v>
+        <v>22200</v>
       </c>
       <c r="H43" s="3">
-        <v>18500</v>
+        <v>17800</v>
       </c>
       <c r="I43" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="J43" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K43" s="3">
         <v>27900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2590,40 +2686,40 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>800</v>
       </c>
       <c r="M44" s="3">
         <v>800</v>
       </c>
       <c r="N44" s="3">
+        <v>800</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
+      <c r="Q44" s="3">
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="E45" s="3">
-        <v>12300</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3">
-        <v>13000</v>
+        <v>15700</v>
       </c>
       <c r="H45" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="J45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>147200</v>
+        <v>120000</v>
       </c>
       <c r="E46" s="3">
-        <v>154500</v>
+        <v>148300</v>
       </c>
       <c r="F46" s="3">
-        <v>166000</v>
+        <v>155700</v>
       </c>
       <c r="G46" s="3">
-        <v>156500</v>
+        <v>167300</v>
       </c>
       <c r="H46" s="3">
-        <v>196300</v>
+        <v>157700</v>
       </c>
       <c r="I46" s="3">
-        <v>205200</v>
+        <v>197800</v>
       </c>
       <c r="J46" s="3">
+        <v>206800</v>
+      </c>
+      <c r="K46" s="3">
         <v>235000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>278000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>208700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>234900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,53 +2857,56 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="E47" s="3">
-        <v>10400</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>9700</v>
+        <v>10500</v>
       </c>
       <c r="G47" s="3">
-        <v>18900</v>
+        <v>9800</v>
       </c>
       <c r="H47" s="3">
-        <v>17900</v>
+        <v>19100</v>
       </c>
       <c r="I47" s="3">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="J47" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K47" s="3">
         <v>11300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,44 +2931,44 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
         <v>1700</v>
       </c>
       <c r="G48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,53 +2981,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84800</v>
+        <v>58900</v>
       </c>
       <c r="E49" s="3">
-        <v>95900</v>
+        <v>85500</v>
       </c>
       <c r="F49" s="3">
-        <v>108400</v>
+        <v>96600</v>
       </c>
       <c r="G49" s="3">
-        <v>129700</v>
+        <v>109300</v>
       </c>
       <c r="H49" s="3">
-        <v>145400</v>
+        <v>130700</v>
       </c>
       <c r="I49" s="3">
-        <v>156500</v>
+        <v>146500</v>
       </c>
       <c r="J49" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K49" s="3">
         <v>168300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>396000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>395600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>391000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>378700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>388200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>232000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,25 +3167,28 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25600</v>
+        <v>34000</v>
       </c>
       <c r="E52" s="3">
-        <v>25500</v>
+        <v>25800</v>
       </c>
       <c r="F52" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="G52" s="3">
-        <v>19000</v>
+        <v>25700</v>
       </c>
       <c r="H52" s="3">
-        <v>2200</v>
+        <v>19100</v>
       </c>
       <c r="I52" s="3">
         <v>2200</v>
@@ -3077,26 +3197,26 @@
         <v>2200</v>
       </c>
       <c r="K52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L52" s="3">
         <v>2700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>270700</v>
+        <v>227000</v>
       </c>
       <c r="E54" s="3">
-        <v>288000</v>
+        <v>272700</v>
       </c>
       <c r="F54" s="3">
-        <v>311400</v>
+        <v>290300</v>
       </c>
       <c r="G54" s="3">
-        <v>326300</v>
+        <v>313800</v>
       </c>
       <c r="H54" s="3">
-        <v>363700</v>
+        <v>328800</v>
       </c>
       <c r="I54" s="3">
-        <v>382100</v>
+        <v>366500</v>
       </c>
       <c r="J54" s="3">
+        <v>385100</v>
+      </c>
+      <c r="K54" s="3">
         <v>419200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>660700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>704100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>691600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>630600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>497800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
-        <v>5100</v>
-      </c>
       <c r="G57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
-        <v>3300</v>
-      </c>
       <c r="I57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54100</v>
+        <v>53100</v>
       </c>
       <c r="E59" s="3">
-        <v>54100</v>
+        <v>54600</v>
       </c>
       <c r="F59" s="3">
-        <v>59600</v>
+        <v>54500</v>
       </c>
       <c r="G59" s="3">
-        <v>57800</v>
+        <v>60000</v>
       </c>
       <c r="H59" s="3">
-        <v>60700</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>65400</v>
+        <v>61200</v>
       </c>
       <c r="J59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K59" s="3">
         <v>79300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57100</v>
+        <v>54800</v>
       </c>
       <c r="E60" s="3">
-        <v>57200</v>
+        <v>57500</v>
       </c>
       <c r="F60" s="3">
-        <v>64700</v>
+        <v>57600</v>
       </c>
       <c r="G60" s="3">
-        <v>60900</v>
+        <v>65200</v>
       </c>
       <c r="H60" s="3">
-        <v>64100</v>
+        <v>61400</v>
       </c>
       <c r="I60" s="3">
-        <v>68100</v>
+        <v>64600</v>
       </c>
       <c r="J60" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K60" s="3">
         <v>85800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,53 +3711,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
-        <v>3900</v>
-      </c>
       <c r="J62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1100</v>
       </c>
       <c r="M62" s="3">
         <v>1100</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59900</v>
+        <v>65800</v>
       </c>
       <c r="E66" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="F66" s="3">
-        <v>67900</v>
+        <v>60700</v>
       </c>
       <c r="G66" s="3">
-        <v>65400</v>
+        <v>68400</v>
       </c>
       <c r="H66" s="3">
-        <v>67800</v>
+        <v>65900</v>
       </c>
       <c r="I66" s="3">
-        <v>72100</v>
+        <v>68300</v>
       </c>
       <c r="J66" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K66" s="3">
         <v>89900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4043,14 +4211,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>1261300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1040100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1263500</v>
+        <v>-1323100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1248500</v>
+        <v>-1273100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1231500</v>
+        <v>-1258100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1225800</v>
+        <v>-1240900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1211100</v>
+        <v>-1235200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1197200</v>
+        <v>-1220400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1206300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1174900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-903900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-864900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-825000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-767100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-743400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-668400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>210800</v>
+        <v>161200</v>
       </c>
       <c r="E76" s="3">
-        <v>227800</v>
+        <v>212400</v>
       </c>
       <c r="F76" s="3">
-        <v>243500</v>
+        <v>229500</v>
       </c>
       <c r="G76" s="3">
-        <v>260900</v>
+        <v>245400</v>
       </c>
       <c r="H76" s="3">
-        <v>296000</v>
+        <v>262900</v>
       </c>
       <c r="I76" s="3">
-        <v>310100</v>
+        <v>298200</v>
       </c>
       <c r="J76" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K76" s="3">
         <v>329300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>575000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>623300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>615700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>604600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-711600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-642200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15000</v>
+        <v>-50200</v>
       </c>
       <c r="E81" s="3">
-        <v>-17000</v>
+        <v>-15100</v>
       </c>
       <c r="F81" s="3">
-        <v>-5700</v>
+        <v>-17100</v>
       </c>
       <c r="G81" s="3">
-        <v>-14700</v>
+        <v>-5800</v>
       </c>
       <c r="H81" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I81" s="3">
-        <v>-22200</v>
+        <v>-14000</v>
       </c>
       <c r="J81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-255900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-65900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3">
         <v>-63300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-49600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4657,32 +4856,35 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>18700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18900</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-7800</v>
-      </c>
       <c r="F89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H89" s="3">
-        <v>-1300</v>
+        <v>-5000</v>
       </c>
       <c r="I89" s="3">
-        <v>-24200</v>
+        <v>-1400</v>
       </c>
       <c r="J89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5093,32 +5314,35 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-200</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>-300</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12900</v>
+        <v>-5200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9400</v>
+        <v>13000</v>
       </c>
       <c r="F94" s="3">
-        <v>14800</v>
+        <v>-9500</v>
       </c>
       <c r="G94" s="3">
-        <v>-18300</v>
+        <v>14900</v>
       </c>
       <c r="H94" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
-        <v>22200</v>
-      </c>
       <c r="J94" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>33600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-15200</v>
-      </c>
       <c r="H100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1700</v>
-      </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9400</v>
+        <v>-15000</v>
       </c>
       <c r="E102" s="3">
-        <v>-18400</v>
+        <v>9500</v>
       </c>
       <c r="F102" s="3">
-        <v>13700</v>
+        <v>-18500</v>
       </c>
       <c r="G102" s="3">
-        <v>-40100</v>
+        <v>13800</v>
       </c>
       <c r="H102" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>54400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-43200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42800</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12200</v>
+        <v>11400</v>
       </c>
       <c r="E8" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F8" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="G8" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="H8" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="I8" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="J8" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="K8" s="3">
         <v>42200</v>
@@ -822,25 +822,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="E9" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="F9" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="G9" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I9" s="3">
         <v>7200</v>
       </c>
-      <c r="I9" s="3">
-        <v>7700</v>
-      </c>
       <c r="J9" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="K9" s="3">
         <v>15400</v>
@@ -884,25 +884,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="E10" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="F10" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="G10" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="I10" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="J10" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="K10" s="3">
         <v>26800</v>
@@ -970,25 +970,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4600</v>
-      </c>
       <c r="J12" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="K12" s="3">
         <v>5000</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="E15" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="F15" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="G15" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="H15" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="I15" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="J15" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="K15" s="3">
         <v>16100</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64600</v>
+        <v>60400</v>
       </c>
       <c r="E17" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="F17" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="G17" s="3">
-        <v>42600</v>
+        <v>39800</v>
       </c>
       <c r="H17" s="3">
-        <v>33600</v>
+        <v>31400</v>
       </c>
       <c r="I17" s="3">
-        <v>35900</v>
+        <v>33500</v>
       </c>
       <c r="J17" s="3">
-        <v>42300</v>
+        <v>39500</v>
       </c>
       <c r="K17" s="3">
         <v>291900</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-52400</v>
+        <v>-48900</v>
       </c>
       <c r="E18" s="3">
-        <v>-15500</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
-        <v>-17400</v>
+        <v>-16200</v>
       </c>
       <c r="G18" s="3">
-        <v>-19400</v>
+        <v>-18200</v>
       </c>
       <c r="H18" s="3">
-        <v>-15900</v>
+        <v>-14800</v>
       </c>
       <c r="I18" s="3">
-        <v>-15000</v>
+        <v>-14000</v>
       </c>
       <c r="J18" s="3">
-        <v>-23500</v>
+        <v>-22000</v>
       </c>
       <c r="K18" s="3">
         <v>-249700</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="H20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
       </c>
       <c r="J20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-45600</v>
+        <v>-42600</v>
       </c>
       <c r="E21" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="F21" s="3">
-        <v>-22800</v>
+        <v>-21300</v>
       </c>
       <c r="G21" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H21" s="3">
-        <v>-14100</v>
+        <v>-13200</v>
       </c>
       <c r="I21" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="J21" s="3">
-        <v>-25100</v>
+        <v>-23400</v>
       </c>
       <c r="K21" s="3">
         <v>-249700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50400</v>
+        <v>-47100</v>
       </c>
       <c r="E23" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F23" s="3">
-        <v>-17400</v>
+        <v>-16300</v>
       </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="H23" s="3">
-        <v>-15000</v>
+        <v>-14000</v>
       </c>
       <c r="I23" s="3">
-        <v>-14200</v>
+        <v>-13300</v>
       </c>
       <c r="J23" s="3">
-        <v>-22600</v>
+        <v>-21100</v>
       </c>
       <c r="K23" s="3">
         <v>-253800</v>
@@ -1644,7 +1644,7 @@
         <v>-300</v>
       </c>
       <c r="G24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50200</v>
+        <v>-46900</v>
       </c>
       <c r="E26" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F26" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I26" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J26" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K26" s="3">
         <v>-254000</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50200</v>
+        <v>-46900</v>
       </c>
       <c r="E27" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F27" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="H27" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I27" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J27" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K27" s="3">
         <v>-255900</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="H32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50200</v>
+        <v>-46900</v>
       </c>
       <c r="E33" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F33" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="H33" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I33" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J33" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K33" s="3">
         <v>-255900</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50200</v>
+        <v>-46900</v>
       </c>
       <c r="E35" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F35" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="H35" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I35" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J35" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K35" s="3">
         <v>-255900</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80000</v>
+        <v>74700</v>
       </c>
       <c r="E41" s="3">
-        <v>95000</v>
+        <v>88800</v>
       </c>
       <c r="F41" s="3">
-        <v>85500</v>
+        <v>79900</v>
       </c>
       <c r="G41" s="3">
-        <v>104000</v>
+        <v>97200</v>
       </c>
       <c r="H41" s="3">
-        <v>90200</v>
+        <v>84200</v>
       </c>
       <c r="I41" s="3">
-        <v>130600</v>
+        <v>122000</v>
       </c>
       <c r="J41" s="3">
-        <v>135100</v>
+        <v>126200</v>
       </c>
       <c r="K41" s="3">
         <v>135500</v>
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="E42" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="F42" s="3">
-        <v>41100</v>
+        <v>38300</v>
       </c>
       <c r="G42" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="H42" s="3">
-        <v>36300</v>
+        <v>33900</v>
       </c>
       <c r="I42" s="3">
-        <v>34700</v>
+        <v>32400</v>
       </c>
       <c r="J42" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="K42" s="3">
         <v>50900</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="F43" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H43" s="3">
         <v>16700</v>
       </c>
-      <c r="G43" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>17800</v>
-      </c>
       <c r="I43" s="3">
-        <v>18700</v>
+        <v>17400</v>
       </c>
       <c r="J43" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="K43" s="3">
         <v>27900</v>
@@ -2698,7 +2698,7 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>2200</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
-        <v>10400</v>
-      </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="G45" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="J45" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="K45" s="3">
         <v>18600</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>120000</v>
+        <v>112100</v>
       </c>
       <c r="E46" s="3">
-        <v>148300</v>
+        <v>138500</v>
       </c>
       <c r="F46" s="3">
-        <v>155700</v>
+        <v>145500</v>
       </c>
       <c r="G46" s="3">
-        <v>167300</v>
+        <v>156300</v>
       </c>
       <c r="H46" s="3">
-        <v>157700</v>
+        <v>147300</v>
       </c>
       <c r="I46" s="3">
-        <v>197800</v>
+        <v>184700</v>
       </c>
       <c r="J46" s="3">
-        <v>206800</v>
+        <v>193100</v>
       </c>
       <c r="K46" s="3">
         <v>235000</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="F47" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G47" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>19100</v>
+        <v>17800</v>
       </c>
       <c r="I47" s="3">
-        <v>18000</v>
+        <v>16900</v>
       </c>
       <c r="J47" s="3">
-        <v>16200</v>
+        <v>15100</v>
       </c>
       <c r="K47" s="3">
         <v>11300</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1700</v>
-      </c>
       <c r="H48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K48" s="3">
         <v>2300</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>58900</v>
+        <v>55000</v>
       </c>
       <c r="E49" s="3">
-        <v>85500</v>
+        <v>79800</v>
       </c>
       <c r="F49" s="3">
-        <v>96600</v>
+        <v>90300</v>
       </c>
       <c r="G49" s="3">
-        <v>109300</v>
+        <v>102100</v>
       </c>
       <c r="H49" s="3">
-        <v>130700</v>
+        <v>122100</v>
       </c>
       <c r="I49" s="3">
-        <v>146500</v>
+        <v>136800</v>
       </c>
       <c r="J49" s="3">
-        <v>157700</v>
+        <v>147300</v>
       </c>
       <c r="K49" s="3">
         <v>168300</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="E52" s="3">
-        <v>25800</v>
+        <v>24100</v>
       </c>
       <c r="F52" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="G52" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="H52" s="3">
-        <v>19100</v>
+        <v>17900</v>
       </c>
       <c r="I52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>2200</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>227000</v>
+        <v>212000</v>
       </c>
       <c r="E54" s="3">
-        <v>272700</v>
+        <v>254800</v>
       </c>
       <c r="F54" s="3">
-        <v>290300</v>
+        <v>271100</v>
       </c>
       <c r="G54" s="3">
-        <v>313800</v>
+        <v>293100</v>
       </c>
       <c r="H54" s="3">
-        <v>328800</v>
+        <v>307100</v>
       </c>
       <c r="I54" s="3">
-        <v>366500</v>
+        <v>342400</v>
       </c>
       <c r="J54" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="K54" s="3">
         <v>419200</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3400</v>
-      </c>
       <c r="J57" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K57" s="3">
         <v>6500</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53100</v>
+        <v>49600</v>
       </c>
       <c r="E59" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="F59" s="3">
-        <v>54500</v>
+        <v>50900</v>
       </c>
       <c r="G59" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>54400</v>
       </c>
       <c r="I59" s="3">
-        <v>61200</v>
+        <v>57200</v>
       </c>
       <c r="J59" s="3">
-        <v>65900</v>
+        <v>61600</v>
       </c>
       <c r="K59" s="3">
         <v>79300</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="E60" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="F60" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="G60" s="3">
-        <v>65200</v>
+        <v>60900</v>
       </c>
       <c r="H60" s="3">
-        <v>61400</v>
+        <v>57400</v>
       </c>
       <c r="I60" s="3">
-        <v>64600</v>
+        <v>60300</v>
       </c>
       <c r="J60" s="3">
-        <v>68600</v>
+        <v>64100</v>
       </c>
       <c r="K60" s="3">
         <v>85800</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4500</v>
-      </c>
       <c r="I62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J62" s="3">
         <v>3700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4000</v>
       </c>
       <c r="K62" s="3">
         <v>4200</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65800</v>
+        <v>61500</v>
       </c>
       <c r="E66" s="3">
-        <v>60400</v>
+        <v>56400</v>
       </c>
       <c r="F66" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="G66" s="3">
-        <v>68400</v>
+        <v>63900</v>
       </c>
       <c r="H66" s="3">
-        <v>65900</v>
+        <v>61600</v>
       </c>
       <c r="I66" s="3">
-        <v>68300</v>
+        <v>63800</v>
       </c>
       <c r="J66" s="3">
-        <v>72600</v>
+        <v>67800</v>
       </c>
       <c r="K66" s="3">
         <v>89900</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1323100</v>
+        <v>-1235800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1273100</v>
+        <v>-1189200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1258100</v>
+        <v>-1175100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1240900</v>
+        <v>-1159100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1235200</v>
+        <v>-1153700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1220400</v>
+        <v>-1139900</v>
       </c>
       <c r="J72" s="3">
-        <v>-1206300</v>
+        <v>-1126800</v>
       </c>
       <c r="K72" s="3">
         <v>-1174900</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>161200</v>
+        <v>150600</v>
       </c>
       <c r="E76" s="3">
-        <v>212400</v>
+        <v>198400</v>
       </c>
       <c r="F76" s="3">
-        <v>229500</v>
+        <v>214400</v>
       </c>
       <c r="G76" s="3">
-        <v>245400</v>
+        <v>229200</v>
       </c>
       <c r="H76" s="3">
-        <v>262900</v>
+        <v>245600</v>
       </c>
       <c r="I76" s="3">
-        <v>298200</v>
+        <v>278600</v>
       </c>
       <c r="J76" s="3">
-        <v>312400</v>
+        <v>291800</v>
       </c>
       <c r="K76" s="3">
         <v>329300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50200</v>
+        <v>-46900</v>
       </c>
       <c r="E81" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="F81" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="H81" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I81" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J81" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K81" s="3">
         <v>-255900</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="E89" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F89" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="G89" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H89" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J89" s="3">
-        <v>-24400</v>
+        <v>-22800</v>
       </c>
       <c r="K89" s="3">
         <v>-5900</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="E94" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="G94" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="H94" s="3">
-        <v>-18400</v>
+        <v>-17200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J94" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="K94" s="3">
         <v>2000</v>
@@ -5808,19 +5808,19 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H100" s="3">
-        <v>-15300</v>
+        <v>-14300</v>
       </c>
       <c r="I100" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J100" s="3">
         <v>-200</v>
@@ -5870,22 +5870,22 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K101" s="3">
         <v>-900</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15000</v>
+        <v>-14000</v>
       </c>
       <c r="E102" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="F102" s="3">
-        <v>-18500</v>
+        <v>-17300</v>
       </c>
       <c r="G102" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="H102" s="3">
-        <v>-40400</v>
+        <v>-37800</v>
       </c>
       <c r="I102" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K102" s="3">
         <v>-5100</v>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11400</v>
+        <v>24500</v>
       </c>
       <c r="E8" s="3">
-        <v>13600</v>
+        <v>11300</v>
       </c>
       <c r="F8" s="3">
         <v>13400</v>
       </c>
       <c r="G8" s="3">
-        <v>21600</v>
+        <v>13300</v>
       </c>
       <c r="H8" s="3">
-        <v>16600</v>
+        <v>21400</v>
       </c>
       <c r="I8" s="3">
-        <v>19500</v>
+        <v>16400</v>
       </c>
       <c r="J8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K8" s="3">
         <v>17500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39300</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6100</v>
       </c>
-      <c r="E9" s="3">
-        <v>6400</v>
-      </c>
       <c r="F9" s="3">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="G9" s="3">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="H9" s="3">
-        <v>6700</v>
+        <v>7400</v>
       </c>
       <c r="I9" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="J9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K9" s="3">
         <v>8600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5300</v>
+        <v>13700</v>
       </c>
       <c r="E10" s="3">
-        <v>7200</v>
+        <v>5200</v>
       </c>
       <c r="F10" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="G10" s="3">
-        <v>14100</v>
+        <v>7700</v>
       </c>
       <c r="H10" s="3">
-        <v>9900</v>
+        <v>14000</v>
       </c>
       <c r="I10" s="3">
-        <v>12300</v>
+        <v>9800</v>
       </c>
       <c r="J10" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="E12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
-        <v>4100</v>
-      </c>
       <c r="I12" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8800</v>
       </c>
       <c r="Q12" s="3">
         <v>8800</v>
       </c>
       <c r="R12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="S12" s="3">
         <v>10000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10800</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,16 +1105,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1111,20 +1131,20 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>216400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1132,76 +1152,79 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-2000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14100</v>
+        <v>24500</v>
       </c>
       <c r="E15" s="3">
-        <v>9500</v>
+        <v>13900</v>
       </c>
       <c r="F15" s="3">
-        <v>12100</v>
+        <v>9400</v>
       </c>
       <c r="G15" s="3">
-        <v>16700</v>
+        <v>12000</v>
       </c>
       <c r="H15" s="3">
-        <v>11200</v>
+        <v>16600</v>
       </c>
       <c r="I15" s="3">
-        <v>10400</v>
+        <v>11100</v>
       </c>
       <c r="J15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K15" s="3">
         <v>12800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7900</v>
-      </c>
-      <c r="S15" s="3">
-        <v>16300</v>
       </c>
       <c r="T15" s="3">
         <v>16300</v>
@@ -1209,11 +1232,14 @@
       <c r="U15" s="3">
         <v>16300</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60400</v>
+        <v>59600</v>
       </c>
       <c r="E17" s="3">
-        <v>28000</v>
+        <v>59800</v>
       </c>
       <c r="F17" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="G17" s="3">
-        <v>39800</v>
+        <v>29400</v>
       </c>
       <c r="H17" s="3">
-        <v>31400</v>
+        <v>39400</v>
       </c>
       <c r="I17" s="3">
-        <v>33500</v>
+        <v>31100</v>
       </c>
       <c r="J17" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>291900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>52100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>47900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3">
         <v>76000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-48900</v>
+        <v>-35100</v>
       </c>
       <c r="E18" s="3">
-        <v>-14400</v>
+        <v>-48500</v>
       </c>
       <c r="F18" s="3">
-        <v>-16200</v>
+        <v>-14300</v>
       </c>
       <c r="G18" s="3">
-        <v>-18200</v>
+        <v>-16100</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-18000</v>
       </c>
       <c r="I18" s="3">
-        <v>-14000</v>
+        <v>-14700</v>
       </c>
       <c r="J18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-249700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-44000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-30100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-42600</v>
+        <v>-24400</v>
       </c>
       <c r="E21" s="3">
-        <v>-4400</v>
+        <v>-42200</v>
       </c>
       <c r="F21" s="3">
-        <v>-21300</v>
+        <v>-4300</v>
       </c>
       <c r="G21" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
-        <v>-13200</v>
-      </c>
       <c r="I21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-249700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-36400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-23300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,87 +1607,93 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-47100</v>
+        <v>-35200</v>
       </c>
       <c r="E23" s="3">
-        <v>-14100</v>
+        <v>-46700</v>
       </c>
       <c r="F23" s="3">
-        <v>-16300</v>
+        <v>-14000</v>
       </c>
       <c r="G23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-14000</v>
-      </c>
       <c r="I23" s="3">
-        <v>-13300</v>
+        <v>-13800</v>
       </c>
       <c r="J23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-253800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-42100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-29200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-200</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1656,43 +1702,46 @@
         <v>-200</v>
       </c>
       <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46900</v>
+        <v>-33300</v>
       </c>
       <c r="E26" s="3">
-        <v>-14100</v>
+        <v>-46500</v>
       </c>
       <c r="F26" s="3">
-        <v>-16000</v>
+        <v>-13900</v>
       </c>
       <c r="G26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I26" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="J26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-254000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3">
         <v>-38200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46900</v>
+        <v>-33000</v>
       </c>
       <c r="E27" s="3">
-        <v>-14100</v>
+        <v>-46500</v>
       </c>
       <c r="F27" s="3">
-        <v>-16000</v>
+        <v>-13900</v>
       </c>
       <c r="G27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I27" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="J27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-255900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-43300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3">
         <v>-63300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-49600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-14100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46900</v>
+        <v>-33000</v>
       </c>
       <c r="E33" s="3">
-        <v>-14100</v>
+        <v>-46500</v>
       </c>
       <c r="F33" s="3">
-        <v>-16000</v>
+        <v>-13900</v>
       </c>
       <c r="G33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I33" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="J33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-255900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-43300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3">
         <v>-63300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-49600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46900</v>
+        <v>-33000</v>
       </c>
       <c r="E35" s="3">
-        <v>-14100</v>
+        <v>-46500</v>
       </c>
       <c r="F35" s="3">
-        <v>-16000</v>
+        <v>-13900</v>
       </c>
       <c r="G35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I35" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="J35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-255900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-43300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3">
         <v>-63300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-49600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74700</v>
+        <v>64000</v>
       </c>
       <c r="E41" s="3">
-        <v>88800</v>
+        <v>74000</v>
       </c>
       <c r="F41" s="3">
-        <v>79900</v>
+        <v>88000</v>
       </c>
       <c r="G41" s="3">
-        <v>97200</v>
+        <v>79200</v>
       </c>
       <c r="H41" s="3">
-        <v>84200</v>
+        <v>96300</v>
       </c>
       <c r="I41" s="3">
-        <v>122000</v>
+        <v>83500</v>
       </c>
       <c r="J41" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K41" s="3">
         <v>126200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>194200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>183900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>129500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16000</v>
+        <v>28700</v>
       </c>
       <c r="E42" s="3">
-        <v>25500</v>
+        <v>15800</v>
       </c>
       <c r="F42" s="3">
-        <v>38300</v>
+        <v>25300</v>
       </c>
       <c r="G42" s="3">
-        <v>23600</v>
+        <v>38000</v>
       </c>
       <c r="H42" s="3">
-        <v>33900</v>
+        <v>23400</v>
       </c>
       <c r="I42" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="J42" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K42" s="3">
         <v>35100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,56 +2702,59 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12300</v>
+        <v>5300</v>
       </c>
       <c r="E43" s="3">
-        <v>14500</v>
+        <v>12200</v>
       </c>
       <c r="F43" s="3">
-        <v>15600</v>
+        <v>14300</v>
       </c>
       <c r="G43" s="3">
-        <v>20700</v>
+        <v>15500</v>
       </c>
       <c r="H43" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K43" s="3">
         <v>16700</v>
       </c>
-      <c r="I43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2689,40 +2785,40 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>800</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
+      <c r="R44" s="3">
+        <v>100</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
@@ -2736,56 +2832,59 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9100</v>
+        <v>6900</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="H45" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112100</v>
+        <v>105000</v>
       </c>
       <c r="E46" s="3">
-        <v>138500</v>
+        <v>111100</v>
       </c>
       <c r="F46" s="3">
-        <v>145500</v>
+        <v>137300</v>
       </c>
       <c r="G46" s="3">
-        <v>156300</v>
+        <v>144100</v>
       </c>
       <c r="H46" s="3">
-        <v>147300</v>
+        <v>154900</v>
       </c>
       <c r="I46" s="3">
-        <v>184700</v>
+        <v>146000</v>
       </c>
       <c r="J46" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K46" s="3">
         <v>193100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>235000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>278000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>208700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>234900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,56 +2962,59 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11700</v>
+        <v>10500</v>
       </c>
       <c r="E47" s="3">
-        <v>10800</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>9800</v>
+        <v>10700</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="H47" s="3">
-        <v>17800</v>
+        <v>9100</v>
       </c>
       <c r="I47" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="J47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K47" s="3">
         <v>15100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1600</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
       </c>
       <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
-        <v>1900</v>
-      </c>
       <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,56 +3092,59 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55000</v>
+        <v>22400</v>
       </c>
       <c r="E49" s="3">
-        <v>79800</v>
+        <v>54500</v>
       </c>
       <c r="F49" s="3">
-        <v>90300</v>
+        <v>79100</v>
       </c>
       <c r="G49" s="3">
-        <v>102100</v>
+        <v>89400</v>
       </c>
       <c r="H49" s="3">
-        <v>122100</v>
+        <v>101100</v>
       </c>
       <c r="I49" s="3">
-        <v>136800</v>
+        <v>121000</v>
       </c>
       <c r="J49" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K49" s="3">
         <v>147300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>168300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>396000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>395600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>391000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>378700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>388200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>232000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3287,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="E52" s="3">
-        <v>24100</v>
+        <v>31500</v>
       </c>
       <c r="F52" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="G52" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="H52" s="3">
-        <v>17900</v>
+        <v>23800</v>
       </c>
       <c r="I52" s="3">
-        <v>2100</v>
+        <v>17700</v>
       </c>
       <c r="J52" s="3">
         <v>2100</v>
       </c>
       <c r="K52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>212000</v>
+        <v>170400</v>
       </c>
       <c r="E54" s="3">
-        <v>254800</v>
+        <v>210100</v>
       </c>
       <c r="F54" s="3">
-        <v>271100</v>
+        <v>252500</v>
       </c>
       <c r="G54" s="3">
-        <v>293100</v>
+        <v>268700</v>
       </c>
       <c r="H54" s="3">
-        <v>307100</v>
+        <v>290500</v>
       </c>
       <c r="I54" s="3">
-        <v>342400</v>
+        <v>304400</v>
       </c>
       <c r="J54" s="3">
+        <v>339300</v>
+      </c>
+      <c r="K54" s="3">
         <v>359700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>419200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>660700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>704100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>691600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>630600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>497800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3534,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,31 +3597,34 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49600</v>
+        <v>42900</v>
       </c>
       <c r="E59" s="3">
-        <v>51000</v>
+        <v>49200</v>
       </c>
       <c r="F59" s="3">
-        <v>50900</v>
+        <v>50500</v>
       </c>
       <c r="G59" s="3">
-        <v>56100</v>
+        <v>50400</v>
       </c>
       <c r="H59" s="3">
-        <v>54400</v>
+        <v>55600</v>
       </c>
       <c r="I59" s="3">
-        <v>57200</v>
+        <v>53900</v>
       </c>
       <c r="J59" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K59" s="3">
         <v>61600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51200</v>
+        <v>47000</v>
       </c>
       <c r="E60" s="3">
-        <v>53700</v>
+        <v>50700</v>
       </c>
       <c r="F60" s="3">
-        <v>53800</v>
+        <v>53200</v>
       </c>
       <c r="G60" s="3">
-        <v>60900</v>
+        <v>53300</v>
       </c>
       <c r="H60" s="3">
-        <v>57400</v>
+        <v>60400</v>
       </c>
       <c r="I60" s="3">
-        <v>60300</v>
+        <v>56800</v>
       </c>
       <c r="J60" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K60" s="3">
         <v>64100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>97200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,56 +3857,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1100</v>
       </c>
       <c r="N62" s="3">
         <v>1100</v>
       </c>
       <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61500</v>
+        <v>55100</v>
       </c>
       <c r="E66" s="3">
-        <v>56400</v>
+        <v>60900</v>
       </c>
       <c r="F66" s="3">
-        <v>56700</v>
+        <v>55900</v>
       </c>
       <c r="G66" s="3">
-        <v>63900</v>
+        <v>56200</v>
       </c>
       <c r="H66" s="3">
-        <v>61600</v>
+        <v>63300</v>
       </c>
       <c r="I66" s="3">
-        <v>63800</v>
+        <v>61000</v>
       </c>
       <c r="J66" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K66" s="3">
         <v>67800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4214,14 +4382,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1261300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1040100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1235800</v>
+        <v>-1258000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1189200</v>
+        <v>-1224700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1175100</v>
+        <v>-1178500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1159100</v>
+        <v>-1164500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1153700</v>
+        <v>-1148700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1139900</v>
+        <v>-1143300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1129600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1126800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1174900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-903900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-864900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-825000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-767100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-743400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-668400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150600</v>
+        <v>115300</v>
       </c>
       <c r="E76" s="3">
-        <v>198400</v>
+        <v>149200</v>
       </c>
       <c r="F76" s="3">
-        <v>214400</v>
+        <v>196600</v>
       </c>
       <c r="G76" s="3">
-        <v>229200</v>
+        <v>212500</v>
       </c>
       <c r="H76" s="3">
-        <v>245600</v>
+        <v>227100</v>
       </c>
       <c r="I76" s="3">
-        <v>278600</v>
+        <v>243300</v>
       </c>
       <c r="J76" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K76" s="3">
         <v>291800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>329300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>575000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>623300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>615700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>604600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-711600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-642200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46900</v>
+        <v>-33000</v>
       </c>
       <c r="E81" s="3">
-        <v>-14100</v>
+        <v>-46500</v>
       </c>
       <c r="F81" s="3">
-        <v>-16000</v>
+        <v>-13900</v>
       </c>
       <c r="G81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I81" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="J81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-255900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-43300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3">
         <v>-63300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-49600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4859,32 +5058,35 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
         <v>18700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18900</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9200</v>
+        <v>-6000</v>
       </c>
       <c r="E89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7400</v>
-      </c>
       <c r="G89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-33900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5317,32 +5538,35 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-200</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>-300</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
-        <v>12100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-8900</v>
+        <v>12000</v>
       </c>
       <c r="G94" s="3">
-        <v>13900</v>
+        <v>-8800</v>
       </c>
       <c r="H94" s="3">
-        <v>-17200</v>
+        <v>13800</v>
       </c>
       <c r="I94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>33600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-14300</v>
-      </c>
       <c r="I100" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>61800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1600</v>
       </c>
       <c r="H101" s="3">
         <v>-1600</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14000</v>
+        <v>-10000</v>
       </c>
       <c r="E102" s="3">
-        <v>8900</v>
+        <v>-13900</v>
       </c>
       <c r="F102" s="3">
-        <v>-17300</v>
+        <v>8800</v>
       </c>
       <c r="G102" s="3">
-        <v>12900</v>
+        <v>-17100</v>
       </c>
       <c r="H102" s="3">
-        <v>-37800</v>
+        <v>12800</v>
       </c>
       <c r="I102" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>54400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-42800</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="E8" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="F8" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="G8" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="H8" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="I8" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="J8" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="K8" s="3">
         <v>17500</v>
@@ -829,25 +829,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E9" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="G9" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6600</v>
-      </c>
       <c r="J9" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K9" s="3">
         <v>8600</v>
@@ -894,25 +894,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="E10" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G10" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="H10" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="I10" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="J10" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="K10" s="3">
         <v>8900</v>
@@ -984,25 +984,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E12" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F12" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J12" s="3">
         <v>4000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4200</v>
       </c>
       <c r="K12" s="3">
         <v>4800</v>
@@ -1114,10 +1114,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1179,25 +1179,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="E15" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="F15" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="H15" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="I15" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="J15" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="K15" s="3">
         <v>12800</v>
@@ -1266,25 +1266,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59600</v>
+        <v>56800</v>
       </c>
       <c r="E17" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="F17" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="G17" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="H17" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="I17" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="J17" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="K17" s="3">
         <v>39500</v>
@@ -1331,25 +1331,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35100</v>
+        <v>-33500</v>
       </c>
       <c r="E18" s="3">
-        <v>-48500</v>
+        <v>-46200</v>
       </c>
       <c r="F18" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="G18" s="3">
-        <v>-16100</v>
+        <v>-15300</v>
       </c>
       <c r="H18" s="3">
-        <v>-18000</v>
+        <v>-17200</v>
       </c>
       <c r="I18" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="J18" s="3">
-        <v>-13900</v>
+        <v>-13200</v>
       </c>
       <c r="K18" s="3">
         <v>-22000</v>
@@ -1424,7 +1424,7 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I20" s="3">
         <v>800</v>
@@ -1486,25 +1486,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24400</v>
+        <v>-23300</v>
       </c>
       <c r="E21" s="3">
-        <v>-42200</v>
+        <v>-40200</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G21" s="3">
-        <v>-21100</v>
+        <v>-20200</v>
       </c>
       <c r="H21" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I21" s="3">
-        <v>-13100</v>
+        <v>-12500</v>
       </c>
       <c r="J21" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K21" s="3">
         <v>-23400</v>
@@ -1616,25 +1616,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35200</v>
+        <v>-33600</v>
       </c>
       <c r="E23" s="3">
-        <v>-46700</v>
+        <v>-44500</v>
       </c>
       <c r="F23" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="G23" s="3">
-        <v>-16100</v>
+        <v>-15400</v>
       </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="I23" s="3">
-        <v>-13800</v>
+        <v>-13200</v>
       </c>
       <c r="J23" s="3">
-        <v>-13200</v>
+        <v>-12500</v>
       </c>
       <c r="K23" s="3">
         <v>-21100</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
@@ -1693,7 +1693,7 @@
         <v>-300</v>
       </c>
       <c r="H24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1811,25 +1811,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33300</v>
+        <v>-31800</v>
       </c>
       <c r="E26" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="F26" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G26" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="H26" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I26" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="J26" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K26" s="3">
         <v>-20900</v>
@@ -1876,25 +1876,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33000</v>
+        <v>-31400</v>
       </c>
       <c r="E27" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="F27" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G27" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="H27" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I27" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="J27" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K27" s="3">
         <v>-20900</v>
@@ -2204,7 +2204,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="I32" s="3">
         <v>-800</v>
@@ -2266,25 +2266,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33000</v>
+        <v>-31400</v>
       </c>
       <c r="E33" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="F33" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G33" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="H33" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I33" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="J33" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K33" s="3">
         <v>-20900</v>
@@ -2396,25 +2396,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33000</v>
+        <v>-31400</v>
       </c>
       <c r="E35" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="F35" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G35" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="H35" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I35" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="J35" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K35" s="3">
         <v>-20900</v>
@@ -2581,25 +2581,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64000</v>
+        <v>61100</v>
       </c>
       <c r="E41" s="3">
-        <v>74000</v>
+        <v>70600</v>
       </c>
       <c r="F41" s="3">
-        <v>88000</v>
+        <v>83800</v>
       </c>
       <c r="G41" s="3">
-        <v>79200</v>
+        <v>75500</v>
       </c>
       <c r="H41" s="3">
-        <v>96300</v>
+        <v>91800</v>
       </c>
       <c r="I41" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="J41" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="K41" s="3">
         <v>126200</v>
@@ -2646,25 +2646,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28700</v>
+        <v>27400</v>
       </c>
       <c r="E42" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="F42" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="G42" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="H42" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="I42" s="3">
-        <v>33600</v>
+        <v>32000</v>
       </c>
       <c r="J42" s="3">
-        <v>32100</v>
+        <v>30600</v>
       </c>
       <c r="K42" s="3">
         <v>35100</v>
@@ -2711,25 +2711,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E43" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="F43" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
-        <v>15500</v>
+        <v>17700</v>
       </c>
       <c r="H43" s="3">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="I43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J43" s="3">
         <v>16500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>17300</v>
       </c>
       <c r="K43" s="3">
         <v>16700</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -2841,25 +2841,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E45" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="I45" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="J45" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="K45" s="3">
         <v>14700</v>
@@ -2906,25 +2906,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>105000</v>
+        <v>100100</v>
       </c>
       <c r="E46" s="3">
-        <v>111100</v>
+        <v>105900</v>
       </c>
       <c r="F46" s="3">
-        <v>137300</v>
+        <v>130800</v>
       </c>
       <c r="G46" s="3">
-        <v>144100</v>
+        <v>137400</v>
       </c>
       <c r="H46" s="3">
-        <v>154900</v>
+        <v>147600</v>
       </c>
       <c r="I46" s="3">
-        <v>146000</v>
+        <v>139200</v>
       </c>
       <c r="J46" s="3">
-        <v>183100</v>
+        <v>174500</v>
       </c>
       <c r="K46" s="3">
         <v>193100</v>
@@ -2971,25 +2971,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="F47" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G47" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="I47" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="J47" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="K47" s="3">
         <v>15100</v>
@@ -3042,16 +3042,16 @@
         <v>1400</v>
       </c>
       <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
-        <v>1600</v>
-      </c>
       <c r="H48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1800</v>
@@ -3101,25 +3101,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="E49" s="3">
-        <v>54500</v>
+        <v>52000</v>
       </c>
       <c r="F49" s="3">
-        <v>79100</v>
+        <v>75400</v>
       </c>
       <c r="G49" s="3">
-        <v>89400</v>
+        <v>85300</v>
       </c>
       <c r="H49" s="3">
-        <v>101100</v>
+        <v>96400</v>
       </c>
       <c r="I49" s="3">
-        <v>121000</v>
+        <v>115300</v>
       </c>
       <c r="J49" s="3">
-        <v>135600</v>
+        <v>129200</v>
       </c>
       <c r="K49" s="3">
         <v>147300</v>
@@ -3296,25 +3296,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31400</v>
+        <v>29900</v>
       </c>
       <c r="E52" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="G52" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="H52" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>16900</v>
       </c>
       <c r="J52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>2100</v>
@@ -3426,25 +3426,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="E54" s="3">
-        <v>210100</v>
+        <v>200300</v>
       </c>
       <c r="F54" s="3">
-        <v>252500</v>
+        <v>240700</v>
       </c>
       <c r="G54" s="3">
-        <v>268700</v>
+        <v>256100</v>
       </c>
       <c r="H54" s="3">
-        <v>290500</v>
+        <v>276900</v>
       </c>
       <c r="I54" s="3">
-        <v>304400</v>
+        <v>290100</v>
       </c>
       <c r="J54" s="3">
-        <v>339300</v>
+        <v>323400</v>
       </c>
       <c r="K54" s="3">
         <v>359700</v>
@@ -3541,25 +3541,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="I57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J57" s="3">
         <v>3000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3100</v>
       </c>
       <c r="K57" s="3">
         <v>2500</v>
@@ -3606,7 +3606,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3671,25 +3671,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="E59" s="3">
-        <v>49200</v>
+        <v>46900</v>
       </c>
       <c r="F59" s="3">
-        <v>50500</v>
+        <v>48100</v>
       </c>
       <c r="G59" s="3">
-        <v>50400</v>
+        <v>48100</v>
       </c>
       <c r="H59" s="3">
-        <v>55600</v>
+        <v>53000</v>
       </c>
       <c r="I59" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="J59" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="K59" s="3">
         <v>61600</v>
@@ -3736,25 +3736,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47000</v>
+        <v>44800</v>
       </c>
       <c r="E60" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F60" s="3">
         <v>50700</v>
       </c>
-      <c r="F60" s="3">
-        <v>53200</v>
-      </c>
       <c r="G60" s="3">
-        <v>53300</v>
+        <v>50800</v>
       </c>
       <c r="H60" s="3">
-        <v>60400</v>
+        <v>57500</v>
       </c>
       <c r="I60" s="3">
-        <v>56800</v>
+        <v>54200</v>
       </c>
       <c r="J60" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="K60" s="3">
         <v>64100</v>
@@ -3866,25 +3866,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
-        <v>2900</v>
-      </c>
       <c r="H62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I62" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J62" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>3700</v>
@@ -4126,25 +4126,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="E66" s="3">
-        <v>60900</v>
+        <v>58100</v>
       </c>
       <c r="F66" s="3">
-        <v>55900</v>
+        <v>53300</v>
       </c>
       <c r="G66" s="3">
-        <v>56200</v>
+        <v>53600</v>
       </c>
       <c r="H66" s="3">
-        <v>63300</v>
+        <v>60400</v>
       </c>
       <c r="I66" s="3">
-        <v>61000</v>
+        <v>58200</v>
       </c>
       <c r="J66" s="3">
-        <v>63200</v>
+        <v>60300</v>
       </c>
       <c r="K66" s="3">
         <v>67800</v>
@@ -4476,25 +4476,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1258000</v>
+        <v>-1199100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1224700</v>
+        <v>-1167400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1178500</v>
+        <v>-1123400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1164500</v>
+        <v>-1110100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1148700</v>
+        <v>-1094900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1143300</v>
+        <v>-1089800</v>
       </c>
       <c r="J72" s="3">
-        <v>-1129600</v>
+        <v>-1076800</v>
       </c>
       <c r="K72" s="3">
         <v>-1126800</v>
@@ -4736,25 +4736,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>115300</v>
+        <v>109900</v>
       </c>
       <c r="E76" s="3">
-        <v>149200</v>
+        <v>142200</v>
       </c>
       <c r="F76" s="3">
-        <v>196600</v>
+        <v>187400</v>
       </c>
       <c r="G76" s="3">
-        <v>212500</v>
+        <v>202500</v>
       </c>
       <c r="H76" s="3">
-        <v>227100</v>
+        <v>216500</v>
       </c>
       <c r="I76" s="3">
-        <v>243300</v>
+        <v>232000</v>
       </c>
       <c r="J76" s="3">
-        <v>276100</v>
+        <v>263100</v>
       </c>
       <c r="K76" s="3">
         <v>291800</v>
@@ -4936,25 +4936,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33000</v>
+        <v>-31400</v>
       </c>
       <c r="E81" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="F81" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G81" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="H81" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I81" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="J81" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K81" s="3">
         <v>-20900</v>
@@ -5416,25 +5416,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="E89" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G89" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I89" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-22800</v>
@@ -5701,25 +5701,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="F94" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="G94" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="H94" s="3">
-        <v>13800</v>
+        <v>13100</v>
       </c>
       <c r="I94" s="3">
-        <v>-17000</v>
+        <v>-16200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K94" s="3">
         <v>20900</v>
@@ -6051,7 +6051,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -6063,10 +6063,10 @@
         <v>-1300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I100" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="J100" s="3">
         <v>-800</v>
@@ -6181,25 +6181,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10000</v>
+        <v>-9500</v>
       </c>
       <c r="E102" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="F102" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="G102" s="3">
-        <v>-17100</v>
+        <v>-16300</v>
       </c>
       <c r="H102" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="I102" s="3">
-        <v>-37400</v>
+        <v>-35700</v>
       </c>
       <c r="J102" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>MOGU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>23400</v>
+        <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>10800</v>
+        <v>24100</v>
       </c>
       <c r="F8" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="G8" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="H8" s="3">
-        <v>20400</v>
+        <v>13100</v>
       </c>
       <c r="I8" s="3">
-        <v>15700</v>
+        <v>21000</v>
       </c>
       <c r="J8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K8" s="3">
         <v>18400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>53300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39300</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10400</v>
+        <v>8600</v>
       </c>
       <c r="E9" s="3">
-        <v>5800</v>
+        <v>10700</v>
       </c>
       <c r="F9" s="3">
         <v>6000</v>
       </c>
       <c r="G9" s="3">
-        <v>5300</v>
+        <v>6200</v>
       </c>
       <c r="H9" s="3">
-        <v>7100</v>
+        <v>5400</v>
       </c>
       <c r="I9" s="3">
-        <v>6300</v>
+        <v>7300</v>
       </c>
       <c r="J9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K9" s="3">
         <v>6800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13000</v>
+        <v>7900</v>
       </c>
       <c r="E10" s="3">
-        <v>5000</v>
+        <v>13400</v>
       </c>
       <c r="F10" s="3">
-        <v>6800</v>
+        <v>5100</v>
       </c>
       <c r="G10" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="3">
-        <v>13300</v>
+        <v>7600</v>
       </c>
       <c r="I10" s="3">
-        <v>9300</v>
+        <v>13700</v>
       </c>
       <c r="J10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K10" s="3">
         <v>11700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27300</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="F12" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="G12" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="H12" s="3">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="I12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3">
         <v>4000</v>
       </c>
       <c r="K12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>8800</v>
       </c>
       <c r="R12" s="3">
         <v>8800</v>
       </c>
       <c r="S12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="T12" s="3">
         <v>10000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10800</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,19 +1125,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>6800</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>26000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>26800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1134,20 +1154,20 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>216400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1155,79 +1175,82 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-2000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>23400</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>13300</v>
+        <v>24100</v>
       </c>
       <c r="F15" s="3">
-        <v>9000</v>
+        <v>13700</v>
       </c>
       <c r="G15" s="3">
-        <v>11400</v>
+        <v>9300</v>
       </c>
       <c r="H15" s="3">
-        <v>15800</v>
+        <v>11800</v>
       </c>
       <c r="I15" s="3">
-        <v>10500</v>
+        <v>16300</v>
       </c>
       <c r="J15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7900</v>
-      </c>
-      <c r="T15" s="3">
-        <v>16300</v>
       </c>
       <c r="U15" s="3">
         <v>16300</v>
@@ -1235,11 +1258,14 @@
       <c r="V15" s="3">
         <v>16300</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56800</v>
+        <v>23400</v>
       </c>
       <c r="E17" s="3">
-        <v>57000</v>
+        <v>58600</v>
       </c>
       <c r="F17" s="3">
-        <v>26400</v>
+        <v>58800</v>
       </c>
       <c r="G17" s="3">
-        <v>28000</v>
+        <v>27300</v>
       </c>
       <c r="H17" s="3">
-        <v>37600</v>
+        <v>28900</v>
       </c>
       <c r="I17" s="3">
-        <v>29700</v>
+        <v>38700</v>
       </c>
       <c r="J17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>291900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>52100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>47900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3">
         <v>76000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-33500</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
-        <v>-46200</v>
+        <v>-34500</v>
       </c>
       <c r="F18" s="3">
-        <v>-13600</v>
+        <v>-47700</v>
       </c>
       <c r="G18" s="3">
-        <v>-15300</v>
+        <v>-14100</v>
       </c>
       <c r="H18" s="3">
-        <v>-17200</v>
+        <v>-15800</v>
       </c>
       <c r="I18" s="3">
-        <v>-14000</v>
+        <v>-17700</v>
       </c>
       <c r="J18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-249700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
         <v>-44000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-30100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>1700</v>
-      </c>
       <c r="F20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-23300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-20200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-249700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-36400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,93 +1650,99 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33600</v>
+        <v>-8400</v>
       </c>
       <c r="E23" s="3">
-        <v>-44500</v>
+        <v>-34600</v>
       </c>
       <c r="F23" s="3">
-        <v>-13300</v>
+        <v>-45900</v>
       </c>
       <c r="G23" s="3">
-        <v>-15400</v>
+        <v>-13700</v>
       </c>
       <c r="H23" s="3">
-        <v>-3800</v>
+        <v>-15900</v>
       </c>
       <c r="I23" s="3">
-        <v>-13200</v>
+        <v>-3900</v>
       </c>
       <c r="J23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-253800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-42100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-29200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>1300</v>
-      </c>
       <c r="I24" s="3">
-        <v>-200</v>
+        <v>1400</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1705,43 +1751,46 @@
         <v>-200</v>
       </c>
       <c r="L24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3800</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31800</v>
+        <v>-8300</v>
       </c>
       <c r="E26" s="3">
-        <v>-44300</v>
+        <v>-32800</v>
       </c>
       <c r="F26" s="3">
-        <v>-13300</v>
+        <v>-45700</v>
       </c>
       <c r="G26" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5100</v>
+        <v>-15600</v>
       </c>
       <c r="I26" s="3">
-        <v>-13000</v>
+        <v>-5300</v>
       </c>
       <c r="J26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-254000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3">
         <v>-38200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31400</v>
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
-        <v>-44300</v>
+        <v>-32400</v>
       </c>
       <c r="F27" s="3">
-        <v>-13300</v>
+        <v>-45700</v>
       </c>
       <c r="G27" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="H27" s="3">
-        <v>-5100</v>
+        <v>-15600</v>
       </c>
       <c r="I27" s="3">
-        <v>-13000</v>
+        <v>-5300</v>
       </c>
       <c r="J27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-255900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-65900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-43300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3">
         <v>-63300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-49600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-13400</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31400</v>
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
-        <v>-44300</v>
+        <v>-32400</v>
       </c>
       <c r="F33" s="3">
-        <v>-13300</v>
+        <v>-45700</v>
       </c>
       <c r="G33" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="H33" s="3">
-        <v>-5100</v>
+        <v>-15600</v>
       </c>
       <c r="I33" s="3">
-        <v>-13000</v>
+        <v>-5300</v>
       </c>
       <c r="J33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-255900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-65900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-43300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3">
         <v>-63300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-49600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31400</v>
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
-        <v>-44300</v>
+        <v>-32400</v>
       </c>
       <c r="F35" s="3">
-        <v>-13300</v>
+        <v>-45700</v>
       </c>
       <c r="G35" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="H35" s="3">
-        <v>-5100</v>
+        <v>-15600</v>
       </c>
       <c r="I35" s="3">
-        <v>-13000</v>
+        <v>-5300</v>
       </c>
       <c r="J35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-255900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-65900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-43300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3">
         <v>-63300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-49600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2661,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61100</v>
+        <v>56400</v>
       </c>
       <c r="E41" s="3">
-        <v>70600</v>
+        <v>63000</v>
       </c>
       <c r="F41" s="3">
-        <v>83800</v>
+        <v>72800</v>
       </c>
       <c r="G41" s="3">
-        <v>75500</v>
+        <v>86500</v>
       </c>
       <c r="H41" s="3">
-        <v>91800</v>
+        <v>77900</v>
       </c>
       <c r="I41" s="3">
-        <v>79600</v>
+        <v>94700</v>
       </c>
       <c r="J41" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K41" s="3">
         <v>115200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>135500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>194200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>183900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>129500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,59 +2727,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27400</v>
+        <v>30300</v>
       </c>
       <c r="E42" s="3">
-        <v>15100</v>
+        <v>28300</v>
       </c>
       <c r="F42" s="3">
-        <v>24100</v>
+        <v>15600</v>
       </c>
       <c r="G42" s="3">
-        <v>36200</v>
+        <v>24900</v>
       </c>
       <c r="H42" s="3">
-        <v>22300</v>
+        <v>37400</v>
       </c>
       <c r="I42" s="3">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="J42" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K42" s="3">
         <v>30600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>32200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,59 +2795,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
-        <v>11600</v>
+        <v>5200</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>12000</v>
       </c>
       <c r="G43" s="3">
-        <v>17700</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>19500</v>
+        <v>18300</v>
       </c>
       <c r="I43" s="3">
-        <v>15700</v>
+        <v>20200</v>
       </c>
       <c r="J43" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,8 +2863,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2788,40 +2884,40 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
       </c>
       <c r="O44" s="3">
         <v>800</v>
       </c>
       <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
@@ -2835,59 +2931,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="E45" s="3">
-        <v>8600</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="G45" s="3">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="H45" s="3">
-        <v>13900</v>
+        <v>8200</v>
       </c>
       <c r="I45" s="3">
-        <v>11600</v>
+        <v>14300</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,59 +2999,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100100</v>
+        <v>96200</v>
       </c>
       <c r="E46" s="3">
-        <v>105900</v>
+        <v>103300</v>
       </c>
       <c r="F46" s="3">
-        <v>130800</v>
+        <v>109200</v>
       </c>
       <c r="G46" s="3">
-        <v>137400</v>
+        <v>135000</v>
       </c>
       <c r="H46" s="3">
-        <v>147600</v>
+        <v>141800</v>
       </c>
       <c r="I46" s="3">
-        <v>139200</v>
+        <v>152300</v>
       </c>
       <c r="J46" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K46" s="3">
         <v>174500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>193100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>235000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>272100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>278000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>208700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>234900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,59 +3067,62 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10000</v>
+        <v>8800</v>
       </c>
       <c r="E47" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="F47" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>10500</v>
       </c>
       <c r="H47" s="3">
-        <v>8700</v>
+        <v>9500</v>
       </c>
       <c r="I47" s="3">
-        <v>16800</v>
+        <v>8900</v>
       </c>
       <c r="J47" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K47" s="3">
         <v>15900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,16 +3135,19 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
@@ -3051,38 +3159,38 @@
         <v>1500</v>
       </c>
       <c r="I48" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,59 +3203,62 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21300</v>
+        <v>19800</v>
       </c>
       <c r="E49" s="3">
-        <v>52000</v>
+        <v>22000</v>
       </c>
       <c r="F49" s="3">
-        <v>75400</v>
+        <v>53600</v>
       </c>
       <c r="G49" s="3">
-        <v>85300</v>
+        <v>77800</v>
       </c>
       <c r="H49" s="3">
-        <v>96400</v>
+        <v>88000</v>
       </c>
       <c r="I49" s="3">
-        <v>115300</v>
+        <v>99500</v>
       </c>
       <c r="J49" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K49" s="3">
         <v>129200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>147300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>168300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>396000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>395600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>391000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>378700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>388200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>232000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,59 +3407,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29900</v>
+        <v>33900</v>
       </c>
       <c r="E52" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="F52" s="3">
-        <v>22800</v>
+        <v>31000</v>
       </c>
       <c r="G52" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="H52" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="I52" s="3">
-        <v>16900</v>
+        <v>23400</v>
       </c>
       <c r="J52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3543,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162400</v>
+        <v>161300</v>
       </c>
       <c r="E54" s="3">
-        <v>200300</v>
+        <v>167600</v>
       </c>
       <c r="F54" s="3">
-        <v>240700</v>
+        <v>206600</v>
       </c>
       <c r="G54" s="3">
-        <v>256100</v>
+        <v>248300</v>
       </c>
       <c r="H54" s="3">
-        <v>276900</v>
+        <v>264200</v>
       </c>
       <c r="I54" s="3">
-        <v>290100</v>
+        <v>285700</v>
       </c>
       <c r="J54" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K54" s="3">
         <v>323400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>419200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>660700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>704100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>691600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>630600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>497800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,59 +3665,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,17 +3731,20 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3760,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3665,59 +3799,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40900</v>
+        <v>40700</v>
       </c>
       <c r="E59" s="3">
-        <v>46900</v>
+        <v>42200</v>
       </c>
       <c r="F59" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="G59" s="3">
-        <v>48100</v>
+        <v>49700</v>
       </c>
       <c r="H59" s="3">
+        <v>49600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J59" s="3">
         <v>53000</v>
       </c>
-      <c r="I59" s="3">
-        <v>51400</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>93500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,59 +3867,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="E60" s="3">
-        <v>48300</v>
+        <v>46200</v>
       </c>
       <c r="F60" s="3">
-        <v>50700</v>
+        <v>49900</v>
       </c>
       <c r="G60" s="3">
-        <v>50800</v>
+        <v>52300</v>
       </c>
       <c r="H60" s="3">
-        <v>57500</v>
+        <v>52500</v>
       </c>
       <c r="I60" s="3">
-        <v>54200</v>
+        <v>59400</v>
       </c>
       <c r="J60" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K60" s="3">
         <v>57000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,8 +3935,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,59 +4003,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>3700</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
         <v>2800</v>
       </c>
       <c r="I62" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="J62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1100</v>
       </c>
       <c r="O62" s="3">
         <v>1100</v>
       </c>
       <c r="P62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4275,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52500</v>
+        <v>52600</v>
       </c>
       <c r="E66" s="3">
-        <v>58100</v>
+        <v>54200</v>
       </c>
       <c r="F66" s="3">
-        <v>53300</v>
+        <v>59900</v>
       </c>
       <c r="G66" s="3">
-        <v>53600</v>
+        <v>54900</v>
       </c>
       <c r="H66" s="3">
-        <v>60400</v>
+        <v>55300</v>
       </c>
       <c r="I66" s="3">
-        <v>58200</v>
+        <v>62300</v>
       </c>
       <c r="J66" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K66" s="3">
         <v>60300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>85700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4385,14 +4553,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>1261300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1040100</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4641,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1199100</v>
+        <v>-1245500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1167400</v>
+        <v>-1237200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1123400</v>
+        <v>-1204500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1110100</v>
+        <v>-1159000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1094900</v>
+        <v>-1145300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1089800</v>
+        <v>-1129700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1124400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1076800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1126800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1174900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-903900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-864900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-825000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-767100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-743400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-668400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4913,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>109900</v>
+        <v>108700</v>
       </c>
       <c r="E76" s="3">
-        <v>142200</v>
+        <v>113400</v>
       </c>
       <c r="F76" s="3">
-        <v>187400</v>
+        <v>146700</v>
       </c>
       <c r="G76" s="3">
-        <v>202500</v>
+        <v>193300</v>
       </c>
       <c r="H76" s="3">
-        <v>216500</v>
+        <v>209000</v>
       </c>
       <c r="I76" s="3">
-        <v>232000</v>
+        <v>223400</v>
       </c>
       <c r="J76" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K76" s="3">
         <v>263100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>291800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>575000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>623300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>615700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>604600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-711600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-642200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31400</v>
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
-        <v>-44300</v>
+        <v>-32400</v>
       </c>
       <c r="F81" s="3">
-        <v>-13300</v>
+        <v>-45700</v>
       </c>
       <c r="G81" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="H81" s="3">
-        <v>-5100</v>
+        <v>-15600</v>
       </c>
       <c r="I81" s="3">
-        <v>-13000</v>
+        <v>-5300</v>
       </c>
       <c r="J81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-255900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-65900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-43300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3">
         <v>-63300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-49600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5061,32 +5260,35 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>18700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18900</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5700</v>
+        <v>-2300</v>
       </c>
       <c r="E89" s="3">
-        <v>-8600</v>
+        <v>-5900</v>
       </c>
       <c r="F89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-7000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
-        <v>-4400</v>
-      </c>
       <c r="J89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-35800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-33900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5541,32 +5762,35 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>-200</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>-300</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4900</v>
+        <v>-4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4500</v>
+        <v>-5100</v>
       </c>
       <c r="F94" s="3">
-        <v>11400</v>
+        <v>-4700</v>
       </c>
       <c r="G94" s="3">
-        <v>-8400</v>
+        <v>11800</v>
       </c>
       <c r="H94" s="3">
-        <v>13100</v>
+        <v>-8600</v>
       </c>
       <c r="I94" s="3">
-        <v>-16200</v>
+        <v>13500</v>
       </c>
       <c r="J94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>20900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>33600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1200</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I100" s="3">
-        <v>-13500</v>
+        <v>-1100</v>
       </c>
       <c r="J100" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1600</v>
       </c>
       <c r="I101" s="3">
         <v>-1600</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9500</v>
+        <v>-6600</v>
       </c>
       <c r="E102" s="3">
-        <v>-13300</v>
+        <v>-9800</v>
       </c>
       <c r="F102" s="3">
-        <v>8400</v>
+        <v>-13700</v>
       </c>
       <c r="G102" s="3">
-        <v>-16300</v>
+        <v>8700</v>
       </c>
       <c r="H102" s="3">
-        <v>12200</v>
+        <v>-16800</v>
       </c>
       <c r="I102" s="3">
-        <v>-35700</v>
+        <v>12600</v>
       </c>
       <c r="J102" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>54400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-42800</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E8" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="F8" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G8" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="H8" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I8" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="J8" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="K8" s="3">
         <v>18400</v>
@@ -836,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="E9" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="F9" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G9" s="3">
         <v>6200</v>
@@ -851,7 +851,7 @@
         <v>5400</v>
       </c>
       <c r="I9" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J9" s="3">
         <v>6500</v>
@@ -904,25 +904,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E10" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="F10" s="3">
         <v>5100</v>
       </c>
       <c r="G10" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H10" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I10" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J10" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="K10" s="3">
         <v>11700</v>
@@ -1001,10 +1001,10 @@
         <v>3000</v>
       </c>
       <c r="E12" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F12" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G12" s="3">
         <v>3100</v>
@@ -1016,7 +1016,7 @@
         <v>3900</v>
       </c>
       <c r="J12" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K12" s="3">
         <v>4000</v>
@@ -1137,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F14" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1202,25 +1202,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="F15" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="G15" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H15" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I15" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="J15" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K15" s="3">
         <v>9800</v>
@@ -1293,25 +1293,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="E17" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="F17" s="3">
-        <v>58800</v>
+        <v>58200</v>
       </c>
       <c r="G17" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="H17" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="I17" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="J17" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="K17" s="3">
         <v>31700</v>
@@ -1361,25 +1361,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="E18" s="3">
-        <v>-34500</v>
+        <v>-34200</v>
       </c>
       <c r="F18" s="3">
-        <v>-47700</v>
+        <v>-47200</v>
       </c>
       <c r="G18" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="H18" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="I18" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="J18" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="K18" s="3">
         <v>-13200</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="J20" s="3">
         <v>800</v>
@@ -1523,25 +1523,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E21" s="3">
-        <v>-24000</v>
+        <v>-23800</v>
       </c>
       <c r="F21" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="G21" s="3">
         <v>-4200</v>
       </c>
       <c r="H21" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="I21" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J21" s="3">
-        <v>-12900</v>
+        <v>-12700</v>
       </c>
       <c r="K21" s="3">
         <v>-2500</v>
@@ -1662,22 +1662,22 @@
         <v>-8400</v>
       </c>
       <c r="E23" s="3">
-        <v>-34600</v>
+        <v>-34300</v>
       </c>
       <c r="F23" s="3">
-        <v>-45900</v>
+        <v>-45400</v>
       </c>
       <c r="G23" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H23" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="I23" s="3">
         <v>-3900</v>
       </c>
       <c r="J23" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="K23" s="3">
         <v>-12500</v>
@@ -1742,7 +1742,7 @@
         <v>-300</v>
       </c>
       <c r="I24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1863,25 +1863,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
-        <v>-32800</v>
+        <v>-32400</v>
       </c>
       <c r="F26" s="3">
-        <v>-45700</v>
+        <v>-45200</v>
       </c>
       <c r="G26" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I26" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J26" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="K26" s="3">
         <v>-12400</v>
@@ -1934,22 +1934,22 @@
         <v>-8200</v>
       </c>
       <c r="E27" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="F27" s="3">
-        <v>-45700</v>
+        <v>-45300</v>
       </c>
       <c r="G27" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H27" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I27" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J27" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="K27" s="3">
         <v>-12400</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="J32" s="3">
         <v>-800</v>
@@ -2342,22 +2342,22 @@
         <v>-8200</v>
       </c>
       <c r="E33" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="F33" s="3">
-        <v>-45700</v>
+        <v>-45300</v>
       </c>
       <c r="G33" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H33" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I33" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J33" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="K33" s="3">
         <v>-12400</v>
@@ -2478,22 +2478,22 @@
         <v>-8200</v>
       </c>
       <c r="E35" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="F35" s="3">
-        <v>-45700</v>
+        <v>-45300</v>
       </c>
       <c r="G35" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H35" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I35" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J35" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="K35" s="3">
         <v>-12400</v>
@@ -2668,25 +2668,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56400</v>
+        <v>55900</v>
       </c>
       <c r="E41" s="3">
-        <v>63000</v>
+        <v>62300</v>
       </c>
       <c r="F41" s="3">
-        <v>72800</v>
+        <v>72100</v>
       </c>
       <c r="G41" s="3">
-        <v>86500</v>
+        <v>85600</v>
       </c>
       <c r="H41" s="3">
-        <v>77900</v>
+        <v>77100</v>
       </c>
       <c r="I41" s="3">
-        <v>94700</v>
+        <v>93700</v>
       </c>
       <c r="J41" s="3">
-        <v>82100</v>
+        <v>81300</v>
       </c>
       <c r="K41" s="3">
         <v>115200</v>
@@ -2736,25 +2736,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="F42" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="G42" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="H42" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="I42" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="J42" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="K42" s="3">
         <v>30600</v>
@@ -2810,19 +2810,19 @@
         <v>5200</v>
       </c>
       <c r="F43" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="H43" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="I43" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J43" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="K43" s="3">
         <v>16500</v>
@@ -2940,25 +2940,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="3">
         <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H45" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I45" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="J45" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K45" s="3">
         <v>11800</v>
@@ -3008,25 +3008,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>96200</v>
+        <v>95200</v>
       </c>
       <c r="E46" s="3">
-        <v>103300</v>
+        <v>102200</v>
       </c>
       <c r="F46" s="3">
-        <v>109200</v>
+        <v>108100</v>
       </c>
       <c r="G46" s="3">
-        <v>135000</v>
+        <v>133600</v>
       </c>
       <c r="H46" s="3">
-        <v>141800</v>
+        <v>140300</v>
       </c>
       <c r="I46" s="3">
-        <v>152300</v>
+        <v>150700</v>
       </c>
       <c r="J46" s="3">
-        <v>143600</v>
+        <v>142100</v>
       </c>
       <c r="K46" s="3">
         <v>174500</v>
@@ -3076,25 +3076,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I47" s="3">
         <v>8800</v>
       </c>
-      <c r="E47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>8900</v>
-      </c>
       <c r="J47" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="K47" s="3">
         <v>15900</v>
@@ -3212,25 +3212,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F49" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="G49" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="H49" s="3">
-        <v>88000</v>
+        <v>87100</v>
       </c>
       <c r="I49" s="3">
-        <v>99500</v>
+        <v>98400</v>
       </c>
       <c r="J49" s="3">
-        <v>119000</v>
+        <v>117800</v>
       </c>
       <c r="K49" s="3">
         <v>129200</v>
@@ -3416,25 +3416,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="E52" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="F52" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="G52" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="H52" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="I52" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="J52" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
@@ -3552,25 +3552,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161300</v>
+        <v>159700</v>
       </c>
       <c r="E54" s="3">
-        <v>167600</v>
+        <v>165900</v>
       </c>
       <c r="F54" s="3">
-        <v>206600</v>
+        <v>204500</v>
       </c>
       <c r="G54" s="3">
-        <v>248300</v>
+        <v>245800</v>
       </c>
       <c r="H54" s="3">
-        <v>264200</v>
+        <v>261500</v>
       </c>
       <c r="I54" s="3">
-        <v>285700</v>
+        <v>282800</v>
       </c>
       <c r="J54" s="3">
-        <v>299300</v>
+        <v>296300</v>
       </c>
       <c r="K54" s="3">
         <v>323400</v>
@@ -3681,13 +3681,13 @@
         <v>1500</v>
       </c>
       <c r="G57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J57" s="3">
         <v>2900</v>
@@ -3808,25 +3808,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="E59" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="F59" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="G59" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="H59" s="3">
-        <v>49600</v>
+        <v>49100</v>
       </c>
       <c r="I59" s="3">
-        <v>54700</v>
+        <v>54100</v>
       </c>
       <c r="J59" s="3">
-        <v>53000</v>
+        <v>52500</v>
       </c>
       <c r="K59" s="3">
         <v>54000</v>
@@ -3876,25 +3876,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44700</v>
+        <v>44200</v>
       </c>
       <c r="E60" s="3">
-        <v>46200</v>
+        <v>45700</v>
       </c>
       <c r="F60" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="G60" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="H60" s="3">
-        <v>52500</v>
+        <v>51900</v>
       </c>
       <c r="I60" s="3">
-        <v>59400</v>
+        <v>58800</v>
       </c>
       <c r="J60" s="3">
-        <v>55900</v>
+        <v>55300</v>
       </c>
       <c r="K60" s="3">
         <v>57000</v>
@@ -4012,13 +4012,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
         <v>2600</v>
@@ -4284,25 +4284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52600</v>
+        <v>52100</v>
       </c>
       <c r="E66" s="3">
-        <v>54200</v>
+        <v>53600</v>
       </c>
       <c r="F66" s="3">
-        <v>59900</v>
+        <v>59300</v>
       </c>
       <c r="G66" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="H66" s="3">
-        <v>55300</v>
+        <v>54700</v>
       </c>
       <c r="I66" s="3">
-        <v>62300</v>
+        <v>61700</v>
       </c>
       <c r="J66" s="3">
-        <v>60000</v>
+        <v>59400</v>
       </c>
       <c r="K66" s="3">
         <v>60300</v>
@@ -4650,25 +4650,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1245500</v>
+        <v>-1232700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1237200</v>
+        <v>-1224500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1204500</v>
+        <v>-1192200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1159000</v>
+        <v>-1147200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1145300</v>
+        <v>-1133600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1129700</v>
+        <v>-1118200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1124400</v>
+        <v>-1112900</v>
       </c>
       <c r="K72" s="3">
         <v>-1076800</v>
@@ -4922,25 +4922,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>108700</v>
+        <v>107600</v>
       </c>
       <c r="E76" s="3">
-        <v>113400</v>
+        <v>112300</v>
       </c>
       <c r="F76" s="3">
-        <v>146700</v>
+        <v>145200</v>
       </c>
       <c r="G76" s="3">
-        <v>193300</v>
+        <v>191400</v>
       </c>
       <c r="H76" s="3">
-        <v>209000</v>
+        <v>206800</v>
       </c>
       <c r="I76" s="3">
-        <v>223400</v>
+        <v>221100</v>
       </c>
       <c r="J76" s="3">
-        <v>239300</v>
+        <v>236900</v>
       </c>
       <c r="K76" s="3">
         <v>263100</v>
@@ -5134,22 +5134,22 @@
         <v>-8200</v>
       </c>
       <c r="E81" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="F81" s="3">
-        <v>-45700</v>
+        <v>-45300</v>
       </c>
       <c r="G81" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H81" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I81" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J81" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="K81" s="3">
         <v>-12400</v>
@@ -5636,16 +5636,16 @@
         <v>-2300</v>
       </c>
       <c r="E89" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="F89" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="G89" s="3">
         <v>-1600</v>
       </c>
       <c r="H89" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="I89" s="3">
         <v>1700</v>
@@ -5727,7 +5727,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-16800</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5934,22 +5934,22 @@
         <v>-4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G94" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="I94" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J94" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="K94" s="3">
         <v>-2000</v>
@@ -6315,7 +6315,7 @@
         <v>-1100</v>
       </c>
       <c r="J100" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="K100" s="3">
         <v>-800</v>
@@ -6433,25 +6433,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="E102" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="F102" s="3">
-        <v>-13700</v>
+        <v>-13500</v>
       </c>
       <c r="G102" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H102" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I102" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="J102" s="3">
-        <v>-36800</v>
+        <v>-36400</v>
       </c>
       <c r="K102" s="3">
         <v>-4000</v>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>23900</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
-        <v>11000</v>
+        <v>23100</v>
       </c>
       <c r="G8" s="3">
-        <v>13100</v>
+        <v>10700</v>
       </c>
       <c r="H8" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="I8" s="3">
-        <v>20800</v>
+        <v>12500</v>
       </c>
       <c r="J8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>53300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>45300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39300</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="E9" s="3">
-        <v>10600</v>
+        <v>8200</v>
       </c>
       <c r="F9" s="3">
-        <v>5900</v>
+        <v>10300</v>
       </c>
       <c r="G9" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="H9" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="I9" s="3">
-        <v>7200</v>
+        <v>5200</v>
       </c>
       <c r="J9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="3">
         <v>6500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7800</v>
+        <v>8700</v>
       </c>
       <c r="E10" s="3">
-        <v>13300</v>
+        <v>7600</v>
       </c>
       <c r="F10" s="3">
-        <v>5100</v>
+        <v>12900</v>
       </c>
       <c r="G10" s="3">
-        <v>6900</v>
+        <v>4900</v>
       </c>
       <c r="H10" s="3">
-        <v>7500</v>
+        <v>6700</v>
       </c>
       <c r="I10" s="3">
-        <v>13600</v>
+        <v>7300</v>
       </c>
       <c r="J10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K10" s="3">
         <v>9500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27300</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,76 +1005,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2800</v>
-      </c>
       <c r="I12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8800</v>
       </c>
       <c r="S12" s="3">
         <v>8800</v>
       </c>
       <c r="T12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="U12" s="3">
         <v>10000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10800</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,22 +1145,25 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6900</v>
+      <c r="D14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>25700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1157,20 +1177,20 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>216400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1178,82 +1198,85 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-2000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
       </c>
-      <c r="E15" s="3">
-        <v>23900</v>
-      </c>
       <c r="F15" s="3">
-        <v>13600</v>
+        <v>23100</v>
       </c>
       <c r="G15" s="3">
-        <v>9200</v>
+        <v>13200</v>
       </c>
       <c r="H15" s="3">
-        <v>11700</v>
+        <v>8900</v>
       </c>
       <c r="I15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N15" s="3">
         <v>16100</v>
       </c>
-      <c r="J15" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>12800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>16100</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7900</v>
-      </c>
-      <c r="U15" s="3">
-        <v>16300</v>
       </c>
       <c r="V15" s="3">
         <v>16300</v>
@@ -1261,11 +1284,14 @@
       <c r="W15" s="3">
         <v>16300</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23200</v>
+        <v>35400</v>
       </c>
       <c r="E17" s="3">
-        <v>58000</v>
+        <v>22400</v>
       </c>
       <c r="F17" s="3">
-        <v>58200</v>
+        <v>56300</v>
       </c>
       <c r="G17" s="3">
-        <v>27000</v>
+        <v>56400</v>
       </c>
       <c r="H17" s="3">
-        <v>28600</v>
+        <v>26200</v>
       </c>
       <c r="I17" s="3">
-        <v>38300</v>
+        <v>27700</v>
       </c>
       <c r="J17" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K17" s="3">
         <v>30300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>291900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>52100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>47900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3">
         <v>76000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-19200</v>
       </c>
       <c r="E18" s="3">
-        <v>-34200</v>
+        <v>-6600</v>
       </c>
       <c r="F18" s="3">
-        <v>-47200</v>
+        <v>-33100</v>
       </c>
       <c r="G18" s="3">
-        <v>-13900</v>
+        <v>-45800</v>
       </c>
       <c r="H18" s="3">
-        <v>-15700</v>
+        <v>-13500</v>
       </c>
       <c r="I18" s="3">
-        <v>-17500</v>
+        <v>-15200</v>
       </c>
       <c r="J18" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-249700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-20900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
         <v>-44000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-30100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,144 +1482,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>1800</v>
-      </c>
       <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>23700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5200</v>
+        <v>-15100</v>
       </c>
       <c r="E21" s="3">
-        <v>-23800</v>
+        <v>-5100</v>
       </c>
       <c r="F21" s="3">
-        <v>-41100</v>
+        <v>-23100</v>
       </c>
       <c r="G21" s="3">
-        <v>-4200</v>
+        <v>-39800</v>
       </c>
       <c r="H21" s="3">
-        <v>-20600</v>
+        <v>-4100</v>
       </c>
       <c r="I21" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-249700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-36400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>-23300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-10300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,99 +1693,105 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8400</v>
+        <v>-18000</v>
       </c>
       <c r="E23" s="3">
-        <v>-34300</v>
+        <v>-8100</v>
       </c>
       <c r="F23" s="3">
-        <v>-45400</v>
+        <v>-33200</v>
       </c>
       <c r="G23" s="3">
-        <v>-13600</v>
+        <v>-44000</v>
       </c>
       <c r="H23" s="3">
-        <v>-15700</v>
+        <v>-13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3900</v>
+        <v>-15200</v>
       </c>
       <c r="J23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-253800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-42100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-29200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-200</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
@@ -1754,43 +1800,46 @@
         <v>-200</v>
       </c>
       <c r="M24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3800</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8200</v>
+        <v>-17900</v>
       </c>
       <c r="E26" s="3">
-        <v>-32400</v>
+        <v>-8000</v>
       </c>
       <c r="F26" s="3">
-        <v>-45200</v>
+        <v>-31400</v>
       </c>
       <c r="G26" s="3">
-        <v>-13600</v>
+        <v>-43800</v>
       </c>
       <c r="H26" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="I26" s="3">
-        <v>-5200</v>
+        <v>-15000</v>
       </c>
       <c r="J26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-254000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3">
         <v>-38200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-25300</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8200</v>
+        <v>-16600</v>
       </c>
       <c r="E27" s="3">
-        <v>-32100</v>
+        <v>-7900</v>
       </c>
       <c r="F27" s="3">
-        <v>-45300</v>
+        <v>-31100</v>
       </c>
       <c r="G27" s="3">
-        <v>-13600</v>
+        <v>-43900</v>
       </c>
       <c r="H27" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="I27" s="3">
-        <v>-5200</v>
+        <v>-15000</v>
       </c>
       <c r="J27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-255900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-65900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-43300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3">
         <v>-63300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-49600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-13600</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-23700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8200</v>
+        <v>-16600</v>
       </c>
       <c r="E33" s="3">
-        <v>-32100</v>
+        <v>-7900</v>
       </c>
       <c r="F33" s="3">
-        <v>-45300</v>
+        <v>-31100</v>
       </c>
       <c r="G33" s="3">
-        <v>-13600</v>
+        <v>-43900</v>
       </c>
       <c r="H33" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="I33" s="3">
-        <v>-5200</v>
+        <v>-15000</v>
       </c>
       <c r="J33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-255900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-65900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3">
         <v>-63300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-49600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8200</v>
+        <v>-16600</v>
       </c>
       <c r="E35" s="3">
-        <v>-32100</v>
+        <v>-7900</v>
       </c>
       <c r="F35" s="3">
-        <v>-45300</v>
+        <v>-31100</v>
       </c>
       <c r="G35" s="3">
-        <v>-13600</v>
+        <v>-43900</v>
       </c>
       <c r="H35" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="I35" s="3">
-        <v>-5200</v>
+        <v>-15000</v>
       </c>
       <c r="J35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-255900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-65900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3">
         <v>-63300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-49600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,62 +2748,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55900</v>
+        <v>57300</v>
       </c>
       <c r="E41" s="3">
-        <v>62300</v>
+        <v>54100</v>
       </c>
       <c r="F41" s="3">
-        <v>72100</v>
+        <v>60400</v>
       </c>
       <c r="G41" s="3">
-        <v>85600</v>
+        <v>69900</v>
       </c>
       <c r="H41" s="3">
-        <v>77100</v>
+        <v>83000</v>
       </c>
       <c r="I41" s="3">
-        <v>93700</v>
+        <v>74700</v>
       </c>
       <c r="J41" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K41" s="3">
         <v>81300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>194200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>183900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>129500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,62 +2817,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30000</v>
+        <v>20100</v>
       </c>
       <c r="E42" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="F42" s="3">
-        <v>15400</v>
+        <v>27100</v>
       </c>
       <c r="G42" s="3">
-        <v>24600</v>
+        <v>14900</v>
       </c>
       <c r="H42" s="3">
-        <v>37000</v>
+        <v>23900</v>
       </c>
       <c r="I42" s="3">
-        <v>22700</v>
+        <v>35900</v>
       </c>
       <c r="J42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K42" s="3">
         <v>32700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>32200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,62 +2888,65 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>5200</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>11800</v>
+        <v>5000</v>
       </c>
       <c r="G43" s="3">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="H43" s="3">
-        <v>18100</v>
+        <v>13500</v>
       </c>
       <c r="I43" s="3">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="J43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K43" s="3">
         <v>16100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,8 +2959,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2887,40 +2983,40 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
       </c>
       <c r="P44" s="3">
         <v>800</v>
       </c>
       <c r="Q44" s="3">
+        <v>800</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
@@ -2934,62 +3030,65 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7800</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>7600</v>
       </c>
       <c r="F45" s="3">
-        <v>8700</v>
+        <v>6500</v>
       </c>
       <c r="G45" s="3">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
-        <v>8100</v>
+        <v>9100</v>
       </c>
       <c r="I45" s="3">
-        <v>14200</v>
+        <v>7900</v>
       </c>
       <c r="J45" s="3">
-        <v>11800</v>
+        <v>13700</v>
       </c>
       <c r="K45" s="3">
         <v>11800</v>
       </c>
       <c r="L45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M45" s="3">
         <v>14700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3002,62 +3101,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>95200</v>
+        <v>88300</v>
       </c>
       <c r="E46" s="3">
-        <v>102200</v>
+        <v>92200</v>
       </c>
       <c r="F46" s="3">
-        <v>108100</v>
+        <v>99100</v>
       </c>
       <c r="G46" s="3">
-        <v>133600</v>
+        <v>104800</v>
       </c>
       <c r="H46" s="3">
-        <v>140300</v>
+        <v>129500</v>
       </c>
       <c r="I46" s="3">
-        <v>150700</v>
+        <v>136000</v>
       </c>
       <c r="J46" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K46" s="3">
         <v>142100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>174500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>193100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>235000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>272100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>278000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>208700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>234900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3070,62 +3172,65 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8700</v>
+        <v>9600</v>
       </c>
       <c r="E47" s="3">
-        <v>10300</v>
+        <v>8500</v>
       </c>
       <c r="F47" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="L47" s="3">
+        <v>15900</v>
+      </c>
+      <c r="M47" s="3">
+        <v>15100</v>
+      </c>
+      <c r="N47" s="3">
         <v>11300</v>
       </c>
-      <c r="G47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>15900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>15100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>11300</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3138,62 +3243,65 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>27600</v>
       </c>
       <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
-        <v>1500</v>
-      </c>
       <c r="H48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1500</v>
       </c>
       <c r="J48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3206,62 +3314,65 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19600</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>21800</v>
+        <v>19000</v>
       </c>
       <c r="F49" s="3">
-        <v>53100</v>
+        <v>21100</v>
       </c>
       <c r="G49" s="3">
-        <v>77000</v>
+        <v>51500</v>
       </c>
       <c r="H49" s="3">
-        <v>87100</v>
+        <v>74600</v>
       </c>
       <c r="I49" s="3">
-        <v>98400</v>
+        <v>84400</v>
       </c>
       <c r="J49" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K49" s="3">
         <v>117800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>147300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>168300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>396000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>395600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>391000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>378700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>388200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>232000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,62 +3527,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33600</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>30600</v>
+        <v>32600</v>
       </c>
       <c r="F52" s="3">
-        <v>30700</v>
+        <v>29600</v>
       </c>
       <c r="G52" s="3">
-        <v>23300</v>
+        <v>29700</v>
       </c>
       <c r="H52" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="I52" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J52" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K52" s="3">
         <v>17200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,62 +3669,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159700</v>
+        <v>135900</v>
       </c>
       <c r="E54" s="3">
-        <v>165900</v>
+        <v>154800</v>
       </c>
       <c r="F54" s="3">
-        <v>204500</v>
+        <v>160800</v>
       </c>
       <c r="G54" s="3">
-        <v>245800</v>
+        <v>198200</v>
       </c>
       <c r="H54" s="3">
-        <v>261500</v>
+        <v>238200</v>
       </c>
       <c r="I54" s="3">
-        <v>282800</v>
+        <v>253500</v>
       </c>
       <c r="J54" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K54" s="3">
         <v>296300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>323400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>359700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>419200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>660700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>704100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>691600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>630600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>497800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3740,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,62 +3796,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2800</v>
-      </c>
       <c r="I57" s="3">
-        <v>4600</v>
+        <v>2700</v>
       </c>
       <c r="J57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3734,20 +3865,23 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,8 +3897,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3802,62 +3936,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40300</v>
+        <v>41700</v>
       </c>
       <c r="E59" s="3">
-        <v>41800</v>
+        <v>39100</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>40500</v>
       </c>
       <c r="G59" s="3">
-        <v>49200</v>
+        <v>46400</v>
       </c>
       <c r="H59" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="I59" s="3">
-        <v>54100</v>
+        <v>47600</v>
       </c>
       <c r="J59" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K59" s="3">
         <v>52500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>76400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>93500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,62 +4007,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44200</v>
+        <v>42800</v>
       </c>
       <c r="E60" s="3">
-        <v>45700</v>
+        <v>42800</v>
       </c>
       <c r="F60" s="3">
-        <v>49400</v>
+        <v>44300</v>
       </c>
       <c r="G60" s="3">
-        <v>51800</v>
+        <v>47900</v>
       </c>
       <c r="H60" s="3">
-        <v>51900</v>
+        <v>50200</v>
       </c>
       <c r="I60" s="3">
-        <v>58800</v>
+        <v>50300</v>
       </c>
       <c r="J60" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K60" s="3">
         <v>55300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3938,8 +4078,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,62 +4149,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
-        <v>3800</v>
-      </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1100</v>
       </c>
       <c r="P62" s="3">
         <v>1100</v>
       </c>
       <c r="Q62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,62 +4433,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52100</v>
+        <v>48100</v>
       </c>
       <c r="E66" s="3">
-        <v>53600</v>
+        <v>50500</v>
       </c>
       <c r="F66" s="3">
-        <v>59300</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="3">
-        <v>54400</v>
+        <v>57500</v>
       </c>
       <c r="H66" s="3">
-        <v>54700</v>
+        <v>52700</v>
       </c>
       <c r="I66" s="3">
-        <v>61700</v>
+        <v>53000</v>
       </c>
       <c r="J66" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K66" s="3">
         <v>59400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>85700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>80800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4346,8 +4504,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4556,14 +4724,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>1261300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1040100</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,62 +4815,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1232700</v>
+        <v>-1211400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1224500</v>
+        <v>-1194800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1192200</v>
+        <v>-1186900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1147200</v>
+        <v>-1155500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1133600</v>
+        <v>-1111900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1118200</v>
+        <v>-1098700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1083800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1112900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1076800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1126800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1174900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-903900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-864900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-825000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-767100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-743400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-668400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4712,8 +4886,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,62 +5099,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107600</v>
+        <v>87800</v>
       </c>
       <c r="E76" s="3">
-        <v>112300</v>
+        <v>104300</v>
       </c>
       <c r="F76" s="3">
-        <v>145200</v>
+        <v>108800</v>
       </c>
       <c r="G76" s="3">
-        <v>191400</v>
+        <v>140800</v>
       </c>
       <c r="H76" s="3">
-        <v>206800</v>
+        <v>185500</v>
       </c>
       <c r="I76" s="3">
-        <v>221100</v>
+        <v>200500</v>
       </c>
       <c r="J76" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K76" s="3">
         <v>236900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>263100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>291800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>575000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>623300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>615700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>604600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-711600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-642200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4984,8 +5170,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8200</v>
+        <v>-16600</v>
       </c>
       <c r="E81" s="3">
-        <v>-32100</v>
+        <v>-7900</v>
       </c>
       <c r="F81" s="3">
-        <v>-45300</v>
+        <v>-31100</v>
       </c>
       <c r="G81" s="3">
-        <v>-13600</v>
+        <v>-43900</v>
       </c>
       <c r="H81" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="I81" s="3">
-        <v>-5200</v>
+        <v>-15000</v>
       </c>
       <c r="J81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-255900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-65900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3">
         <v>-63300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-49600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5263,32 +5462,35 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>18700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18900</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2300</v>
+        <v>800</v>
       </c>
       <c r="E89" s="3">
-        <v>-5800</v>
+        <v>-2200</v>
       </c>
       <c r="F89" s="3">
-        <v>-8800</v>
+        <v>-5600</v>
       </c>
       <c r="G89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-35800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-33900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,13 +5941,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16800</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5765,32 +5986,35 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>-200</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>-300</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4000</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5000</v>
+        <v>-3900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4600</v>
+        <v>-4900</v>
       </c>
       <c r="G94" s="3">
-        <v>11700</v>
+        <v>-4500</v>
       </c>
       <c r="H94" s="3">
-        <v>-8500</v>
+        <v>11300</v>
       </c>
       <c r="I94" s="3">
-        <v>13400</v>
+        <v>-8300</v>
       </c>
       <c r="J94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>33600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6534,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>1300</v>
-      </c>
       <c r="F100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2300</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6500</v>
+        <v>3200</v>
       </c>
       <c r="E102" s="3">
-        <v>-9700</v>
+        <v>-6300</v>
       </c>
       <c r="F102" s="3">
-        <v>-13500</v>
+        <v>-9400</v>
       </c>
       <c r="G102" s="3">
-        <v>8600</v>
+        <v>-13100</v>
       </c>
       <c r="H102" s="3">
-        <v>-16700</v>
+        <v>8300</v>
       </c>
       <c r="I102" s="3">
-        <v>12500</v>
+        <v>-16200</v>
       </c>
       <c r="J102" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-36400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>54400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-42800</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOGU_QTR_FIN.xlsx
@@ -772,13 +772,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F8" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="G8" s="3">
         <v>10700</v>
@@ -787,7 +787,7 @@
         <v>12700</v>
       </c>
       <c r="I8" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="J8" s="3">
         <v>20200</v>
@@ -852,7 +852,7 @@
         <v>10300</v>
       </c>
       <c r="G9" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H9" s="3">
         <v>6000</v>
@@ -1160,10 +1160,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G14" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1231,7 +1231,7 @@
         <v>2800</v>
       </c>
       <c r="F15" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="G15" s="3">
         <v>13200</v>
@@ -1243,7 +1243,7 @@
         <v>11300</v>
       </c>
       <c r="J15" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="K15" s="3">
         <v>10800</v>
@@ -1323,22 +1323,22 @@
         <v>35400</v>
       </c>
       <c r="E17" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="F17" s="3">
-        <v>56300</v>
+        <v>56400</v>
       </c>
       <c r="G17" s="3">
-        <v>56400</v>
+        <v>56600</v>
       </c>
       <c r="H17" s="3">
         <v>26200</v>
       </c>
       <c r="I17" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="J17" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="K17" s="3">
         <v>30300</v>
@@ -1391,16 +1391,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="E18" s="3">
         <v>-6600</v>
       </c>
       <c r="F18" s="3">
-        <v>-33100</v>
+        <v>-33200</v>
       </c>
       <c r="G18" s="3">
-        <v>-45800</v>
+        <v>-45900</v>
       </c>
       <c r="H18" s="3">
         <v>-13500</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K20" s="3">
         <v>800</v>
@@ -1569,13 +1569,13 @@
         <v>-23100</v>
       </c>
       <c r="G21" s="3">
-        <v>-39800</v>
+        <v>-39900</v>
       </c>
       <c r="H21" s="3">
         <v>-4100</v>
       </c>
       <c r="I21" s="3">
-        <v>-19900</v>
+        <v>-20000</v>
       </c>
       <c r="J21" s="3">
         <v>1800</v>
@@ -1708,16 +1708,16 @@
         <v>-8100</v>
       </c>
       <c r="F23" s="3">
-        <v>-33200</v>
+        <v>-33300</v>
       </c>
       <c r="G23" s="3">
-        <v>-44000</v>
+        <v>-44100</v>
       </c>
       <c r="H23" s="3">
         <v>-13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-15200</v>
+        <v>-15300</v>
       </c>
       <c r="J23" s="3">
         <v>-3800</v>
@@ -1921,10 +1921,10 @@
         <v>-8000</v>
       </c>
       <c r="F26" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="G26" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="H26" s="3">
         <v>-13200</v>
@@ -1992,10 +1992,10 @@
         <v>-7900</v>
       </c>
       <c r="F27" s="3">
-        <v>-31100</v>
+        <v>-31200</v>
       </c>
       <c r="G27" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="H27" s="3">
         <v>-13200</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="K32" s="3">
         <v>-800</v>
@@ -2418,10 +2418,10 @@
         <v>-7900</v>
       </c>
       <c r="F33" s="3">
-        <v>-31100</v>
+        <v>-31200</v>
       </c>
       <c r="G33" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="H33" s="3">
         <v>-13200</v>
@@ -2560,10 +2560,10 @@
         <v>-7900</v>
       </c>
       <c r="F35" s="3">
-        <v>-31100</v>
+        <v>-31200</v>
       </c>
       <c r="G35" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="H35" s="3">
         <v>-13200</v>
@@ -2755,25 +2755,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="E41" s="3">
-        <v>54100</v>
+        <v>54300</v>
       </c>
       <c r="F41" s="3">
-        <v>60400</v>
+        <v>60600</v>
       </c>
       <c r="G41" s="3">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="H41" s="3">
-        <v>83000</v>
+        <v>83200</v>
       </c>
       <c r="I41" s="3">
-        <v>74700</v>
+        <v>74800</v>
       </c>
       <c r="J41" s="3">
-        <v>90800</v>
+        <v>91000</v>
       </c>
       <c r="K41" s="3">
         <v>81300</v>
@@ -2832,10 +2832,10 @@
         <v>29100</v>
       </c>
       <c r="F42" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="G42" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H42" s="3">
         <v>23900</v>
@@ -2844,7 +2844,7 @@
         <v>35900</v>
       </c>
       <c r="J42" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="K42" s="3">
         <v>32700</v>
@@ -2900,7 +2900,7 @@
         <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="3">
         <v>5000</v>
@@ -2909,13 +2909,13 @@
         <v>11500</v>
       </c>
       <c r="H43" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="I43" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="J43" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="K43" s="3">
         <v>16100</v>
@@ -3039,7 +3039,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="E45" s="3">
         <v>7600</v>
@@ -3057,7 +3057,7 @@
         <v>7900</v>
       </c>
       <c r="J45" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K45" s="3">
         <v>11800</v>
@@ -3110,25 +3110,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88300</v>
+        <v>88500</v>
       </c>
       <c r="E46" s="3">
-        <v>92200</v>
+        <v>92400</v>
       </c>
       <c r="F46" s="3">
-        <v>99100</v>
+        <v>99300</v>
       </c>
       <c r="G46" s="3">
-        <v>104800</v>
+        <v>105000</v>
       </c>
       <c r="H46" s="3">
-        <v>129500</v>
+        <v>129800</v>
       </c>
       <c r="I46" s="3">
-        <v>136000</v>
+        <v>136300</v>
       </c>
       <c r="J46" s="3">
-        <v>146100</v>
+        <v>146400</v>
       </c>
       <c r="K46" s="3">
         <v>142100</v>
@@ -3187,7 +3187,7 @@
         <v>8500</v>
       </c>
       <c r="F47" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="3">
         <v>10900</v>
@@ -3196,7 +3196,7 @@
         <v>10100</v>
       </c>
       <c r="I47" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="J47" s="3">
         <v>8600</v>
@@ -3329,19 +3329,19 @@
         <v>19000</v>
       </c>
       <c r="F49" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="G49" s="3">
-        <v>51500</v>
+        <v>51600</v>
       </c>
       <c r="H49" s="3">
-        <v>74600</v>
+        <v>74800</v>
       </c>
       <c r="I49" s="3">
-        <v>84400</v>
+        <v>84600</v>
       </c>
       <c r="J49" s="3">
-        <v>95400</v>
+        <v>95600</v>
       </c>
       <c r="K49" s="3">
         <v>117800</v>
@@ -3542,13 +3542,13 @@
         <v>32600</v>
       </c>
       <c r="F52" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="G52" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="H52" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="I52" s="3">
         <v>22500</v>
@@ -3678,25 +3678,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>135900</v>
+        <v>136200</v>
       </c>
       <c r="E54" s="3">
-        <v>154800</v>
+        <v>155100</v>
       </c>
       <c r="F54" s="3">
-        <v>160800</v>
+        <v>161100</v>
       </c>
       <c r="G54" s="3">
-        <v>198200</v>
+        <v>198700</v>
       </c>
       <c r="H54" s="3">
-        <v>238200</v>
+        <v>238700</v>
       </c>
       <c r="I54" s="3">
-        <v>253500</v>
+        <v>254000</v>
       </c>
       <c r="J54" s="3">
-        <v>274100</v>
+        <v>274700</v>
       </c>
       <c r="K54" s="3">
         <v>296300</v>
@@ -3818,7 +3818,7 @@
         <v>2600</v>
       </c>
       <c r="I57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3">
         <v>4500</v>
@@ -3945,25 +3945,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="E59" s="3">
-        <v>39100</v>
+        <v>39200</v>
       </c>
       <c r="F59" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="G59" s="3">
-        <v>46400</v>
+        <v>46500</v>
       </c>
       <c r="H59" s="3">
-        <v>47600</v>
+        <v>47800</v>
       </c>
       <c r="I59" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="J59" s="3">
-        <v>52400</v>
+        <v>52600</v>
       </c>
       <c r="K59" s="3">
         <v>52500</v>
@@ -4016,25 +4016,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42800</v>
+        <v>42900</v>
       </c>
       <c r="E60" s="3">
-        <v>42800</v>
+        <v>42900</v>
       </c>
       <c r="F60" s="3">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="G60" s="3">
-        <v>47900</v>
+        <v>48000</v>
       </c>
       <c r="H60" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="I60" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="J60" s="3">
-        <v>56900</v>
+        <v>57100</v>
       </c>
       <c r="K60" s="3">
         <v>55300</v>
@@ -4442,25 +4442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="E66" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="F66" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="G66" s="3">
-        <v>57500</v>
+        <v>57600</v>
       </c>
       <c r="H66" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="I66" s="3">
-        <v>53000</v>
+        <v>53200</v>
       </c>
       <c r="J66" s="3">
-        <v>59800</v>
+        <v>59900</v>
       </c>
       <c r="K66" s="3">
         <v>59400</v>
@@ -4824,25 +4824,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1211400</v>
+        <v>-1214100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1194800</v>
+        <v>-1197400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1186900</v>
+        <v>-1189500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1155500</v>
+        <v>-1158000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1111900</v>
+        <v>-1114300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1098700</v>
+        <v>-1101100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1083800</v>
+        <v>-1086100</v>
       </c>
       <c r="K72" s="3">
         <v>-1112900</v>
@@ -5108,25 +5108,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87800</v>
+        <v>88000</v>
       </c>
       <c r="E76" s="3">
-        <v>104300</v>
+        <v>104500</v>
       </c>
       <c r="F76" s="3">
-        <v>108800</v>
+        <v>109000</v>
       </c>
       <c r="G76" s="3">
-        <v>140800</v>
+        <v>141100</v>
       </c>
       <c r="H76" s="3">
-        <v>185500</v>
+        <v>185900</v>
       </c>
       <c r="I76" s="3">
-        <v>200500</v>
+        <v>200900</v>
       </c>
       <c r="J76" s="3">
-        <v>214300</v>
+        <v>214800</v>
       </c>
       <c r="K76" s="3">
         <v>236900</v>
@@ -5332,10 +5332,10 @@
         <v>-7900</v>
       </c>
       <c r="F81" s="3">
-        <v>-31100</v>
+        <v>-31200</v>
       </c>
       <c r="G81" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="H81" s="3">
         <v>-13200</v>
@@ -6694,7 +6694,7 @@
         <v>-9400</v>
       </c>
       <c r="G102" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="H102" s="3">
         <v>8300</v>
